--- a/九里A2-自己.xlsx
+++ b/九里A2-自己.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="245">
   <si>
     <t>龙湖九里晴川家装预算表</t>
   </si>
@@ -795,6 +795,21 @@
   </si>
   <si>
     <t>天燃气灶</t>
+  </si>
+  <si>
+    <t>卧室灯</t>
+  </si>
+  <si>
+    <t>孔灯</t>
+  </si>
+  <si>
+    <t>安装</t>
+  </si>
+  <si>
+    <t>水槽安装</t>
+  </si>
+  <si>
+    <t>灯具安装</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1194,32 +1209,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,15 +1225,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,19 +1234,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1272,9 +1245,6 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1288,9 +1258,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1303,16 +1270,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1325,21 +1283,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1349,16 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1371,20 +1311,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1394,13 +1325,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,24 +1338,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,20 +1356,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1466,13 +1370,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1482,12 +1380,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1503,10 +1395,139 @@
     <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1821,28 +1842,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
+      <c r="A1" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
     </row>
     <row r="2" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1909,13 +1930,13 @@
     <row r="3" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="135">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1971,9 +1992,9 @@
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
       <c r="E5" s="6" t="s">
         <v>38</v>
       </c>
@@ -2027,9 +2048,9 @@
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
       <c r="E6" s="6" t="s">
         <v>39</v>
       </c>
@@ -2083,9 +2104,9 @@
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
       <c r="E7" s="6" t="s">
         <v>42</v>
       </c>
@@ -2139,11 +2160,11 @@
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="132"/>
+      <c r="C8" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="131">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2184,9 +2205,9 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
@@ -2225,9 +2246,9 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
@@ -2266,14 +2287,14 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="132"/>
+      <c r="C11" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="131">
         <v>3</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="131" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2328,10 +2349,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
       <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
@@ -2378,10 +2399,10 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2426,10 +2447,10 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
       <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
@@ -2467,10 +2488,10 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="17" t="s">
         <v>45</v>
       </c>
@@ -2509,10 +2530,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
       <c r="F16" s="3" t="s">
         <v>46</v>
       </c>
@@ -2545,10 +2566,10 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="17" t="s">
         <v>82</v>
       </c>
@@ -2575,10 +2596,10 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
       <c r="F18" s="17" t="s">
         <v>83</v>
       </c>
@@ -2605,10 +2626,10 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31" t="s">
+      <c r="B19" s="132"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2646,10 +2667,10 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
       <c r="F20" s="5" t="s">
         <v>70</v>
       </c>
@@ -2683,10 +2704,10 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
       <c r="F21" s="3" t="s">
         <v>53</v>
       </c>
@@ -2722,10 +2743,10 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
       <c r="F22" s="3" t="s">
         <v>54</v>
       </c>
@@ -2761,10 +2782,10 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
       <c r="F23" s="3" t="s">
         <v>56</v>
       </c>
@@ -2798,10 +2819,10 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31" t="s">
+      <c r="B24" s="132"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -2836,10 +2857,10 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
       <c r="F25" s="19" t="s">
         <v>98</v>
       </c>
@@ -2872,10 +2893,10 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
       <c r="F26" s="3" t="s">
         <v>58</v>
       </c>
@@ -2911,10 +2932,10 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
       <c r="F27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2948,10 +2969,10 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31" t="s">
+      <c r="B28" s="132"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="1"/>
@@ -2988,10 +3009,10 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="5"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -3019,10 +3040,10 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31" t="s">
+      <c r="B30" s="132"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131" t="s">
         <v>20</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -3060,10 +3081,10 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
       <c r="F31" s="5"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -3086,11 +3107,11 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="31" t="s">
+      <c r="B32" s="132"/>
+      <c r="C32" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="131">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3120,9 +3141,9 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
       <c r="E33" s="1" t="s">
         <v>18</v>
       </c>
@@ -3148,9 +3169,9 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
       <c r="E34" s="1" t="s">
         <v>19</v>
       </c>
@@ -3176,9 +3197,9 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
       <c r="E35" s="19" t="s">
         <v>57</v>
       </c>
@@ -3199,9 +3220,9 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
       <c r="E36" s="1" t="s">
         <v>20</v>
       </c>
@@ -3231,14 +3252,14 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="31" t="s">
+      <c r="B37" s="132"/>
+      <c r="C37" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="31">
-        <v>1</v>
-      </c>
-      <c r="E37" s="31" t="s">
+      <c r="D37" s="131">
+        <v>1</v>
+      </c>
+      <c r="E37" s="131" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -3265,10 +3286,10 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
       <c r="F38" s="3" t="s">
         <v>50</v>
       </c>
@@ -3286,10 +3307,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
       <c r="F39" s="3" t="s">
         <v>51</v>
       </c>
@@ -3314,9 +3335,9 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
       <c r="E40" s="1" t="s">
         <v>18</v>
       </c>
@@ -3344,9 +3365,9 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
       <c r="E41" s="5" t="s">
         <v>75</v>
       </c>
@@ -3374,10 +3395,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31" t="s">
+      <c r="B42" s="132"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -3406,10 +3427,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
       <c r="F43" s="19" t="s">
         <v>112</v>
       </c>
@@ -3427,10 +3448,10 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
       <c r="F44" s="19" t="s">
         <v>113</v>
       </c>
@@ -3448,10 +3469,10 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
       <c r="F45" s="3" t="s">
         <v>43</v>
       </c>
@@ -3480,11 +3501,11 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="31" t="s">
+      <c r="B46" s="132"/>
+      <c r="C46" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="131">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3512,9 +3533,9 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
       <c r="E47" s="1" t="s">
         <v>18</v>
       </c>
@@ -3540,9 +3561,9 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
       <c r="E48" s="1" t="s">
         <v>19</v>
       </c>
@@ -3568,9 +3589,9 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="131"/>
       <c r="E49" s="1" t="s">
         <v>20</v>
       </c>
@@ -3596,11 +3617,11 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="31" t="s">
+      <c r="B50" s="132"/>
+      <c r="C50" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="131">
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3628,9 +3649,9 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
+      <c r="B51" s="132"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
       <c r="E51" s="1" t="s">
         <v>18</v>
       </c>
@@ -3656,9 +3677,9 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
       <c r="E52" s="1" t="s">
         <v>19</v>
       </c>
@@ -3686,10 +3707,10 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31" t="s">
+      <c r="B53" s="132"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131" t="s">
         <v>20</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -3716,10 +3737,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
+      <c r="B54" s="132"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
       <c r="F54" s="5" t="s">
         <v>76</v>
       </c>
@@ -3744,11 +3765,11 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="31" t="s">
+      <c r="B55" s="132"/>
+      <c r="C55" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="131">
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -3776,9 +3797,9 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
+      <c r="B56" s="132"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
       <c r="E56" s="1" t="s">
         <v>18</v>
       </c>
@@ -3804,9 +3825,9 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
       <c r="E57" s="1" t="s">
         <v>19</v>
       </c>
@@ -3832,9 +3853,9 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
+      <c r="B58" s="132"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
       <c r="E58" s="1" t="s">
         <v>20</v>
       </c>
@@ -3862,11 +3883,11 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="31" t="s">
+      <c r="B59" s="132"/>
+      <c r="C59" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="31">
+      <c r="D59" s="131">
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -3894,9 +3915,9 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="B60" s="132"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
       <c r="E60" s="1" t="s">
         <v>18</v>
       </c>
@@ -3922,9 +3943,9 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
       <c r="E61" s="1" t="s">
         <v>19</v>
       </c>
@@ -3952,9 +3973,9 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="131"/>
+      <c r="D62" s="131"/>
       <c r="E62" s="1" t="s">
         <v>20</v>
       </c>
@@ -3982,11 +4003,11 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="31" t="s">
+      <c r="B63" s="132"/>
+      <c r="C63" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="31">
+      <c r="D63" s="131">
         <v>1</v>
       </c>
       <c r="E63" s="17" t="s">
@@ -4014,9 +4035,9 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
+      <c r="B64" s="132"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="131"/>
       <c r="E64" s="17" t="s">
         <v>18</v>
       </c>
@@ -4042,9 +4063,9 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
+      <c r="B65" s="132"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="131"/>
       <c r="E65" s="17" t="s">
         <v>75</v>
       </c>
@@ -4070,10 +4091,10 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31" t="s">
+      <c r="B66" s="132"/>
+      <c r="C66" s="131"/>
+      <c r="D66" s="131"/>
+      <c r="E66" s="131" t="s">
         <v>20</v>
       </c>
       <c r="F66" s="19" t="s">
@@ -4093,10 +4114,10 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
+      <c r="B67" s="132"/>
+      <c r="C67" s="131"/>
+      <c r="D67" s="131"/>
+      <c r="E67" s="131"/>
       <c r="F67" s="17" t="s">
         <v>118</v>
       </c>
@@ -4143,13 +4164,13 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="D69" s="31">
+      <c r="D69" s="131">
         <v>3</v>
       </c>
       <c r="E69" s="1"/>
@@ -4175,9 +4196,9 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
+      <c r="B70" s="132"/>
+      <c r="C70" s="131"/>
+      <c r="D70" s="131"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="17"/>
@@ -4201,9 +4222,9 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
+      <c r="B71" s="132"/>
+      <c r="C71" s="131"/>
+      <c r="D71" s="131"/>
       <c r="E71" s="1" t="s">
         <v>19</v>
       </c>
@@ -4231,10 +4252,10 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31" t="s">
+      <c r="B72" s="132"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="131"/>
+      <c r="E72" s="131" t="s">
         <v>20</v>
       </c>
       <c r="F72" s="19" t="s">
@@ -4254,10 +4275,10 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
+      <c r="B73" s="132"/>
+      <c r="C73" s="131"/>
+      <c r="D73" s="131"/>
+      <c r="E73" s="131"/>
       <c r="F73" s="19" t="s">
         <v>103</v>
       </c>
@@ -4275,10 +4296,10 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
+      <c r="B74" s="132"/>
+      <c r="C74" s="131"/>
+      <c r="D74" s="131"/>
+      <c r="E74" s="131"/>
       <c r="F74" s="1" t="s">
         <v>101</v>
       </c>
@@ -4303,11 +4324,11 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="31" t="s">
+      <c r="B75" s="132"/>
+      <c r="C75" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="31">
+      <c r="D75" s="131">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -4335,9 +4356,9 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
+      <c r="B76" s="132"/>
+      <c r="C76" s="131"/>
+      <c r="D76" s="131"/>
       <c r="E76" s="1" t="s">
         <v>18</v>
       </c>
@@ -4363,10 +4384,10 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31" t="s">
+      <c r="B77" s="132"/>
+      <c r="C77" s="131"/>
+      <c r="D77" s="131"/>
+      <c r="E77" s="131" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="19" t="s">
@@ -4386,10 +4407,10 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
+      <c r="B78" s="132"/>
+      <c r="C78" s="131"/>
+      <c r="D78" s="131"/>
+      <c r="E78" s="131"/>
       <c r="F78" s="1" t="s">
         <v>104</v>
       </c>
@@ -4414,10 +4435,10 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31" t="s">
+      <c r="B79" s="132"/>
+      <c r="C79" s="131"/>
+      <c r="D79" s="131"/>
+      <c r="E79" s="131" t="s">
         <v>20</v>
       </c>
       <c r="F79" s="19" t="s">
@@ -4437,10 +4458,10 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
+      <c r="B80" s="132"/>
+      <c r="C80" s="131"/>
+      <c r="D80" s="131"/>
+      <c r="E80" s="131"/>
       <c r="F80" s="1" t="s">
         <v>107</v>
       </c>
@@ -4465,11 +4486,11 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="31" t="s">
+      <c r="B81" s="132"/>
+      <c r="C81" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="31">
+      <c r="D81" s="131">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -4497,9 +4518,9 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
+      <c r="B82" s="132"/>
+      <c r="C82" s="131"/>
+      <c r="D82" s="131"/>
       <c r="E82" s="1" t="s">
         <v>18</v>
       </c>
@@ -4525,10 +4546,10 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31" t="s">
+      <c r="B83" s="132"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131" t="s">
         <v>19</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -4555,10 +4576,10 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
+      <c r="B84" s="132"/>
+      <c r="C84" s="131"/>
+      <c r="D84" s="131"/>
+      <c r="E84" s="131"/>
       <c r="F84" s="19" t="s">
         <v>110</v>
       </c>
@@ -4576,10 +4597,10 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
+      <c r="B85" s="132"/>
+      <c r="C85" s="131"/>
+      <c r="D85" s="131"/>
+      <c r="E85" s="131"/>
       <c r="F85" s="19" t="s">
         <v>109</v>
       </c>
@@ -4597,9 +4618,9 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
       <c r="E86" s="1" t="s">
         <v>20</v>
       </c>
@@ -4627,11 +4648,11 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="31" t="s">
+      <c r="B87" s="132"/>
+      <c r="C87" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="31">
+      <c r="D87" s="131">
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -4659,9 +4680,9 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
+      <c r="B88" s="132"/>
+      <c r="C88" s="131"/>
+      <c r="D88" s="131"/>
       <c r="E88" s="1" t="s">
         <v>18</v>
       </c>
@@ -4687,9 +4708,9 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
+      <c r="B89" s="132"/>
+      <c r="C89" s="131"/>
+      <c r="D89" s="131"/>
       <c r="E89" s="1" t="s">
         <v>19</v>
       </c>
@@ -4715,9 +4736,9 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
+      <c r="B90" s="132"/>
+      <c r="C90" s="131"/>
+      <c r="D90" s="131"/>
       <c r="E90" s="1" t="s">
         <v>20</v>
       </c>
@@ -4745,11 +4766,11 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="31" t="s">
+      <c r="B91" s="132"/>
+      <c r="C91" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="31">
+      <c r="D91" s="131">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -4777,9 +4798,9 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
+      <c r="B92" s="132"/>
+      <c r="C92" s="131"/>
+      <c r="D92" s="131"/>
       <c r="E92" s="1" t="s">
         <v>18</v>
       </c>
@@ -4805,9 +4826,9 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
+      <c r="B93" s="132"/>
+      <c r="C93" s="131"/>
+      <c r="D93" s="131"/>
       <c r="E93" s="1" t="s">
         <v>19</v>
       </c>
@@ -4833,9 +4854,9 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
+      <c r="B94" s="132"/>
+      <c r="C94" s="131"/>
+      <c r="D94" s="131"/>
       <c r="E94" s="1" t="s">
         <v>20</v>
       </c>
@@ -4861,11 +4882,11 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="31" t="s">
+      <c r="B95" s="132"/>
+      <c r="C95" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="D95" s="31">
+      <c r="D95" s="131">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -4893,9 +4914,9 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
+      <c r="B96" s="132"/>
+      <c r="C96" s="131"/>
+      <c r="D96" s="131"/>
       <c r="E96" s="1" t="s">
         <v>18</v>
       </c>
@@ -4921,9 +4942,9 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
+      <c r="B97" s="132"/>
+      <c r="C97" s="131"/>
+      <c r="D97" s="131"/>
       <c r="E97" s="1" t="s">
         <v>19</v>
       </c>
@@ -4949,9 +4970,9 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
+      <c r="B98" s="132"/>
+      <c r="C98" s="131"/>
+      <c r="D98" s="131"/>
       <c r="E98" s="1" t="s">
         <v>20</v>
       </c>
@@ -4977,11 +4998,11 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="31" t="s">
+      <c r="B99" s="132"/>
+      <c r="C99" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="31">
+      <c r="D99" s="131">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -5009,9 +5030,9 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
+      <c r="B100" s="132"/>
+      <c r="C100" s="131"/>
+      <c r="D100" s="131"/>
       <c r="E100" s="1" t="s">
         <v>18</v>
       </c>
@@ -5037,9 +5058,9 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
+      <c r="B101" s="132"/>
+      <c r="C101" s="131"/>
+      <c r="D101" s="131"/>
       <c r="E101" s="1" t="s">
         <v>19</v>
       </c>
@@ -5065,9 +5086,9 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
+      <c r="B102" s="132"/>
+      <c r="C102" s="131"/>
+      <c r="D102" s="131"/>
       <c r="E102" s="1" t="s">
         <v>20</v>
       </c>
@@ -5093,26 +5114,20 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="B69:B102"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="D81:D86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="B4:B67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D11:D31"/>
+    <mergeCell ref="C11:C31"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="E37:E39"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="C4:C7"/>
@@ -5129,20 +5144,26 @@
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="C37:C45"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="B4:B67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D11:D31"/>
-    <mergeCell ref="C11:C31"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="B69:B102"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="C81:C86"/>
+    <mergeCell ref="D81:D86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E66:E67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5151,11 +5172,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH77"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N63" sqref="N63"/>
+      <selection pane="bottomLeft" activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5174,47 +5195,47 @@
     <col min="13" max="13" width="10.42578125" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" style="38" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" style="32" customWidth="1"/>
     <col min="17" max="17" width="17.42578125" customWidth="1"/>
     <col min="18" max="18" width="14.140625" customWidth="1"/>
     <col min="19" max="19" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
+      <c r="A1" s="134"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
     </row>
     <row r="2" spans="1:34" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5262,7 +5283,7 @@
       <c r="O2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="31" t="s">
         <v>64</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -5273,175 +5294,175 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P3" s="38">
+      <c r="P3" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="155" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49">
-        <v>1</v>
-      </c>
-      <c r="H4" s="49" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39">
+        <v>1</v>
+      </c>
+      <c r="H4" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="39">
         <v>11182.26</v>
       </c>
-      <c r="J4" s="49">
-        <v>1</v>
-      </c>
-      <c r="K4" s="49">
-        <f t="shared" ref="K4:K55" si="0">I4*J4</f>
+      <c r="J4" s="39">
+        <v>1</v>
+      </c>
+      <c r="K4" s="39">
+        <f t="shared" ref="K4:K57" si="0">I4*J4</f>
         <v>11182.26</v>
       </c>
-      <c r="L4" s="49">
-        <v>0</v>
-      </c>
-      <c r="M4" s="50">
-        <f t="shared" ref="M4:M55" si="1">K4*G4</f>
+      <c r="L4" s="39">
+        <v>0</v>
+      </c>
+      <c r="M4" s="40">
+        <f t="shared" ref="M4:M57" si="1">K4*G4</f>
         <v>11182.26</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="40">
         <v>12000</v>
       </c>
-      <c r="O4" s="51">
+      <c r="O4" s="41">
         <f>N4-M4</f>
         <v>817.73999999999978</v>
       </c>
-      <c r="P4" s="52">
+      <c r="P4" s="42">
         <f>IFERROR(ABS(O4/N4), 0)</f>
         <v>6.8144999999999983E-2</v>
       </c>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="53" t="s">
+      <c r="Q4" s="41"/>
+      <c r="R4" s="43" t="s">
         <v>206</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>78</v>
       </c>
       <c r="T4" s="15">
-        <f>SUM(M4:M77)</f>
+        <f>SUM(M4:M81)</f>
         <v>69246.452799999999</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="172"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41">
-        <v>1</v>
-      </c>
-      <c r="H5" s="41" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34">
+        <v>1</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="34">
         <v>2497</v>
       </c>
-      <c r="J5" s="41">
-        <v>1</v>
-      </c>
-      <c r="K5" s="41">
+      <c r="J5" s="34">
+        <v>1</v>
+      </c>
+      <c r="K5" s="34">
         <f t="shared" si="0"/>
         <v>2497</v>
       </c>
-      <c r="L5" s="41">
-        <v>0</v>
-      </c>
-      <c r="M5" s="42">
+      <c r="L5" s="34">
+        <v>0</v>
+      </c>
+      <c r="M5" s="35">
         <f t="shared" si="1"/>
         <v>2497</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="35">
         <v>2000</v>
       </c>
-      <c r="O5" s="43">
-        <f t="shared" ref="O5:O48" si="2">N5-M5</f>
+      <c r="O5" s="36">
+        <f t="shared" ref="O5:O50" si="2">N5-M5</f>
         <v>-497</v>
       </c>
-      <c r="P5" s="44">
-        <f t="shared" ref="P5:P75" si="3">IFERROR(ABS(O5/N5), 0)</f>
+      <c r="P5" s="37">
+        <f t="shared" ref="P5:P79" si="3">IFERROR(ABS(O5/N5), 0)</f>
         <v>0.2485</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="55" t="s">
+      <c r="Q5" s="36"/>
+      <c r="R5" s="44" t="s">
         <v>206</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T5" s="11">
-        <f>SUM(N4:N77)</f>
-        <v>163055</v>
+        <f>SUM(N4:N81)</f>
+        <v>170055</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41" t="s">
+      <c r="A6" s="172"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="41">
-        <v>1</v>
-      </c>
-      <c r="H6" s="41" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="34">
+        <v>1</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="34">
         <v>4628.3599999999997</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="34">
         <v>0.98</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="34">
         <f t="shared" si="0"/>
         <v>4535.7927999999993</v>
       </c>
-      <c r="L6" s="41">
-        <v>0</v>
-      </c>
-      <c r="M6" s="42">
+      <c r="L6" s="34">
+        <v>0</v>
+      </c>
+      <c r="M6" s="35">
         <f t="shared" si="1"/>
         <v>4535.7927999999993</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="35">
         <v>4000</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="36">
         <f t="shared" si="2"/>
         <v>-535.79279999999926</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="37">
         <f t="shared" si="3"/>
         <v>0.13394819999999982</v>
       </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="55" t="s">
+      <c r="Q6" s="36"/>
+      <c r="R6" s="44" t="s">
         <v>206</v>
       </c>
       <c r="S6" s="12" t="s">
@@ -5449,56 +5470,56 @@
       </c>
       <c r="T6" s="13">
         <f>T5-T4</f>
-        <v>93808.547200000001</v>
+        <v>100808.5472</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41" t="s">
+      <c r="A7" s="172"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41">
-        <v>1</v>
-      </c>
-      <c r="H7" s="41" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34">
+        <v>1</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="34">
         <v>85</v>
       </c>
-      <c r="J7" s="41">
-        <v>1</v>
-      </c>
-      <c r="K7" s="41">
+      <c r="J7" s="34">
+        <v>1</v>
+      </c>
+      <c r="K7" s="34">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="L7" s="41">
-        <v>0</v>
-      </c>
-      <c r="M7" s="42">
+      <c r="L7" s="34">
+        <v>0</v>
+      </c>
+      <c r="M7" s="35">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="35">
         <v>85</v>
       </c>
-      <c r="O7" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="44">
+      <c r="O7" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="55" t="s">
+      <c r="Q7" s="36"/>
+      <c r="R7" s="44" t="s">
         <v>206</v>
       </c>
       <c r="S7" s="9" t="s">
@@ -5506,3065 +5527,3208 @@
       </c>
       <c r="T7" s="16">
         <f>T6/T5</f>
-        <v>0.57531843365735491</v>
+        <v>0.59279966599041489</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41" t="s">
+      <c r="A8" s="172"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41">
-        <v>1</v>
-      </c>
-      <c r="H8" s="41" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34">
+        <v>1</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="34">
         <v>524.82000000000005</v>
       </c>
-      <c r="J8" s="41">
-        <v>1</v>
-      </c>
-      <c r="K8" s="41">
+      <c r="J8" s="34">
+        <v>1</v>
+      </c>
+      <c r="K8" s="34">
         <f t="shared" si="0"/>
         <v>524.82000000000005</v>
       </c>
-      <c r="L8" s="41">
-        <v>0</v>
-      </c>
-      <c r="M8" s="42">
+      <c r="L8" s="34">
+        <v>0</v>
+      </c>
+      <c r="M8" s="35">
         <f t="shared" si="1"/>
         <v>524.82000000000005</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="35">
         <v>500</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="36">
         <f t="shared" si="2"/>
         <v>-24.82000000000005</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="37">
         <f t="shared" si="3"/>
         <v>4.9640000000000101E-2</v>
       </c>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="55" t="s">
+      <c r="Q8" s="36"/>
+      <c r="R8" s="44" t="s">
         <v>206</v>
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="16"/>
     </row>
     <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41">
-        <v>1</v>
-      </c>
-      <c r="H9" s="41" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34">
+        <v>1</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="41">
-        <v>0</v>
-      </c>
-      <c r="J9" s="41">
-        <v>1</v>
-      </c>
-      <c r="K9" s="41">
+      <c r="I9" s="34">
+        <v>0</v>
+      </c>
+      <c r="J9" s="34">
+        <v>1</v>
+      </c>
+      <c r="K9" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="41">
-        <v>0</v>
-      </c>
-      <c r="M9" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="42">
-        <v>0</v>
-      </c>
-      <c r="O9" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="44">
+      <c r="L9" s="34">
+        <v>0</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="35">
+        <v>0</v>
+      </c>
+      <c r="O9" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="55" t="s">
+      <c r="Q9" s="36"/>
+      <c r="R9" s="44" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="42" t="s">
+      <c r="A10" s="164"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41">
-        <v>1</v>
-      </c>
-      <c r="H10" s="41" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34">
+        <v>1</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="41">
-        <v>0</v>
-      </c>
-      <c r="J10" s="41">
-        <v>1</v>
-      </c>
-      <c r="K10" s="41">
+      <c r="I10" s="34">
+        <v>0</v>
+      </c>
+      <c r="J10" s="34">
+        <v>1</v>
+      </c>
+      <c r="K10" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="41">
-        <v>0</v>
-      </c>
-      <c r="M10" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="42">
-        <v>0</v>
-      </c>
-      <c r="O10" s="43">
-        <v>0</v>
-      </c>
-      <c r="P10" s="44">
+      <c r="L10" s="34">
+        <v>0</v>
+      </c>
+      <c r="M10" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="35">
+        <v>0</v>
+      </c>
+      <c r="O10" s="36">
+        <v>0</v>
+      </c>
+      <c r="P10" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="55" t="s">
+      <c r="Q10" s="36"/>
+      <c r="R10" s="44" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="A11" s="165"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60">
-        <v>1</v>
-      </c>
-      <c r="H11" s="60" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46">
+        <v>1</v>
+      </c>
+      <c r="H11" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="60">
-        <v>0</v>
-      </c>
-      <c r="J11" s="60">
-        <v>1</v>
-      </c>
-      <c r="K11" s="60">
+      <c r="I11" s="46">
+        <v>0</v>
+      </c>
+      <c r="J11" s="46">
+        <v>1</v>
+      </c>
+      <c r="K11" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="60">
-        <v>0</v>
-      </c>
-      <c r="M11" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="59">
-        <v>0</v>
-      </c>
-      <c r="O11" s="61">
-        <v>0</v>
-      </c>
-      <c r="P11" s="62">
+      <c r="L11" s="46">
+        <v>0</v>
+      </c>
+      <c r="M11" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="45">
+        <v>0</v>
+      </c>
+      <c r="O11" s="47">
+        <v>0</v>
+      </c>
+      <c r="P11" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="63" t="s">
+      <c r="Q11" s="47"/>
+      <c r="R11" s="49" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74">
-        <v>1</v>
-      </c>
-      <c r="H12" s="74" t="s">
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58">
+        <v>1</v>
+      </c>
+      <c r="H12" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="58">
         <v>2200</v>
       </c>
-      <c r="J12" s="74">
-        <v>1</v>
-      </c>
-      <c r="K12" s="74">
+      <c r="J12" s="58">
+        <v>1</v>
+      </c>
+      <c r="K12" s="58">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="L12" s="74">
-        <v>0</v>
-      </c>
-      <c r="M12" s="73">
+      <c r="L12" s="58">
+        <v>0</v>
+      </c>
+      <c r="M12" s="57">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="N12" s="73">
+      <c r="N12" s="57">
         <v>2500</v>
       </c>
-      <c r="O12" s="75">
+      <c r="O12" s="59">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="60">
         <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="77" t="s">
+      <c r="Q12" s="59"/>
+      <c r="R12" s="61" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="65" t="s">
+      <c r="A13" s="169"/>
+      <c r="B13" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67">
-        <v>1</v>
-      </c>
-      <c r="H13" s="67" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52">
+        <v>1</v>
+      </c>
+      <c r="H13" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="52">
         <v>3600</v>
       </c>
-      <c r="J13" s="67">
-        <v>1</v>
-      </c>
-      <c r="K13" s="67">
+      <c r="J13" s="52">
+        <v>1</v>
+      </c>
+      <c r="K13" s="52">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="L13" s="67">
-        <v>0</v>
-      </c>
-      <c r="M13" s="66">
+      <c r="L13" s="52">
+        <v>0</v>
+      </c>
+      <c r="M13" s="51">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="N13" s="66">
+      <c r="N13" s="51">
         <v>4500</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O13" s="53">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="P13" s="69">
+      <c r="P13" s="54">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="79" t="s">
+      <c r="Q13" s="53"/>
+      <c r="R13" s="62" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="65" t="s">
+      <c r="A14" s="169"/>
+      <c r="B14" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67">
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52">
         <v>2</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="52">
         <v>150</v>
       </c>
-      <c r="J14" s="67">
-        <v>1</v>
-      </c>
-      <c r="K14" s="67">
+      <c r="J14" s="52">
+        <v>1</v>
+      </c>
+      <c r="K14" s="52">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L14" s="67">
-        <v>0</v>
-      </c>
-      <c r="M14" s="66">
+      <c r="L14" s="52">
+        <v>0</v>
+      </c>
+      <c r="M14" s="51">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="N14" s="66">
+      <c r="N14" s="51">
         <v>300</v>
       </c>
-      <c r="O14" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="69">
+      <c r="O14" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="79" t="s">
+      <c r="Q14" s="53"/>
+      <c r="R14" s="62" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="169"/>
+      <c r="B15" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67">
-        <v>1</v>
-      </c>
-      <c r="H15" s="67" t="s">
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52">
+        <v>1</v>
+      </c>
+      <c r="H15" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="52">
         <v>300</v>
       </c>
-      <c r="J15" s="67">
-        <v>1</v>
-      </c>
-      <c r="K15" s="67">
+      <c r="J15" s="52">
+        <v>1</v>
+      </c>
+      <c r="K15" s="52">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="L15" s="67">
-        <v>0</v>
-      </c>
-      <c r="M15" s="66">
+      <c r="L15" s="52">
+        <v>0</v>
+      </c>
+      <c r="M15" s="51">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="N15" s="66">
+      <c r="N15" s="51">
         <v>300</v>
       </c>
-      <c r="O15" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="69">
+      <c r="O15" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="79" t="s">
+      <c r="Q15" s="53"/>
+      <c r="R15" s="62" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="65" t="s">
+      <c r="A16" s="169"/>
+      <c r="B16" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="52">
         <v>45</v>
       </c>
-      <c r="J16" s="67">
-        <v>1</v>
-      </c>
-      <c r="K16" s="67">
+      <c r="J16" s="52">
+        <v>1</v>
+      </c>
+      <c r="K16" s="52">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="L16" s="67">
-        <v>0</v>
-      </c>
-      <c r="M16" s="66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="66">
+      <c r="L16" s="52">
+        <v>0</v>
+      </c>
+      <c r="M16" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="51">
         <v>2700</v>
       </c>
-      <c r="O16" s="68">
+      <c r="O16" s="53">
         <f t="shared" si="2"/>
         <v>2700</v>
       </c>
-      <c r="P16" s="69">
+      <c r="P16" s="54">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q16" s="70" t="s">
+      <c r="Q16" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="R16" s="79" t="s">
+      <c r="R16" s="62" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="65" t="s">
+      <c r="A17" s="169"/>
+      <c r="B17" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67" t="s">
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="52">
         <v>25</v>
       </c>
-      <c r="J17" s="67">
-        <v>1</v>
-      </c>
-      <c r="K17" s="67">
+      <c r="J17" s="52">
+        <v>1</v>
+      </c>
+      <c r="K17" s="52">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="L17" s="67">
-        <v>0</v>
-      </c>
-      <c r="M17" s="66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="66">
+      <c r="L17" s="52">
+        <v>0</v>
+      </c>
+      <c r="M17" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="51">
         <v>6250</v>
       </c>
-      <c r="O17" s="68">
+      <c r="O17" s="53">
         <f t="shared" si="2"/>
         <v>6250</v>
       </c>
-      <c r="P17" s="69">
+      <c r="P17" s="54">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="79" t="s">
+      <c r="Q17" s="53"/>
+      <c r="R17" s="62" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="169"/>
+      <c r="B18" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67">
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52">
         <v>25</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="52">
         <v>40</v>
       </c>
-      <c r="J18" s="67">
-        <v>1</v>
-      </c>
-      <c r="K18" s="67">
+      <c r="J18" s="52">
+        <v>1</v>
+      </c>
+      <c r="K18" s="52">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L18" s="67">
-        <v>0</v>
-      </c>
-      <c r="M18" s="66">
+      <c r="L18" s="52">
+        <v>0</v>
+      </c>
+      <c r="M18" s="51">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="N18" s="66">
+      <c r="N18" s="51">
         <v>1000</v>
       </c>
-      <c r="O18" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="69">
+      <c r="O18" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="79" t="s">
+      <c r="Q18" s="53"/>
+      <c r="R18" s="62" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="169"/>
+      <c r="B19" s="159" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67" t="s">
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="52">
         <v>120</v>
       </c>
-      <c r="J19" s="67">
-        <v>1</v>
-      </c>
-      <c r="K19" s="67">
+      <c r="J19" s="52">
+        <v>1</v>
+      </c>
+      <c r="K19" s="52">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L19" s="67">
-        <v>0</v>
-      </c>
-      <c r="M19" s="66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="66">
+      <c r="L19" s="52">
+        <v>0</v>
+      </c>
+      <c r="M19" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="51">
         <v>1200</v>
       </c>
-      <c r="O19" s="68">
+      <c r="O19" s="53">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="P19" s="69">
+      <c r="P19" s="54">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="79" t="s">
+      <c r="Q19" s="53"/>
+      <c r="R19" s="62" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="66" t="s">
+      <c r="A20" s="169"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67" t="s">
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="52">
         <v>180</v>
       </c>
-      <c r="J20" s="67">
-        <v>1</v>
-      </c>
-      <c r="K20" s="67">
+      <c r="J20" s="52">
+        <v>1</v>
+      </c>
+      <c r="K20" s="52">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="L20" s="67">
-        <v>0</v>
-      </c>
-      <c r="M20" s="66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="66">
+      <c r="L20" s="52">
+        <v>0</v>
+      </c>
+      <c r="M20" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="51">
         <v>600</v>
       </c>
-      <c r="O20" s="68">
+      <c r="O20" s="53">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="P20" s="69">
+      <c r="P20" s="54">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="79" t="s">
+      <c r="Q20" s="53"/>
+      <c r="R20" s="62" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="64" t="s">
+      <c r="A21" s="169"/>
+      <c r="B21" s="159" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67">
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52">
         <v>18.22</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="67">
-        <v>0</v>
-      </c>
-      <c r="J21" s="67">
-        <v>1</v>
-      </c>
-      <c r="K21" s="67">
+      <c r="I21" s="52">
+        <v>0</v>
+      </c>
+      <c r="J21" s="52">
+        <v>1</v>
+      </c>
+      <c r="K21" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="67">
-        <v>0</v>
-      </c>
-      <c r="M21" s="66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="66">
-        <v>0</v>
-      </c>
-      <c r="O21" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="69">
+      <c r="L21" s="52">
+        <v>0</v>
+      </c>
+      <c r="M21" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="51">
+        <v>0</v>
+      </c>
+      <c r="O21" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="79" t="s">
+      <c r="Q21" s="53"/>
+      <c r="R21" s="62" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="66" t="s">
+      <c r="A22" s="169"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67">
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52">
         <v>7.45</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="67">
-        <v>0</v>
-      </c>
-      <c r="J22" s="67">
-        <v>1</v>
-      </c>
-      <c r="K22" s="67">
+      <c r="I22" s="52">
+        <v>0</v>
+      </c>
+      <c r="J22" s="52">
+        <v>1</v>
+      </c>
+      <c r="K22" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="67">
-        <v>0</v>
-      </c>
-      <c r="M22" s="66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="66">
-        <v>0</v>
-      </c>
-      <c r="O22" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="69">
+      <c r="L22" s="52">
+        <v>0</v>
+      </c>
+      <c r="M22" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="51">
+        <v>0</v>
+      </c>
+      <c r="O22" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="79" t="s">
+      <c r="Q22" s="53"/>
+      <c r="R22" s="62" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="65" t="s">
+      <c r="A23" s="169"/>
+      <c r="B23" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67">
-        <v>1</v>
-      </c>
-      <c r="H23" s="67" t="s">
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52">
+        <v>1</v>
+      </c>
+      <c r="H23" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="52">
         <v>257.3</v>
       </c>
-      <c r="J23" s="67">
-        <v>1</v>
-      </c>
-      <c r="K23" s="67">
+      <c r="J23" s="52">
+        <v>1</v>
+      </c>
+      <c r="K23" s="52">
         <f t="shared" si="0"/>
         <v>257.3</v>
       </c>
-      <c r="L23" s="67">
-        <v>0</v>
-      </c>
-      <c r="M23" s="66">
+      <c r="L23" s="52">
+        <v>0</v>
+      </c>
+      <c r="M23" s="51">
         <f t="shared" si="1"/>
         <v>257.3</v>
       </c>
-      <c r="N23" s="66">
+      <c r="N23" s="51">
         <v>300</v>
       </c>
-      <c r="O23" s="68">
+      <c r="O23" s="53">
         <f t="shared" si="2"/>
         <v>42.699999999999989</v>
       </c>
-      <c r="P23" s="69">
+      <c r="P23" s="54">
         <f t="shared" si="3"/>
         <v>0.14233333333333328</v>
       </c>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="79" t="s">
+      <c r="Q23" s="53"/>
+      <c r="R23" s="62" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="169"/>
+      <c r="B24" s="167" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52">
+        <v>1</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="62"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="169"/>
+      <c r="B25" s="175"/>
+      <c r="C25" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52">
+        <v>1</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="62"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="169"/>
+      <c r="B26" s="159" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C26" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67">
-        <v>1</v>
-      </c>
-      <c r="H24" s="67" t="s">
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52">
+        <v>1</v>
+      </c>
+      <c r="H26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I26" s="52">
         <v>45</v>
       </c>
-      <c r="J24" s="67">
-        <v>1</v>
-      </c>
-      <c r="K24" s="67">
+      <c r="J26" s="52">
+        <v>1</v>
+      </c>
+      <c r="K26" s="52">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="L24" s="67">
-        <v>0</v>
-      </c>
-      <c r="M24" s="66">
+      <c r="L26" s="52">
+        <v>0</v>
+      </c>
+      <c r="M26" s="51">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="N24" s="66">
+      <c r="N26" s="51">
         <v>100</v>
       </c>
-      <c r="O24" s="68">
+      <c r="O26" s="53">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="P24" s="69">
+      <c r="P26" s="54">
         <f t="shared" si="3"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="79" t="s">
+      <c r="Q26" s="53"/>
+      <c r="R26" s="62" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82" t="s">
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="170"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83">
-        <v>1</v>
-      </c>
-      <c r="H25" s="83" t="s">
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64">
+        <v>1</v>
+      </c>
+      <c r="H27" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="I25" s="83">
+      <c r="I27" s="64">
         <v>100</v>
       </c>
-      <c r="J25" s="83">
-        <v>1</v>
-      </c>
-      <c r="K25" s="83">
+      <c r="J27" s="64">
+        <v>1</v>
+      </c>
+      <c r="K27" s="64">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L25" s="83">
-        <v>0</v>
-      </c>
-      <c r="M25" s="82">
+      <c r="L27" s="64">
+        <v>0</v>
+      </c>
+      <c r="M27" s="63">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="N25" s="82">
+      <c r="N27" s="63">
         <v>200</v>
       </c>
-      <c r="O25" s="84">
+      <c r="O27" s="65">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="P25" s="85">
+      <c r="P27" s="66">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="86" t="s">
+      <c r="Q27" s="65"/>
+      <c r="R27" s="67" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="160" t="s">
         <v>218</v>
       </c>
-      <c r="B26" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="95" t="s">
+      <c r="B28" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D28" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="95" t="s">
+      <c r="E28" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="95" t="s">
+      <c r="F28" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="95">
+      <c r="G28" s="73">
         <v>3</v>
       </c>
-      <c r="H26" s="95" t="s">
+      <c r="H28" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="95">
+      <c r="I28" s="73">
         <v>1299</v>
       </c>
-      <c r="J26" s="95">
-        <v>1</v>
-      </c>
-      <c r="K26" s="96">
+      <c r="J28" s="73">
+        <v>1</v>
+      </c>
+      <c r="K28" s="74">
         <f t="shared" si="0"/>
         <v>1299</v>
       </c>
-      <c r="L26" s="95">
-        <v>0</v>
-      </c>
-      <c r="M26" s="95">
+      <c r="L28" s="73">
+        <v>0</v>
+      </c>
+      <c r="M28" s="73">
         <f t="shared" si="1"/>
         <v>3897</v>
       </c>
-      <c r="N26" s="95">
+      <c r="N28" s="73">
         <v>3000</v>
       </c>
-      <c r="O26" s="97">
+      <c r="O28" s="75">
         <f t="shared" si="2"/>
         <v>-897</v>
       </c>
-      <c r="P26" s="98">
+      <c r="P28" s="76">
         <f t="shared" si="3"/>
         <v>0.29899999999999999</v>
       </c>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="99" t="s">
+      <c r="Q28" s="75"/>
+      <c r="R28" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="S26" s="14" t="s">
+      <c r="S28" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="100"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="161"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="88" t="s">
+      <c r="D29" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88">
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68">
         <v>3</v>
       </c>
-      <c r="H27" s="88" t="s">
+      <c r="H29" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="88">
+      <c r="I29" s="68">
         <v>368</v>
       </c>
-      <c r="J27" s="88">
-        <v>1</v>
-      </c>
-      <c r="K27" s="89">
+      <c r="J29" s="68">
+        <v>1</v>
+      </c>
+      <c r="K29" s="69">
         <f t="shared" si="0"/>
         <v>368</v>
       </c>
-      <c r="L27" s="88">
-        <v>0</v>
-      </c>
-      <c r="M27" s="88">
+      <c r="L29" s="68">
+        <v>0</v>
+      </c>
+      <c r="M29" s="68">
         <f t="shared" si="1"/>
         <v>1104</v>
       </c>
-      <c r="N27" s="88">
+      <c r="N29" s="68">
         <v>1000</v>
       </c>
-      <c r="O27" s="90">
+      <c r="O29" s="70">
         <f t="shared" si="2"/>
         <v>-104</v>
       </c>
-      <c r="P27" s="91">
+      <c r="P29" s="71">
         <f t="shared" si="3"/>
         <v>0.104</v>
       </c>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="101" t="s">
+      <c r="Q29" s="70"/>
+      <c r="R29" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="100"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="88" t="s">
+      <c r="S29" s="10"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="161"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="88" t="s">
+      <c r="D30" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="88" t="s">
+      <c r="E30" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="88" t="s">
+      <c r="F30" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88" t="s">
+      <c r="G30" s="68"/>
+      <c r="H30" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="89">
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L28" s="88">
+      <c r="L30" s="68">
         <v>520</v>
       </c>
-      <c r="M28" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="88">
+      <c r="M30" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="68">
         <v>15000</v>
       </c>
-      <c r="O28" s="90">
+      <c r="O30" s="70">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="P28" s="91">
+      <c r="P30" s="71">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q28" s="90" t="s">
+      <c r="Q30" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="R28" s="101" t="s">
+      <c r="R30" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="S28" s="12"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88" t="s">
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="161"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88" t="s">
+      <c r="D31" s="68"/>
+      <c r="E31" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="88" t="s">
+      <c r="F31" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88" t="s">
+      <c r="G31" s="68"/>
+      <c r="H31" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="89">
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="88">
-        <v>0</v>
-      </c>
-      <c r="M29" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="88">
+      <c r="L31" s="68">
+        <v>0</v>
+      </c>
+      <c r="M31" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="68">
         <v>1000</v>
       </c>
-      <c r="O29" s="90">
+      <c r="O31" s="70">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="P29" s="91">
+      <c r="P31" s="71">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="101" t="s">
+      <c r="Q31" s="70"/>
+      <c r="R31" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="S29" s="9"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="100"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88" t="s">
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="161"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88" t="s">
+      <c r="D32" s="68"/>
+      <c r="E32" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="88" t="s">
+      <c r="F32" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88" t="s">
+      <c r="G32" s="68"/>
+      <c r="H32" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="89">
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="88">
-        <v>0</v>
-      </c>
-      <c r="M30" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="88">
+      <c r="L32" s="68">
+        <v>0</v>
+      </c>
+      <c r="M32" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="68">
         <v>200</v>
       </c>
-      <c r="O30" s="90">
+      <c r="O32" s="70">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="P30" s="91">
+      <c r="P32" s="71">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="101" t="s">
+      <c r="Q32" s="70"/>
+      <c r="R32" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="S30" s="9"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="100"/>
-      <c r="B31" s="103" t="s">
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="161"/>
+      <c r="B33" s="136" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C33" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="88" t="s">
+      <c r="D33" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="88" t="s">
+      <c r="E33" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88">
-        <v>1</v>
-      </c>
-      <c r="H31" s="88" t="s">
+      <c r="F33" s="68"/>
+      <c r="G33" s="68">
+        <v>1</v>
+      </c>
+      <c r="H33" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="88">
+      <c r="I33" s="68">
         <v>7684</v>
       </c>
-      <c r="J31" s="88">
-        <v>1</v>
-      </c>
-      <c r="K31" s="89">
+      <c r="J33" s="68">
+        <v>1</v>
+      </c>
+      <c r="K33" s="69">
         <f t="shared" si="0"/>
         <v>7684</v>
       </c>
-      <c r="L31" s="88">
+      <c r="L33" s="68">
         <v>500</v>
       </c>
-      <c r="M31" s="88">
+      <c r="M33" s="68">
         <f t="shared" si="1"/>
         <v>7684</v>
       </c>
-      <c r="N31" s="88">
+      <c r="N33" s="68">
         <v>9000</v>
       </c>
-      <c r="O31" s="90">
+      <c r="O33" s="70">
         <f t="shared" si="2"/>
         <v>1316</v>
       </c>
-      <c r="P31" s="91">
+      <c r="P33" s="71">
         <f t="shared" si="3"/>
         <v>0.14622222222222223</v>
       </c>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="101" t="s">
+      <c r="Q33" s="70"/>
+      <c r="R33" s="78" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="100"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="88" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="161"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88">
-        <v>1</v>
-      </c>
-      <c r="H32" s="88" t="s">
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68">
+        <v>1</v>
+      </c>
+      <c r="H34" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88">
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68">
         <v>3000</v>
       </c>
-      <c r="O32" s="90"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="101"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="88" t="s">
+      <c r="O34" s="70"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="78"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="161"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="88" t="s">
+      <c r="D35" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="88" t="s">
+      <c r="E35" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88">
-        <v>1</v>
-      </c>
-      <c r="H33" s="88" t="s">
+      <c r="F35" s="68"/>
+      <c r="G35" s="68">
+        <v>1</v>
+      </c>
+      <c r="H35" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="88">
+      <c r="I35" s="68">
         <v>2419</v>
       </c>
-      <c r="J33" s="88">
-        <v>1</v>
-      </c>
-      <c r="K33" s="89">
+      <c r="J35" s="68">
+        <v>1</v>
+      </c>
+      <c r="K35" s="69">
         <f t="shared" si="0"/>
         <v>2419</v>
       </c>
-      <c r="L33" s="88">
-        <v>0</v>
-      </c>
-      <c r="M33" s="88">
+      <c r="L35" s="68">
+        <v>0</v>
+      </c>
+      <c r="M35" s="68">
         <f t="shared" si="1"/>
         <v>2419</v>
       </c>
-      <c r="N33" s="88">
+      <c r="N35" s="68">
         <v>4000</v>
       </c>
-      <c r="O33" s="90">
+      <c r="O35" s="70">
         <f t="shared" si="2"/>
         <v>1581</v>
       </c>
-      <c r="P33" s="91">
+      <c r="P35" s="71">
         <f t="shared" si="3"/>
         <v>0.39524999999999999</v>
       </c>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="101" t="s">
+      <c r="Q35" s="70"/>
+      <c r="R35" s="78" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="100"/>
-      <c r="B34" s="172"/>
-      <c r="C34" s="88" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="161"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="88" t="s">
+      <c r="D36" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="88" t="s">
+      <c r="E36" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88">
-        <v>1</v>
-      </c>
-      <c r="H34" s="88" t="s">
+      <c r="F36" s="68"/>
+      <c r="G36" s="68">
+        <v>1</v>
+      </c>
+      <c r="H36" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="88">
+      <c r="I36" s="68">
         <v>775.68</v>
       </c>
-      <c r="J34" s="88">
-        <v>1</v>
-      </c>
-      <c r="K34" s="89">
+      <c r="J36" s="68">
+        <v>1</v>
+      </c>
+      <c r="K36" s="69">
         <f t="shared" si="0"/>
         <v>775.68</v>
       </c>
-      <c r="L34" s="88">
-        <v>0</v>
-      </c>
-      <c r="M34" s="88">
+      <c r="L36" s="68">
+        <v>0</v>
+      </c>
+      <c r="M36" s="68">
         <f t="shared" si="1"/>
         <v>775.68</v>
       </c>
-      <c r="N34" s="88">
+      <c r="N36" s="68">
         <v>800</v>
       </c>
-      <c r="O34" s="90">
+      <c r="O36" s="70">
         <f t="shared" si="2"/>
         <v>24.32000000000005</v>
       </c>
-      <c r="P34" s="91">
+      <c r="P36" s="71">
         <f t="shared" si="3"/>
         <v>3.0400000000000062E-2</v>
       </c>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="101" t="s">
+      <c r="Q36" s="70"/>
+      <c r="R36" s="78" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="100"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="88" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="161"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88">
-        <v>1</v>
-      </c>
-      <c r="H35" s="88" t="s">
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68">
+        <v>1</v>
+      </c>
+      <c r="H37" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="88">
+      <c r="I37" s="68">
         <v>6180</v>
       </c>
-      <c r="J35" s="88">
-        <v>1</v>
-      </c>
-      <c r="K35" s="89">
+      <c r="J37" s="68">
+        <v>1</v>
+      </c>
+      <c r="K37" s="69">
         <v>6180</v>
       </c>
-      <c r="L35" s="88">
+      <c r="L37" s="68">
         <v>1000</v>
       </c>
-      <c r="M35" s="88">
+      <c r="M37" s="68">
         <f t="shared" si="1"/>
         <v>6180</v>
       </c>
-      <c r="N35" s="88">
+      <c r="N37" s="68">
         <v>8000</v>
       </c>
-      <c r="O35" s="90">
+      <c r="O37" s="70">
         <f t="shared" si="2"/>
         <v>1820</v>
       </c>
-      <c r="P35" s="91">
+      <c r="P37" s="71">
         <f t="shared" si="3"/>
         <v>0.22750000000000001</v>
       </c>
-      <c r="Q35" s="92" t="s">
+      <c r="Q37" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="R35" s="101" t="s">
+      <c r="R37" s="78" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="172"/>
-      <c r="C36" s="88" t="s">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="161"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88">
-        <v>1</v>
-      </c>
-      <c r="H36" s="88" t="s">
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68">
+        <v>1</v>
+      </c>
+      <c r="H38" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="88">
+      <c r="I38" s="68">
         <v>208</v>
       </c>
-      <c r="J36" s="88">
-        <v>1</v>
-      </c>
-      <c r="K36" s="89">
+      <c r="J38" s="68">
+        <v>1</v>
+      </c>
+      <c r="K38" s="69">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="L36" s="88">
-        <v>0</v>
-      </c>
-      <c r="M36" s="88">
+      <c r="L38" s="68">
+        <v>0</v>
+      </c>
+      <c r="M38" s="68">
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="N36" s="88">
+      <c r="N38" s="68">
         <v>300</v>
       </c>
-      <c r="O36" s="90">
+      <c r="O38" s="70">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="P36" s="91">
+      <c r="P38" s="71">
         <f t="shared" si="3"/>
         <v>0.30666666666666664</v>
       </c>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="101" t="s">
+      <c r="Q38" s="70"/>
+      <c r="R38" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="S36" s="12"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="172"/>
-      <c r="C37" s="88" t="s">
+      <c r="S38" s="12"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="161"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88">
-        <v>1</v>
-      </c>
-      <c r="H37" s="88" t="s">
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68">
+        <v>1</v>
+      </c>
+      <c r="H39" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="88">
+      <c r="I39" s="68">
         <v>2680</v>
       </c>
-      <c r="J37" s="88">
-        <v>1</v>
-      </c>
-      <c r="K37" s="89">
+      <c r="J39" s="68">
+        <v>1</v>
+      </c>
+      <c r="K39" s="69">
         <f t="shared" si="0"/>
         <v>2680</v>
       </c>
-      <c r="L37" s="88">
+      <c r="L39" s="68">
         <v>500</v>
       </c>
-      <c r="M37" s="88">
+      <c r="M39" s="68">
         <v>2500</v>
       </c>
-      <c r="N37" s="88">
+      <c r="N39" s="68">
         <v>3000</v>
       </c>
-      <c r="O37" s="90">
+      <c r="O39" s="70">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="P37" s="91">
+      <c r="P39" s="71">
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q37" s="90" t="s">
+      <c r="Q39" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="R37" s="101" t="s">
+      <c r="R39" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="S37" s="12"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="100"/>
-      <c r="B38" s="172"/>
-      <c r="C38" s="88" t="s">
+      <c r="S39" s="12"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="161"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88">
-        <v>1</v>
-      </c>
-      <c r="H38" s="88" t="s">
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68">
+        <v>1</v>
+      </c>
+      <c r="H40" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="12"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="100"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="88" t="s">
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="12"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="161"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88">
-        <v>1</v>
-      </c>
-      <c r="H39" s="88" t="s">
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68">
+        <v>1</v>
+      </c>
+      <c r="H41" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="12"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="100"/>
-      <c r="B40" s="172"/>
-      <c r="C40" s="88" t="s">
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="12"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="161"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88" t="s">
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88">
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68">
         <v>2000</v>
       </c>
-      <c r="O40" s="90">
+      <c r="O42" s="70">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="12"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="100"/>
-      <c r="B41" s="173"/>
-      <c r="C41" s="88" t="s">
+      <c r="P42" s="71"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="12"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="161"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88" t="s">
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88">
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68">
         <v>1000</v>
       </c>
-      <c r="O41" s="90">
+      <c r="O43" s="70">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="12"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="100"/>
-      <c r="B42" s="103" t="s">
+      <c r="P43" s="71"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="78"/>
+      <c r="S43" s="12"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="161"/>
+      <c r="B44" s="136" t="s">
         <v>237</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C44" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88">
-        <v>1</v>
-      </c>
-      <c r="H42" s="88" t="s">
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68">
+        <v>1</v>
+      </c>
+      <c r="H44" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88">
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68">
         <v>1000</v>
       </c>
-      <c r="O42" s="90">
+      <c r="O44" s="70">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="101"/>
-      <c r="S42" s="12"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="100"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="88" t="s">
+      <c r="P44" s="71"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="12"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="161"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88">
-        <v>1</v>
-      </c>
-      <c r="H43" s="88" t="s">
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68">
+        <v>1</v>
+      </c>
+      <c r="H45" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88">
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68">
         <v>1000</v>
       </c>
-      <c r="O43" s="90">
+      <c r="O45" s="70">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="101"/>
-      <c r="S43" s="12"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="100"/>
-      <c r="B44" s="173"/>
-      <c r="C44" s="88" t="s">
+      <c r="P45" s="71"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="78"/>
+      <c r="S45" s="12"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="161"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88">
-        <v>1</v>
-      </c>
-      <c r="H44" s="88" t="s">
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68">
+        <v>1</v>
+      </c>
+      <c r="H46" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88">
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68">
         <v>1500</v>
       </c>
-      <c r="O44" s="90">
+      <c r="O46" s="70">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="12"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="100"/>
-      <c r="B45" s="103" t="s">
+      <c r="P46" s="71"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="78"/>
+      <c r="S46" s="12"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="161"/>
+      <c r="B47" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="88" t="s">
+      <c r="C47" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88">
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68">
         <v>18.22</v>
       </c>
-      <c r="H45" s="88" t="s">
+      <c r="H47" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="88">
+      <c r="I47" s="68">
         <v>530</v>
       </c>
-      <c r="J45" s="88">
-        <v>1</v>
-      </c>
-      <c r="K45" s="89">
+      <c r="J47" s="68">
+        <v>1</v>
+      </c>
+      <c r="K47" s="69">
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
-      <c r="L45" s="88">
-        <v>0</v>
-      </c>
-      <c r="M45" s="88">
+      <c r="L47" s="68">
+        <v>0</v>
+      </c>
+      <c r="M47" s="68">
         <f t="shared" si="1"/>
         <v>9656.5999999999985</v>
       </c>
-      <c r="N45" s="88">
+      <c r="N47" s="68">
         <v>7000</v>
       </c>
-      <c r="O45" s="90">
+      <c r="O47" s="70">
         <f t="shared" si="2"/>
         <v>-2656.5999999999985</v>
       </c>
-      <c r="P45" s="91">
+      <c r="P47" s="71">
         <f t="shared" si="3"/>
         <v>0.37951428571428553</v>
       </c>
-      <c r="Q45" s="90"/>
-      <c r="R45" s="101" t="s">
+      <c r="Q47" s="70"/>
+      <c r="R47" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="S45" s="12"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="100"/>
-      <c r="B46" s="172"/>
-      <c r="C46" s="88" t="s">
+      <c r="S47" s="12"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="161"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88">
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68">
         <v>7.45</v>
       </c>
-      <c r="H46" s="88" t="s">
+      <c r="H48" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I46" s="88">
+      <c r="I48" s="68">
         <v>420</v>
       </c>
-      <c r="J46" s="88">
-        <v>1</v>
-      </c>
-      <c r="K46" s="89">
+      <c r="J48" s="68">
+        <v>1</v>
+      </c>
+      <c r="K48" s="69">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="L46" s="88">
-        <v>0</v>
-      </c>
-      <c r="M46" s="88">
+      <c r="L48" s="68">
+        <v>0</v>
+      </c>
+      <c r="M48" s="68">
         <f t="shared" si="1"/>
         <v>3129</v>
       </c>
-      <c r="N46" s="88">
+      <c r="N48" s="68">
         <v>3000</v>
       </c>
-      <c r="O46" s="90">
+      <c r="O48" s="70">
         <f t="shared" si="2"/>
         <v>-129</v>
       </c>
-      <c r="P46" s="91">
+      <c r="P48" s="71">
         <f t="shared" si="3"/>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="Q46" s="90"/>
-      <c r="R46" s="101" t="s">
+      <c r="Q48" s="70"/>
+      <c r="R48" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="S46" s="9"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="100"/>
-      <c r="B47" s="87" t="s">
+      <c r="S48" s="9"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="161"/>
+      <c r="B49" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="88" t="s">
+      <c r="C49" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88" t="s">
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88">
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68">
         <v>10000</v>
       </c>
-      <c r="O47" s="90">
+      <c r="O49" s="70">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="P47" s="91">
+      <c r="P49" s="71">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q47" s="90"/>
-      <c r="R47" s="101" t="s">
+      <c r="Q49" s="70"/>
+      <c r="R49" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="S47" s="9"/>
-    </row>
-    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="102"/>
-      <c r="B48" s="103"/>
-      <c r="C48" s="104" t="s">
+      <c r="S49" s="9"/>
+    </row>
+    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="162"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104" t="s">
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="104"/>
-      <c r="M48" s="104"/>
-      <c r="N48" s="104">
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="79">
         <v>5000</v>
       </c>
-      <c r="O48" s="106">
+      <c r="O50" s="81">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="P48" s="107">
+      <c r="P50" s="82">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q48" s="106"/>
-      <c r="R48" s="108" t="s">
+      <c r="Q50" s="81"/>
+      <c r="R50" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="S48" s="9"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="114" t="s">
+      <c r="S50" s="9"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="115" t="s">
+      <c r="B51" s="142" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="116" t="s">
+      <c r="C51" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116">
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88">
         <v>18</v>
       </c>
-      <c r="H49" s="116" t="s">
+      <c r="H51" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="I49" s="116">
+      <c r="I51" s="88">
         <v>35</v>
       </c>
-      <c r="J49" s="116">
-        <v>1</v>
-      </c>
-      <c r="K49" s="117">
+      <c r="J51" s="88">
+        <v>1</v>
+      </c>
+      <c r="K51" s="89">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="L49" s="116"/>
-      <c r="M49" s="116">
+      <c r="L51" s="88"/>
+      <c r="M51" s="88">
         <f t="shared" si="1"/>
         <v>630</v>
       </c>
-      <c r="N49" s="116">
+      <c r="N51" s="88">
         <v>1500</v>
       </c>
-      <c r="O49" s="118">
-        <f>N49-M49</f>
+      <c r="O51" s="90">
+        <f>N51-M51</f>
         <v>870</v>
       </c>
-      <c r="P49" s="119">
+      <c r="P51" s="91">
         <f t="shared" si="3"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q49" s="118"/>
-      <c r="R49" s="120" t="s">
+      <c r="Q51" s="90"/>
+      <c r="R51" s="92" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121"/>
-      <c r="B50" s="109"/>
-      <c r="C50" s="110" t="s">
+    <row r="52" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="145"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110">
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84">
         <v>2.5</v>
       </c>
-      <c r="H50" s="110" t="s">
+      <c r="H52" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="I50" s="110">
+      <c r="I52" s="84">
         <v>200</v>
       </c>
-      <c r="J50" s="110">
-        <v>1</v>
-      </c>
-      <c r="K50" s="111">
+      <c r="J52" s="84">
+        <v>1</v>
+      </c>
+      <c r="K52" s="85">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="L50" s="110"/>
-      <c r="M50" s="110">
+      <c r="L52" s="84"/>
+      <c r="M52" s="84">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="N50" s="110">
+      <c r="N52" s="84">
         <v>1000</v>
       </c>
-      <c r="O50" s="112">
-        <f t="shared" ref="O50:O68" si="4">N50-M50</f>
+      <c r="O52" s="86">
+        <f t="shared" ref="O52:O72" si="4">N52-M52</f>
         <v>500</v>
       </c>
-      <c r="P50" s="113">
+      <c r="P52" s="87">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q50" s="112"/>
-      <c r="R50" s="122" t="s">
+      <c r="Q52" s="86"/>
+      <c r="R52" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="S50"/>
-      <c r="T50"/>
-    </row>
-    <row r="51" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="121"/>
-      <c r="B51" s="109" t="s">
+      <c r="S52"/>
+      <c r="T52"/>
+    </row>
+    <row r="53" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="145"/>
+      <c r="B53" s="143" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="110" t="s">
+      <c r="C53" s="84" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110">
-        <v>1</v>
-      </c>
-      <c r="H51" s="110" t="s">
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84">
+        <v>1</v>
+      </c>
+      <c r="H53" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="I51" s="110">
+      <c r="I53" s="84">
         <v>110</v>
       </c>
-      <c r="J51" s="110">
-        <v>1</v>
-      </c>
-      <c r="K51" s="111">
+      <c r="J53" s="84">
+        <v>1</v>
+      </c>
+      <c r="K53" s="85">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="L51" s="110"/>
-      <c r="M51" s="110">
+      <c r="L53" s="84"/>
+      <c r="M53" s="84">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="N51" s="110">
+      <c r="N53" s="84">
         <v>110</v>
       </c>
-      <c r="O51" s="112">
+      <c r="O53" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P51" s="113">
+      <c r="P53" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="112"/>
-      <c r="R51" s="122" t="s">
+      <c r="Q53" s="86"/>
+      <c r="R53" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="S51"/>
-      <c r="T51"/>
-    </row>
-    <row r="52" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="121"/>
-      <c r="B52" s="109"/>
-      <c r="C52" s="110" t="s">
+      <c r="S53"/>
+      <c r="T53"/>
+    </row>
+    <row r="54" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="145"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110">
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84">
         <v>50</v>
       </c>
-      <c r="H52" s="110" t="s">
+      <c r="H54" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="I52" s="110">
+      <c r="I54" s="84">
         <v>20</v>
       </c>
-      <c r="J52" s="110">
-        <v>1</v>
-      </c>
-      <c r="K52" s="111">
+      <c r="J54" s="84">
+        <v>1</v>
+      </c>
+      <c r="K54" s="85">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="L52" s="110"/>
-      <c r="M52" s="110">
+      <c r="L54" s="84"/>
+      <c r="M54" s="84">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="N52" s="110">
+      <c r="N54" s="84">
         <v>1000</v>
       </c>
-      <c r="O52" s="112">
+      <c r="O54" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P52" s="113">
+      <c r="P54" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="112"/>
-      <c r="R52" s="122" t="s">
+      <c r="Q54" s="86"/>
+      <c r="R54" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="S52"/>
-      <c r="T52"/>
-    </row>
-    <row r="53" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="121"/>
-      <c r="B53" s="109"/>
-      <c r="C53" s="110" t="s">
+      <c r="S54"/>
+      <c r="T54"/>
+    </row>
+    <row r="55" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="145"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110">
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84">
         <v>11</v>
       </c>
-      <c r="H53" s="110" t="s">
+      <c r="H55" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="I53" s="110">
+      <c r="I55" s="84">
         <v>28</v>
       </c>
-      <c r="J53" s="110">
-        <v>1</v>
-      </c>
-      <c r="K53" s="111">
+      <c r="J55" s="84">
+        <v>1</v>
+      </c>
+      <c r="K55" s="85">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="L53" s="110"/>
-      <c r="M53" s="110">
+      <c r="L55" s="84"/>
+      <c r="M55" s="84">
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="N53" s="110">
+      <c r="N55" s="84">
         <v>3000</v>
       </c>
-      <c r="O53" s="112">
+      <c r="O55" s="86">
         <f t="shared" si="4"/>
         <v>2692</v>
       </c>
-      <c r="P53" s="113">
+      <c r="P55" s="87">
         <f t="shared" si="3"/>
         <v>0.89733333333333332</v>
       </c>
-      <c r="Q53" s="112"/>
-      <c r="R53" s="122" t="s">
+      <c r="Q55" s="86"/>
+      <c r="R55" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="S53"/>
-      <c r="T53"/>
-    </row>
-    <row r="54" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="121"/>
-      <c r="B54" s="109"/>
-      <c r="C54" s="110" t="s">
+      <c r="S55"/>
+      <c r="T55"/>
+    </row>
+    <row r="56" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="145"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110">
-        <v>1</v>
-      </c>
-      <c r="H54" s="110" t="s">
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84">
+        <v>1</v>
+      </c>
+      <c r="H56" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
-      <c r="K54" s="111">
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L54" s="110"/>
-      <c r="M54" s="110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="110"/>
-      <c r="O54" s="112">
+      <c r="L56" s="84"/>
+      <c r="M56" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="84"/>
+      <c r="O56" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P54" s="113">
+      <c r="P56" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="112"/>
-      <c r="R54" s="122" t="s">
+      <c r="Q56" s="86"/>
+      <c r="R56" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="S54"/>
-      <c r="T54"/>
-    </row>
-    <row r="55" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="121"/>
-      <c r="B55" s="109"/>
-      <c r="C55" s="110" t="s">
+      <c r="S56"/>
+      <c r="T56"/>
+    </row>
+    <row r="57" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="145"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="110"/>
-      <c r="E55" s="110"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="110">
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84">
         <v>3</v>
       </c>
-      <c r="H55" s="110" t="s">
+      <c r="H57" s="84" t="s">
         <v>202</v>
       </c>
-      <c r="I55" s="110">
+      <c r="I57" s="84">
         <v>3</v>
       </c>
-      <c r="J55" s="110">
-        <v>1</v>
-      </c>
-      <c r="K55" s="111">
+      <c r="J57" s="84">
+        <v>1</v>
+      </c>
+      <c r="K57" s="85">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L55" s="110"/>
-      <c r="M55" s="110">
+      <c r="L57" s="84"/>
+      <c r="M57" s="84">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="N55" s="110">
+      <c r="N57" s="84">
         <v>10</v>
       </c>
-      <c r="O55" s="112">
+      <c r="O57" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="P55" s="113">
+      <c r="P57" s="87">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="Q55" s="112"/>
-      <c r="R55" s="122" t="s">
+      <c r="Q57" s="86"/>
+      <c r="R57" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="S55"/>
-      <c r="T55"/>
-    </row>
-    <row r="56" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="123"/>
-      <c r="B56" s="124" t="s">
+      <c r="S57"/>
+      <c r="T57"/>
+    </row>
+    <row r="58" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="146"/>
+      <c r="B58" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="171" t="s">
+      <c r="C58" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124">
-        <v>1</v>
-      </c>
-      <c r="H56" s="124" t="s">
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94">
+        <v>1</v>
+      </c>
+      <c r="H58" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="I56" s="124">
+      <c r="I58" s="94">
         <v>1110</v>
       </c>
-      <c r="J56" s="124">
-        <v>1</v>
-      </c>
-      <c r="K56" s="125">
-        <f t="shared" ref="K56:K76" si="5">I56*J56</f>
+      <c r="J58" s="94">
+        <v>1</v>
+      </c>
+      <c r="K58" s="95">
+        <f t="shared" ref="K58:K72" si="5">I58*J58</f>
         <v>1110</v>
       </c>
-      <c r="L56" s="124"/>
-      <c r="M56" s="124">
-        <f t="shared" ref="M56:M76" si="6">K56*G56</f>
+      <c r="L58" s="94"/>
+      <c r="M58" s="94">
+        <f t="shared" ref="M58:M72" si="6">K58*G58</f>
         <v>1110</v>
       </c>
-      <c r="N56" s="124">
+      <c r="N58" s="94">
         <v>1500</v>
       </c>
-      <c r="O56" s="126">
+      <c r="O58" s="96">
         <f t="shared" si="4"/>
         <v>390</v>
       </c>
-      <c r="P56" s="127">
+      <c r="P58" s="97">
         <f t="shared" si="3"/>
         <v>0.26</v>
       </c>
-      <c r="Q56" s="126" t="s">
+      <c r="Q58" s="96" t="s">
         <v>231</v>
       </c>
-      <c r="R56" s="128" t="s">
+      <c r="R58" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="S56"/>
-      <c r="T56"/>
-    </row>
-    <row r="57" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="163" t="s">
+      <c r="S58"/>
+      <c r="T58"/>
+    </row>
+    <row r="59" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="164" t="s">
+      <c r="B59" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="170" t="s">
+      <c r="C59" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="165">
-        <v>1</v>
-      </c>
-      <c r="H57" s="165" t="s">
+      <c r="D59" s="124"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="124"/>
+      <c r="G59" s="124">
+        <v>1</v>
+      </c>
+      <c r="H59" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="I57" s="165"/>
-      <c r="J57" s="165"/>
-      <c r="K57" s="166">
+      <c r="I59" s="124"/>
+      <c r="J59" s="124"/>
+      <c r="K59" s="125">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L57" s="165"/>
-      <c r="M57" s="165">
+      <c r="L59" s="124"/>
+      <c r="M59" s="124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N57" s="165">
+      <c r="N59" s="124">
         <v>400</v>
       </c>
-      <c r="O57" s="167">
+      <c r="O59" s="126">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="P57" s="168">
+      <c r="P59" s="127">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q57" s="167"/>
-      <c r="R57" s="169" t="s">
+      <c r="Q59" s="126"/>
+      <c r="R59" s="128" t="s">
         <v>206</v>
       </c>
-      <c r="S57"/>
-      <c r="T57"/>
-    </row>
-    <row r="58" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="134"/>
-      <c r="B58" s="129"/>
-      <c r="C58" s="130" t="s">
+      <c r="S59"/>
+      <c r="T59"/>
+    </row>
+    <row r="60" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="148"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="99" t="s">
         <v>221</v>
       </c>
-      <c r="D58" s="130"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="130"/>
-      <c r="G58" s="130">
-        <v>1</v>
-      </c>
-      <c r="H58" s="130" t="s">
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99">
+        <v>1</v>
+      </c>
+      <c r="H60" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I58" s="130"/>
-      <c r="J58" s="130"/>
-      <c r="K58" s="131">
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L58" s="130"/>
-      <c r="M58" s="130">
+      <c r="L60" s="99"/>
+      <c r="M60" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N58" s="130">
+      <c r="N60" s="99">
         <v>3000</v>
       </c>
-      <c r="O58" s="132">
+      <c r="O60" s="101">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="P58" s="133">
+      <c r="P60" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q58" s="132"/>
-      <c r="R58" s="135" t="s">
+      <c r="Q60" s="101"/>
+      <c r="R60" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="S58"/>
-      <c r="T58"/>
-    </row>
-    <row r="59" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="134"/>
-      <c r="B59" s="129"/>
-      <c r="C59" s="130" t="s">
+      <c r="S60"/>
+      <c r="T60"/>
+    </row>
+    <row r="61" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="148"/>
+      <c r="B61" s="150"/>
+      <c r="C61" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="D59" s="130"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="130">
-        <v>1</v>
-      </c>
-      <c r="H59" s="130" t="s">
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99">
+        <v>1</v>
+      </c>
+      <c r="H61" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I59" s="130"/>
-      <c r="J59" s="130"/>
-      <c r="K59" s="131"/>
-      <c r="L59" s="130"/>
-      <c r="M59" s="130"/>
-      <c r="N59" s="130">
+      <c r="I61" s="99"/>
+      <c r="J61" s="99"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="99"/>
+      <c r="M61" s="99"/>
+      <c r="N61" s="99">
         <v>200</v>
       </c>
-      <c r="O59" s="132">
+      <c r="O61" s="101">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="P59" s="133">
+      <c r="P61" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q59" s="132"/>
-      <c r="R59" s="135"/>
-      <c r="S59"/>
-      <c r="T59"/>
-    </row>
-    <row r="60" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="134"/>
-      <c r="B60" s="129"/>
-      <c r="C60" s="130" t="s">
+      <c r="Q61" s="101"/>
+      <c r="R61" s="103"/>
+      <c r="S61"/>
+      <c r="T61"/>
+    </row>
+    <row r="62" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="148"/>
+      <c r="B62" s="150"/>
+      <c r="C62" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="D60" s="130"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
-      <c r="G60" s="130">
-        <v>1</v>
-      </c>
-      <c r="H60" s="130" t="s">
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99">
+        <v>1</v>
+      </c>
+      <c r="H62" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I60" s="130"/>
-      <c r="J60" s="130"/>
-      <c r="K60" s="131"/>
-      <c r="L60" s="130"/>
-      <c r="M60" s="130"/>
-      <c r="N60" s="130">
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="99"/>
+      <c r="M62" s="99"/>
+      <c r="N62" s="99">
         <v>1000</v>
       </c>
-      <c r="O60" s="132">
+      <c r="O62" s="101">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="P60" s="133">
+      <c r="P62" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q60" s="132"/>
-      <c r="R60" s="135"/>
-      <c r="S60"/>
-      <c r="T60"/>
-    </row>
-    <row r="61" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="134"/>
-      <c r="B61" s="129"/>
-      <c r="C61" s="130" t="s">
+      <c r="Q62" s="101"/>
+      <c r="R62" s="103"/>
+      <c r="S62"/>
+      <c r="T62"/>
+    </row>
+    <row r="63" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="148"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="D61" s="130"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
-      <c r="G61" s="130"/>
-      <c r="H61" s="130"/>
-      <c r="I61" s="130"/>
-      <c r="J61" s="130"/>
-      <c r="K61" s="131">
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L61" s="130"/>
-      <c r="M61" s="130">
+      <c r="L63" s="99"/>
+      <c r="M63" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N61" s="130">
-        <v>0</v>
-      </c>
-      <c r="O61" s="132">
+      <c r="N63" s="99">
+        <v>0</v>
+      </c>
+      <c r="O63" s="101">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P61" s="133">
+      <c r="P63" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="132"/>
-      <c r="R61" s="135" t="s">
+      <c r="Q63" s="101"/>
+      <c r="R63" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="S61"/>
-      <c r="T61"/>
-    </row>
-    <row r="62" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="134"/>
-      <c r="B62" s="130" t="s">
+      <c r="S63"/>
+      <c r="T63"/>
+    </row>
+    <row r="64" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="148"/>
+      <c r="B64" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="130" t="s">
+      <c r="C64" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130">
-        <v>1</v>
-      </c>
-      <c r="H62" s="130" t="s">
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99">
+        <v>1</v>
+      </c>
+      <c r="H64" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I62" s="130"/>
-      <c r="J62" s="130"/>
-      <c r="K62" s="131">
+      <c r="I64" s="99"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L62" s="130"/>
-      <c r="M62" s="130">
+      <c r="L64" s="99"/>
+      <c r="M64" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N62" s="130">
+      <c r="N64" s="99">
         <v>2000</v>
       </c>
-      <c r="O62" s="132">
+      <c r="O64" s="101">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="P62" s="133">
+      <c r="P64" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q62" s="132"/>
-      <c r="R62" s="135" t="s">
-        <v>206</v>
-      </c>
-      <c r="S62"/>
-      <c r="T62"/>
-    </row>
-    <row r="63" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="134"/>
-      <c r="B63" s="137" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="130" t="s">
-        <v>234</v>
-      </c>
-      <c r="D63" s="130"/>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
-      <c r="G63" s="130">
-        <v>1</v>
-      </c>
-      <c r="H63" s="130" t="s">
-        <v>49</v>
-      </c>
-      <c r="I63" s="130"/>
-      <c r="J63" s="130"/>
-      <c r="K63" s="131"/>
-      <c r="L63" s="130"/>
-      <c r="M63" s="130"/>
-      <c r="N63" s="130"/>
-      <c r="O63" s="132"/>
-      <c r="P63" s="133"/>
-      <c r="Q63" s="132"/>
-      <c r="R63" s="135"/>
-      <c r="S63"/>
-      <c r="T63"/>
-    </row>
-    <row r="64" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="134"/>
-      <c r="B64" s="164"/>
-      <c r="C64" s="130" t="s">
-        <v>235</v>
-      </c>
-      <c r="D64" s="130"/>
-      <c r="E64" s="130"/>
-      <c r="F64" s="130"/>
-      <c r="G64" s="130">
-        <v>1</v>
-      </c>
-      <c r="H64" s="130" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" s="130"/>
-      <c r="J64" s="130"/>
-      <c r="K64" s="131">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="130"/>
-      <c r="M64" s="130">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="130"/>
-      <c r="O64" s="132">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="133">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="132"/>
-      <c r="R64" s="135" t="s">
+      <c r="Q64" s="101"/>
+      <c r="R64" s="103" t="s">
         <v>206</v>
       </c>
       <c r="S64"/>
       <c r="T64"/>
     </row>
     <row r="65" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="134"/>
-      <c r="B65" s="129" t="s">
+      <c r="A65" s="148"/>
+      <c r="B65" s="139" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99">
+        <v>1</v>
+      </c>
+      <c r="H65" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="I65" s="99"/>
+      <c r="J65" s="99"/>
+      <c r="K65" s="100"/>
+      <c r="L65" s="99"/>
+      <c r="M65" s="99"/>
+      <c r="N65" s="99">
+        <v>3000</v>
+      </c>
+      <c r="O65" s="101">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="P65" s="102">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q65" s="101"/>
+      <c r="R65" s="103"/>
+      <c r="S65"/>
+      <c r="T65"/>
+    </row>
+    <row r="66" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="148"/>
+      <c r="B66" s="174"/>
+      <c r="C66" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99">
+        <v>1</v>
+      </c>
+      <c r="H66" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="I66" s="99"/>
+      <c r="J66" s="99"/>
+      <c r="K66" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="99"/>
+      <c r="M66" s="99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="99">
+        <v>2000</v>
+      </c>
+      <c r="O66" s="101">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="P66" s="102">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q66" s="101"/>
+      <c r="R66" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="S66"/>
+      <c r="T66"/>
+    </row>
+    <row r="67" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="148"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="99" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99">
+        <v>3</v>
+      </c>
+      <c r="H67" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67" s="99"/>
+      <c r="J67" s="99"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="99"/>
+      <c r="M67" s="99"/>
+      <c r="N67" s="99">
+        <v>1000</v>
+      </c>
+      <c r="O67" s="101">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="P67" s="102">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q67" s="101"/>
+      <c r="R67" s="103"/>
+      <c r="S67"/>
+      <c r="T67"/>
+    </row>
+    <row r="68" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="148"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99">
+        <v>19</v>
+      </c>
+      <c r="H68" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" s="99"/>
+      <c r="J68" s="99"/>
+      <c r="K68" s="100"/>
+      <c r="L68" s="99"/>
+      <c r="M68" s="99"/>
+      <c r="N68" s="99">
+        <v>1000</v>
+      </c>
+      <c r="O68" s="101">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="P68" s="102">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q68" s="101"/>
+      <c r="R68" s="103"/>
+      <c r="S68"/>
+      <c r="T68"/>
+    </row>
+    <row r="69" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="148"/>
+      <c r="B69" s="150" t="s">
         <v>173</v>
       </c>
-      <c r="C65" s="130" t="s">
+      <c r="C69" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="130"/>
-      <c r="E65" s="130"/>
-      <c r="F65" s="130"/>
-      <c r="G65" s="130">
-        <v>1</v>
-      </c>
-      <c r="H65" s="130" t="s">
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99">
+        <v>1</v>
+      </c>
+      <c r="H69" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I65" s="130">
+      <c r="I69" s="99">
         <v>1399</v>
       </c>
-      <c r="J65" s="130">
-        <v>1</v>
-      </c>
-      <c r="K65" s="131">
+      <c r="J69" s="99">
+        <v>1</v>
+      </c>
+      <c r="K69" s="100">
         <f t="shared" si="5"/>
         <v>1399</v>
       </c>
-      <c r="L65" s="130"/>
-      <c r="M65" s="130">
+      <c r="L69" s="99"/>
+      <c r="M69" s="99">
         <f t="shared" si="6"/>
         <v>1399</v>
       </c>
-      <c r="N65" s="130">
+      <c r="N69" s="99">
         <v>1500</v>
       </c>
-      <c r="O65" s="132">
+      <c r="O69" s="101">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
-      <c r="P65" s="133">
+      <c r="P69" s="102">
         <f t="shared" si="3"/>
         <v>6.7333333333333328E-2</v>
       </c>
-      <c r="Q65" s="132"/>
-      <c r="R65" s="135" t="s">
+      <c r="Q69" s="101"/>
+      <c r="R69" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="S65"/>
-      <c r="T65"/>
-    </row>
-    <row r="66" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="134"/>
-      <c r="B66" s="129"/>
-      <c r="C66" s="130" t="s">
+      <c r="S69"/>
+      <c r="T69"/>
+    </row>
+    <row r="70" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="148"/>
+      <c r="B70" s="150"/>
+      <c r="C70" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="D66" s="130"/>
-      <c r="E66" s="130"/>
-      <c r="F66" s="130"/>
-      <c r="G66" s="130">
-        <v>1</v>
-      </c>
-      <c r="H66" s="130" t="s">
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99">
+        <v>1</v>
+      </c>
+      <c r="H70" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I66" s="130"/>
-      <c r="J66" s="130"/>
-      <c r="K66" s="131">
+      <c r="I70" s="99"/>
+      <c r="J70" s="99"/>
+      <c r="K70" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L66" s="130"/>
-      <c r="M66" s="130">
+      <c r="L70" s="99"/>
+      <c r="M70" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N66" s="130">
+      <c r="N70" s="99">
         <v>6000</v>
       </c>
-      <c r="O66" s="132">
+      <c r="O70" s="101">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="P66" s="133">
+      <c r="P70" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q66" s="132"/>
-      <c r="R66" s="135" t="s">
+      <c r="Q70" s="101"/>
+      <c r="R70" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="S66"/>
-      <c r="T66"/>
-    </row>
-    <row r="67" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="134"/>
-      <c r="B67" s="129"/>
-      <c r="C67" s="130" t="s">
+      <c r="S70"/>
+      <c r="T70"/>
+    </row>
+    <row r="71" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="148"/>
+      <c r="B71" s="150"/>
+      <c r="C71" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="D67" s="130"/>
-      <c r="E67" s="130"/>
-      <c r="F67" s="130"/>
-      <c r="G67" s="130">
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99">
         <v>3</v>
       </c>
-      <c r="H67" s="130" t="s">
+      <c r="H71" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I67" s="130"/>
-      <c r="J67" s="130"/>
-      <c r="K67" s="131">
+      <c r="I71" s="99"/>
+      <c r="J71" s="99"/>
+      <c r="K71" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L67" s="130"/>
-      <c r="M67" s="130">
+      <c r="L71" s="99"/>
+      <c r="M71" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N67" s="130">
+      <c r="N71" s="99">
         <v>6000</v>
       </c>
-      <c r="O67" s="132">
+      <c r="O71" s="101">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="P67" s="133">
+      <c r="P71" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q67" s="132"/>
-      <c r="R67" s="135" t="s">
+      <c r="Q71" s="101"/>
+      <c r="R71" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="S67"/>
-      <c r="T67"/>
-    </row>
-    <row r="68" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="136"/>
-      <c r="B68" s="137"/>
-      <c r="C68" s="138" t="s">
+      <c r="S71"/>
+      <c r="T71"/>
+    </row>
+    <row r="72" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="149"/>
+      <c r="B72" s="139"/>
+      <c r="C72" s="104" t="s">
         <v>225</v>
       </c>
-      <c r="D68" s="138"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
-      <c r="G68" s="138">
-        <v>1</v>
-      </c>
-      <c r="H68" s="138" t="s">
+      <c r="D72" s="104"/>
+      <c r="E72" s="104"/>
+      <c r="F72" s="104"/>
+      <c r="G72" s="104">
+        <v>1</v>
+      </c>
+      <c r="H72" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="I68" s="138"/>
-      <c r="J68" s="138"/>
-      <c r="K68" s="139">
+      <c r="I72" s="104"/>
+      <c r="J72" s="104"/>
+      <c r="K72" s="105">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L68" s="138"/>
-      <c r="M68" s="138">
+      <c r="L72" s="104"/>
+      <c r="M72" s="104">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N68" s="138">
+      <c r="N72" s="104">
         <v>1500</v>
       </c>
-      <c r="O68" s="132">
+      <c r="O72" s="101">
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="P68" s="141">
+      <c r="P72" s="107">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q68" s="140"/>
-      <c r="R68" s="142" t="s">
-        <v>206</v>
-      </c>
-      <c r="S68"/>
-      <c r="T68"/>
-    </row>
-    <row r="69" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="148" t="s">
-        <v>219</v>
-      </c>
-      <c r="B69" s="149" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="150" t="s">
-        <v>213</v>
-      </c>
-      <c r="D69" s="150"/>
-      <c r="E69" s="150"/>
-      <c r="F69" s="150"/>
-      <c r="G69" s="150"/>
-      <c r="H69" s="150"/>
-      <c r="I69" s="150"/>
-      <c r="J69" s="150"/>
-      <c r="K69" s="151"/>
-      <c r="L69" s="150"/>
-      <c r="M69" s="150"/>
-      <c r="N69" s="150"/>
-      <c r="O69" s="152"/>
-      <c r="P69" s="153">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="152"/>
-      <c r="R69" s="154" t="s">
-        <v>206</v>
-      </c>
-      <c r="S69"/>
-      <c r="T69"/>
-    </row>
-    <row r="70" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="155"/>
-      <c r="B70" s="143"/>
-      <c r="C70" s="144" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" s="144"/>
-      <c r="E70" s="144"/>
-      <c r="F70" s="144"/>
-      <c r="G70" s="144"/>
-      <c r="H70" s="144"/>
-      <c r="I70" s="144"/>
-      <c r="J70" s="144"/>
-      <c r="K70" s="145"/>
-      <c r="L70" s="144"/>
-      <c r="M70" s="144"/>
-      <c r="N70" s="144"/>
-      <c r="O70" s="146"/>
-      <c r="P70" s="147">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="146"/>
-      <c r="R70" s="156" t="s">
-        <v>206</v>
-      </c>
-      <c r="S70"/>
-      <c r="T70"/>
-    </row>
-    <row r="71" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="155"/>
-      <c r="B71" s="143"/>
-      <c r="C71" s="144" t="s">
-        <v>215</v>
-      </c>
-      <c r="D71" s="144"/>
-      <c r="E71" s="144"/>
-      <c r="F71" s="144"/>
-      <c r="G71" s="144"/>
-      <c r="H71" s="144"/>
-      <c r="I71" s="144"/>
-      <c r="J71" s="144"/>
-      <c r="K71" s="145"/>
-      <c r="L71" s="144"/>
-      <c r="M71" s="144"/>
-      <c r="N71" s="144"/>
-      <c r="O71" s="146"/>
-      <c r="P71" s="147">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="146"/>
-      <c r="R71" s="156" t="s">
-        <v>206</v>
-      </c>
-      <c r="S71"/>
-      <c r="T71"/>
-    </row>
-    <row r="72" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="155"/>
-      <c r="B72" s="143"/>
-      <c r="C72" s="144"/>
-      <c r="D72" s="144"/>
-      <c r="E72" s="144"/>
-      <c r="F72" s="144"/>
-      <c r="G72" s="144"/>
-      <c r="H72" s="144"/>
-      <c r="I72" s="144"/>
-      <c r="J72" s="144"/>
-      <c r="K72" s="145"/>
-      <c r="L72" s="144"/>
-      <c r="M72" s="144"/>
-      <c r="N72" s="144"/>
-      <c r="O72" s="146"/>
-      <c r="P72" s="147">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q72" s="146"/>
-      <c r="R72" s="156" t="s">
+      <c r="Q72" s="106"/>
+      <c r="R72" s="108" t="s">
         <v>206</v>
       </c>
       <c r="S72"/>
       <c r="T72"/>
     </row>
     <row r="73" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="155"/>
-      <c r="B73" s="143" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="144" t="s">
-        <v>216</v>
-      </c>
-      <c r="D73" s="144"/>
-      <c r="E73" s="144"/>
-      <c r="F73" s="144"/>
-      <c r="G73" s="144"/>
-      <c r="H73" s="144"/>
-      <c r="I73" s="144"/>
-      <c r="J73" s="144"/>
-      <c r="K73" s="145"/>
-      <c r="L73" s="144"/>
-      <c r="M73" s="144"/>
-      <c r="N73" s="144">
-        <v>1000</v>
-      </c>
-      <c r="O73" s="146"/>
-      <c r="P73" s="147">
+      <c r="A73" s="151" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="113" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" s="113"/>
+      <c r="E73" s="113"/>
+      <c r="F73" s="113"/>
+      <c r="G73" s="113"/>
+      <c r="H73" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" s="113"/>
+      <c r="J73" s="113"/>
+      <c r="K73" s="114"/>
+      <c r="L73" s="113"/>
+      <c r="M73" s="113"/>
+      <c r="N73" s="113"/>
+      <c r="O73" s="115"/>
+      <c r="P73" s="116">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q73" s="146"/>
-      <c r="R73" s="156" t="s">
+      <c r="Q73" s="115"/>
+      <c r="R73" s="117" t="s">
         <v>206</v>
       </c>
       <c r="S73"/>
       <c r="T73"/>
     </row>
     <row r="74" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="155"/>
-      <c r="B74" s="143"/>
-      <c r="C74" s="144" t="s">
-        <v>217</v>
-      </c>
-      <c r="D74" s="144"/>
-      <c r="E74" s="144"/>
-      <c r="F74" s="144"/>
-      <c r="G74" s="144">
-        <v>1</v>
-      </c>
-      <c r="H74" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="I74" s="144"/>
-      <c r="J74" s="144"/>
-      <c r="K74" s="145"/>
-      <c r="L74" s="144"/>
-      <c r="M74" s="144"/>
-      <c r="N74" s="144">
-        <v>6000</v>
-      </c>
-      <c r="O74" s="146"/>
-      <c r="P74" s="147">
+      <c r="A74" s="152"/>
+      <c r="B74" s="141"/>
+      <c r="C74" s="109" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="109"/>
+      <c r="E74" s="109"/>
+      <c r="F74" s="109"/>
+      <c r="G74" s="109"/>
+      <c r="H74" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="I74" s="109"/>
+      <c r="J74" s="109"/>
+      <c r="K74" s="110"/>
+      <c r="L74" s="109"/>
+      <c r="M74" s="109"/>
+      <c r="N74" s="109"/>
+      <c r="O74" s="111"/>
+      <c r="P74" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="146"/>
-      <c r="R74" s="156" t="s">
+      <c r="Q74" s="111"/>
+      <c r="R74" s="118" t="s">
         <v>206</v>
       </c>
       <c r="S74"/>
       <c r="T74"/>
     </row>
-    <row r="75" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="157"/>
-      <c r="B75" s="158" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" s="158" t="s">
-        <v>236</v>
-      </c>
-      <c r="D75" s="158"/>
-      <c r="E75" s="158"/>
-      <c r="F75" s="158"/>
-      <c r="G75" s="158"/>
-      <c r="H75" s="158" t="s">
-        <v>47</v>
-      </c>
-      <c r="I75" s="158"/>
-      <c r="J75" s="158"/>
-      <c r="K75" s="159"/>
-      <c r="L75" s="158"/>
-      <c r="M75" s="158"/>
-      <c r="N75" s="158">
-        <v>8000</v>
-      </c>
-      <c r="O75" s="160"/>
-      <c r="P75" s="161">
+    <row r="75" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="152"/>
+      <c r="B75" s="141"/>
+      <c r="C75" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="109"/>
+      <c r="E75" s="109"/>
+      <c r="F75" s="109"/>
+      <c r="G75" s="109"/>
+      <c r="H75" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" s="109"/>
+      <c r="J75" s="109"/>
+      <c r="K75" s="110"/>
+      <c r="L75" s="109"/>
+      <c r="M75" s="109"/>
+      <c r="N75" s="109"/>
+      <c r="O75" s="111"/>
+      <c r="P75" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q75" s="160"/>
-      <c r="R75" s="162" t="s">
+      <c r="Q75" s="111"/>
+      <c r="R75" s="118" t="s">
         <v>206</v>
       </c>
       <c r="S75"/>
       <c r="T75"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="27"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="25"/>
-      <c r="R77" s="25"/>
+    <row r="76" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="152"/>
+      <c r="B76" s="141"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="109"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="109"/>
+      <c r="K76" s="110"/>
+      <c r="L76" s="109"/>
+      <c r="M76" s="109"/>
+      <c r="N76" s="109"/>
+      <c r="O76" s="111"/>
+      <c r="P76" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="111"/>
+      <c r="R76" s="118" t="s">
+        <v>206</v>
+      </c>
+      <c r="S76"/>
+      <c r="T76"/>
+    </row>
+    <row r="77" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="152"/>
+      <c r="B77" s="141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="109" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="109"/>
+      <c r="E77" s="109"/>
+      <c r="F77" s="109"/>
+      <c r="G77" s="109"/>
+      <c r="H77" s="109"/>
+      <c r="I77" s="109"/>
+      <c r="J77" s="109"/>
+      <c r="K77" s="110"/>
+      <c r="L77" s="109"/>
+      <c r="M77" s="109"/>
+      <c r="N77" s="109">
+        <v>1000</v>
+      </c>
+      <c r="O77" s="111"/>
+      <c r="P77" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="111"/>
+      <c r="R77" s="118" t="s">
+        <v>206</v>
+      </c>
+      <c r="S77"/>
+      <c r="T77"/>
+    </row>
+    <row r="78" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="152"/>
+      <c r="B78" s="141"/>
+      <c r="C78" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="109"/>
+      <c r="E78" s="109"/>
+      <c r="F78" s="109"/>
+      <c r="G78" s="109">
+        <v>1</v>
+      </c>
+      <c r="H78" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" s="109"/>
+      <c r="J78" s="109"/>
+      <c r="K78" s="110"/>
+      <c r="L78" s="109"/>
+      <c r="M78" s="109"/>
+      <c r="N78" s="109">
+        <v>6000</v>
+      </c>
+      <c r="O78" s="111"/>
+      <c r="P78" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="111"/>
+      <c r="R78" s="118" t="s">
+        <v>206</v>
+      </c>
+      <c r="S78"/>
+      <c r="T78"/>
+    </row>
+    <row r="79" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="153"/>
+      <c r="B79" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="119" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="119"/>
+      <c r="E79" s="119"/>
+      <c r="F79" s="119"/>
+      <c r="G79" s="119"/>
+      <c r="H79" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" s="119"/>
+      <c r="J79" s="119"/>
+      <c r="K79" s="120"/>
+      <c r="L79" s="119"/>
+      <c r="M79" s="119"/>
+      <c r="N79" s="119">
+        <v>8000</v>
+      </c>
+      <c r="O79" s="121"/>
+      <c r="P79" s="122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="121"/>
+      <c r="R79" s="123" t="s">
+        <v>206</v>
+      </c>
+      <c r="S79"/>
+      <c r="T79"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="27"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="A57:A68"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:B72"/>
+  <mergeCells count="27">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="B73:B76"/>
     <mergeCell ref="R1:AH1"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A26:A48"/>
-    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A28:A50"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B28:B32"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A12:A25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A12:A27"/>
     <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <conditionalFormatting sqref="P1:P1048576">
     <cfRule type="dataBar" priority="1">
@@ -8731,7 +8895,7 @@
       <c r="B10" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="173">
         <v>780</v>
       </c>
     </row>
@@ -8739,7 +8903,7 @@
       <c r="B11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="173"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">

--- a/九里A2-自己.xlsx
+++ b/九里A2-自己.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="244">
   <si>
     <t>龙湖九里晴川家装预算表</t>
   </si>
@@ -773,12 +773,6 @@
     <t>见照片，按师傅要求买，优惠零头4块</t>
   </si>
   <si>
-    <t>钛合金推拉门-厨房</t>
-  </si>
-  <si>
-    <t>钛合金平开门-卫生间</t>
-  </si>
-  <si>
     <t>客厅灯</t>
   </si>
   <si>
@@ -797,19 +791,22 @@
     <t>天燃气灶</t>
   </si>
   <si>
-    <t>卧室灯</t>
+    <t>钛合金推拉门-厨房/卫生间</t>
   </si>
   <si>
     <t>孔灯</t>
   </si>
   <si>
-    <t>安装</t>
-  </si>
-  <si>
-    <t>水槽安装</t>
-  </si>
-  <si>
-    <t>灯具安装</t>
+    <t>客厅吊顶完，2/25/2018</t>
+  </si>
+  <si>
+    <t>中储福森建材市场</t>
+  </si>
+  <si>
+    <t>客厅吊顶完，2/25/2018，生产周期1个月</t>
+  </si>
+  <si>
+    <t>美心工艺门</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1525,9 +1522,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5172,11 +5166,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H75" sqref="H75"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5184,14 +5178,14 @@
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="12.140625" customWidth="1"/>
@@ -5326,14 +5320,14 @@
         <v>1</v>
       </c>
       <c r="K4" s="39">
-        <f t="shared" ref="K4:K57" si="0">I4*J4</f>
+        <f t="shared" ref="K4:K54" si="0">I4*J4</f>
         <v>11182.26</v>
       </c>
       <c r="L4" s="39">
         <v>0</v>
       </c>
       <c r="M4" s="40">
-        <f t="shared" ref="M4:M57" si="1">K4*G4</f>
+        <f t="shared" ref="M4:M54" si="1">K4*G4</f>
         <v>11182.26</v>
       </c>
       <c r="N4" s="40">
@@ -5355,8 +5349,8 @@
         <v>78</v>
       </c>
       <c r="T4" s="15">
-        <f>SUM(M4:M81)</f>
-        <v>69246.452799999999</v>
+        <f>SUM(M4:M77)</f>
+        <v>72766.452799999999</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5397,11 +5391,11 @@
         <v>2000</v>
       </c>
       <c r="O5" s="36">
-        <f t="shared" ref="O5:O50" si="2">N5-M5</f>
+        <f t="shared" ref="O5:O47" si="2">N5-M5</f>
         <v>-497</v>
       </c>
       <c r="P5" s="37">
-        <f t="shared" ref="P5:P79" si="3">IFERROR(ABS(O5/N5), 0)</f>
+        <f t="shared" ref="P5:P75" si="3">IFERROR(ABS(O5/N5), 0)</f>
         <v>0.2485</v>
       </c>
       <c r="Q5" s="36"/>
@@ -5412,8 +5406,8 @@
         <v>79</v>
       </c>
       <c r="T5" s="11">
-        <f>SUM(N4:N81)</f>
-        <v>170055</v>
+        <f>SUM(N4:N77)</f>
+        <v>163355</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5470,7 +5464,7 @@
       </c>
       <c r="T6" s="13">
         <f>T5-T4</f>
-        <v>100808.5472</v>
+        <v>90588.547200000001</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5527,7 +5521,7 @@
       </c>
       <c r="T7" s="16">
         <f>T6/T5</f>
-        <v>0.59279966599041489</v>
+        <v>0.55455019558629981</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6334,11 +6328,11 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="169"/>
-      <c r="B24" s="167" t="s">
-        <v>242</v>
+      <c r="B24" s="159" t="s">
+        <v>180</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
@@ -6347,264 +6341,310 @@
         <v>1</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="62"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="169"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52">
-        <v>1</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="62"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="169"/>
-      <c r="B26" s="159" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52">
-        <v>1</v>
-      </c>
-      <c r="H26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I24" s="52">
         <v>45</v>
       </c>
-      <c r="J26" s="52">
-        <v>1</v>
-      </c>
-      <c r="K26" s="52">
+      <c r="J24" s="52">
+        <v>1</v>
+      </c>
+      <c r="K24" s="52">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="L26" s="52">
-        <v>0</v>
-      </c>
-      <c r="M26" s="51">
+      <c r="L24" s="52">
+        <v>0</v>
+      </c>
+      <c r="M24" s="51">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="N26" s="51">
+      <c r="N24" s="51">
         <v>100</v>
       </c>
-      <c r="O26" s="53">
+      <c r="O24" s="53">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="P26" s="54">
+      <c r="P24" s="54">
         <f t="shared" si="3"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="62" t="s">
+      <c r="Q24" s="53"/>
+      <c r="R24" s="62" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="170"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="63" t="s">
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="170"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64">
-        <v>1</v>
-      </c>
-      <c r="H27" s="64" t="s">
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64">
+        <v>1</v>
+      </c>
+      <c r="H25" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="I27" s="64">
+      <c r="I25" s="64">
         <v>100</v>
       </c>
-      <c r="J27" s="64">
-        <v>1</v>
-      </c>
-      <c r="K27" s="64">
+      <c r="J25" s="64">
+        <v>1</v>
+      </c>
+      <c r="K25" s="64">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L27" s="64">
-        <v>0</v>
-      </c>
-      <c r="M27" s="63">
+      <c r="L25" s="64">
+        <v>0</v>
+      </c>
+      <c r="M25" s="63">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="N27" s="63">
+      <c r="N25" s="63">
         <v>200</v>
       </c>
-      <c r="O27" s="65">
+      <c r="O25" s="65">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="P27" s="66">
+      <c r="P25" s="66">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="67" t="s">
+      <c r="Q25" s="65"/>
+      <c r="R25" s="67" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="160" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="160" t="s">
         <v>218</v>
       </c>
-      <c r="B28" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="73" t="s">
+      <c r="B26" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D26" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="73" t="s">
+      <c r="E26" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="73" t="s">
+      <c r="F26" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="73">
+      <c r="G26" s="73">
         <v>3</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H26" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="73">
+      <c r="I26" s="73">
         <v>1299</v>
       </c>
-      <c r="J28" s="73">
-        <v>1</v>
-      </c>
-      <c r="K28" s="74">
+      <c r="J26" s="73">
+        <v>1</v>
+      </c>
+      <c r="K26" s="74">
         <f t="shared" si="0"/>
         <v>1299</v>
       </c>
-      <c r="L28" s="73">
-        <v>0</v>
-      </c>
-      <c r="M28" s="73">
+      <c r="L26" s="73">
+        <v>0</v>
+      </c>
+      <c r="M26" s="73">
         <f t="shared" si="1"/>
         <v>3897</v>
       </c>
-      <c r="N28" s="73">
+      <c r="N26" s="73">
         <v>3000</v>
       </c>
-      <c r="O28" s="75">
+      <c r="O26" s="75">
         <f t="shared" si="2"/>
         <v>-897</v>
       </c>
-      <c r="P28" s="76">
+      <c r="P26" s="76">
         <f t="shared" si="3"/>
         <v>0.29899999999999999</v>
       </c>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="77" t="s">
+      <c r="Q26" s="75"/>
+      <c r="R26" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="S28" s="14" t="s">
+      <c r="S26" s="14" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="161"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68">
+        <v>3</v>
+      </c>
+      <c r="H27" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="68">
+        <v>368</v>
+      </c>
+      <c r="J27" s="68">
+        <v>1</v>
+      </c>
+      <c r="K27" s="69">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+      <c r="L27" s="68">
+        <v>0</v>
+      </c>
+      <c r="M27" s="68">
+        <f t="shared" si="1"/>
+        <v>1104</v>
+      </c>
+      <c r="N27" s="68">
+        <v>1000</v>
+      </c>
+      <c r="O27" s="70">
+        <f t="shared" si="2"/>
+        <v>-104</v>
+      </c>
+      <c r="P27" s="71">
+        <f t="shared" si="3"/>
+        <v>0.104</v>
+      </c>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="161"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68">
+        <v>1</v>
+      </c>
+      <c r="K28" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="68">
+        <v>520</v>
+      </c>
+      <c r="M28" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="68">
+        <v>15000</v>
+      </c>
+      <c r="O28" s="70">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="P28" s="71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="R28" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="S28" s="12"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="161"/>
       <c r="B29" s="163"/>
       <c r="C29" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68">
-        <v>3</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="68"/>
       <c r="H29" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="68">
-        <v>368</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I29" s="68"/>
       <c r="J29" s="68">
         <v>1</v>
       </c>
       <c r="K29" s="69">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="L29" s="68">
         <v>0</v>
       </c>
       <c r="M29" s="68">
         <f t="shared" si="1"/>
-        <v>1104</v>
+        <v>0</v>
       </c>
       <c r="N29" s="68">
         <v>1000</v>
       </c>
       <c r="O29" s="70">
         <f t="shared" si="2"/>
-        <v>-104</v>
+        <v>1000</v>
       </c>
       <c r="P29" s="71">
         <f t="shared" si="3"/>
-        <v>0.104</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="70"/>
       <c r="R29" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="S29" s="10"/>
+      <c r="S29" s="9"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="161"/>
       <c r="B30" s="163"/>
       <c r="C30" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>93</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D30" s="68"/>
       <c r="E30" s="68" t="s">
         <v>94</v>
       </c>
@@ -6613,182 +6653,168 @@
       </c>
       <c r="G30" s="68"/>
       <c r="H30" s="68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
+      <c r="J30" s="68">
+        <v>1</v>
+      </c>
       <c r="K30" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="68">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="M30" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N30" s="68">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="O30" s="70">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="P30" s="71">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q30" s="70" t="s">
-        <v>212</v>
-      </c>
+      <c r="Q30" s="70"/>
       <c r="R30" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="S30" s="12"/>
+      <c r="S30" s="9"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="161"/>
-      <c r="B31" s="163"/>
+      <c r="B31" s="136" t="s">
+        <v>183</v>
+      </c>
       <c r="C31" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="68"/>
+        <v>43</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>170</v>
+      </c>
       <c r="E31" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="68"/>
+        <v>150</v>
+      </c>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68">
+        <v>1</v>
+      </c>
       <c r="H31" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
+        <v>49</v>
+      </c>
+      <c r="I31" s="68">
+        <v>7684</v>
+      </c>
+      <c r="J31" s="68">
+        <v>1</v>
+      </c>
       <c r="K31" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7684</v>
       </c>
       <c r="L31" s="68">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M31" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7684</v>
       </c>
       <c r="N31" s="68">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="O31" s="70">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1316</v>
       </c>
       <c r="P31" s="71">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.14622222222222223</v>
       </c>
       <c r="Q31" s="70"/>
       <c r="R31" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="S31" s="9"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="161"/>
-      <c r="B32" s="163"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="68" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="D32" s="68"/>
-      <c r="E32" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68">
+        <v>1</v>
+      </c>
       <c r="H32" s="68" t="s">
         <v>49</v>
       </c>
       <c r="I32" s="68"/>
       <c r="J32" s="68"/>
-      <c r="K32" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="68">
-        <v>0</v>
-      </c>
-      <c r="M32" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K32" s="69"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
       <c r="N32" s="68">
-        <v>200</v>
-      </c>
-      <c r="O32" s="70">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="P32" s="71">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="O32" s="70"/>
+      <c r="P32" s="71"/>
       <c r="Q32" s="70"/>
-      <c r="R32" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="S32" s="9"/>
+      <c r="R32" s="78"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="161"/>
-      <c r="B33" s="136" t="s">
-        <v>183</v>
-      </c>
+      <c r="B33" s="137"/>
       <c r="C33" s="68" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D33" s="68" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="F33" s="68"/>
       <c r="G33" s="68">
         <v>1</v>
       </c>
       <c r="H33" s="68" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I33" s="68">
-        <v>7684</v>
+        <v>2419</v>
       </c>
       <c r="J33" s="68">
         <v>1</v>
       </c>
       <c r="K33" s="69">
         <f t="shared" si="0"/>
-        <v>7684</v>
+        <v>2419</v>
       </c>
       <c r="L33" s="68">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M33" s="68">
         <f t="shared" si="1"/>
-        <v>7684</v>
+        <v>2419</v>
       </c>
       <c r="N33" s="68">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O33" s="70">
         <f t="shared" si="2"/>
-        <v>1316</v>
+        <v>1581</v>
       </c>
       <c r="P33" s="71">
         <f t="shared" si="3"/>
-        <v>0.14622222222222223</v>
+        <v>0.39524999999999999</v>
       </c>
       <c r="Q33" s="70"/>
       <c r="R33" s="78" t="s">
@@ -6799,42 +6825,62 @@
       <c r="A34" s="161"/>
       <c r="B34" s="137"/>
       <c r="C34" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
+        <v>166</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="68" t="s">
+        <v>168</v>
+      </c>
       <c r="F34" s="68"/>
       <c r="G34" s="68">
         <v>1</v>
       </c>
       <c r="H34" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
+        <v>35</v>
+      </c>
+      <c r="I34" s="68">
+        <v>775.68</v>
+      </c>
+      <c r="J34" s="68">
+        <v>1</v>
+      </c>
+      <c r="K34" s="69">
+        <f t="shared" si="0"/>
+        <v>775.68</v>
+      </c>
+      <c r="L34" s="68">
+        <v>0</v>
+      </c>
+      <c r="M34" s="68">
+        <f t="shared" si="1"/>
+        <v>775.68</v>
+      </c>
       <c r="N34" s="68">
-        <v>3000</v>
-      </c>
-      <c r="O34" s="70"/>
-      <c r="P34" s="71"/>
+        <v>800</v>
+      </c>
+      <c r="O34" s="70">
+        <f t="shared" si="2"/>
+        <v>24.32000000000005</v>
+      </c>
+      <c r="P34" s="71">
+        <f t="shared" si="3"/>
+        <v>3.0400000000000062E-2</v>
+      </c>
       <c r="Q34" s="70"/>
-      <c r="R34" s="78"/>
+      <c r="R34" s="78" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="161"/>
       <c r="B35" s="137"/>
       <c r="C35" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="68" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="68" t="s">
-        <v>169</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="68"/>
       <c r="G35" s="68">
         <v>1</v>
@@ -6843,34 +6889,35 @@
         <v>35</v>
       </c>
       <c r="I35" s="68">
-        <v>2419</v>
+        <v>6180</v>
       </c>
       <c r="J35" s="68">
         <v>1</v>
       </c>
       <c r="K35" s="69">
-        <f t="shared" si="0"/>
-        <v>2419</v>
+        <v>6180</v>
       </c>
       <c r="L35" s="68">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M35" s="68">
         <f t="shared" si="1"/>
-        <v>2419</v>
+        <v>6180</v>
       </c>
       <c r="N35" s="68">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O35" s="70">
         <f t="shared" si="2"/>
-        <v>1581</v>
+        <v>1820</v>
       </c>
       <c r="P35" s="71">
         <f t="shared" si="3"/>
-        <v>0.39524999999999999</v>
-      </c>
-      <c r="Q35" s="70"/>
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="Q35" s="72" t="s">
+        <v>203</v>
+      </c>
       <c r="R35" s="78" t="s">
         <v>206</v>
       </c>
@@ -6879,14 +6926,10 @@
       <c r="A36" s="161"/>
       <c r="B36" s="137"/>
       <c r="C36" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="68" t="s">
-        <v>168</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="68"/>
       <c r="G36" s="68">
         <v>1</v>
@@ -6895,43 +6938,44 @@
         <v>35</v>
       </c>
       <c r="I36" s="68">
-        <v>775.68</v>
+        <v>208</v>
       </c>
       <c r="J36" s="68">
         <v>1</v>
       </c>
       <c r="K36" s="69">
         <f t="shared" si="0"/>
-        <v>775.68</v>
+        <v>208</v>
       </c>
       <c r="L36" s="68">
         <v>0</v>
       </c>
       <c r="M36" s="68">
         <f t="shared" si="1"/>
-        <v>775.68</v>
+        <v>208</v>
       </c>
       <c r="N36" s="68">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="O36" s="70">
         <f t="shared" si="2"/>
-        <v>24.32000000000005</v>
+        <v>92</v>
       </c>
       <c r="P36" s="71">
         <f t="shared" si="3"/>
-        <v>3.0400000000000062E-2</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="Q36" s="70"/>
       <c r="R36" s="78" t="s">
         <v>206</v>
       </c>
+      <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="161"/>
       <c r="B37" s="137"/>
       <c r="C37" s="68" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
@@ -6943,173 +6987,203 @@
         <v>35</v>
       </c>
       <c r="I37" s="68">
-        <v>6180</v>
+        <v>2680</v>
       </c>
       <c r="J37" s="68">
         <v>1</v>
       </c>
       <c r="K37" s="69">
-        <v>6180</v>
+        <f t="shared" si="0"/>
+        <v>2680</v>
       </c>
       <c r="L37" s="68">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M37" s="68">
         <f t="shared" si="1"/>
-        <v>6180</v>
+        <v>2680</v>
       </c>
       <c r="N37" s="68">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O37" s="70">
         <f t="shared" si="2"/>
-        <v>1820</v>
+        <v>320</v>
       </c>
       <c r="P37" s="71">
         <f t="shared" si="3"/>
-        <v>0.22750000000000001</v>
-      </c>
-      <c r="Q37" s="72" t="s">
-        <v>203</v>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="Q37" s="70" t="s">
+        <v>212</v>
       </c>
       <c r="R37" s="78" t="s">
         <v>206</v>
       </c>
+      <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="161"/>
       <c r="B38" s="137"/>
       <c r="C38" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
+        <v>229</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>241</v>
+      </c>
       <c r="F38" s="68"/>
       <c r="G38" s="68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="68" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I38" s="68">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="J38" s="68">
         <v>1</v>
       </c>
       <c r="K38" s="69">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="L38" s="68">
         <v>0</v>
       </c>
       <c r="M38" s="68">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="N38" s="68">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O38" s="70">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="P38" s="71">
         <f t="shared" si="3"/>
-        <v>0.30666666666666664</v>
+        <v>0.2</v>
       </c>
       <c r="Q38" s="70"/>
-      <c r="R38" s="78" t="s">
-        <v>206</v>
-      </c>
+      <c r="R38" s="78"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="161"/>
       <c r="B39" s="137"/>
       <c r="C39" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
+        <v>230</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>241</v>
+      </c>
       <c r="F39" s="68"/>
       <c r="G39" s="68">
         <v>1</v>
       </c>
       <c r="H39" s="68" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I39" s="68">
-        <v>2680</v>
+        <v>80</v>
       </c>
       <c r="J39" s="68">
         <v>1</v>
       </c>
       <c r="K39" s="69">
         <f t="shared" si="0"/>
-        <v>2680</v>
+        <v>80</v>
       </c>
       <c r="L39" s="68">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M39" s="68">
-        <v>2500</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="N39" s="68">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="O39" s="70">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="P39" s="71">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Q39" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="R39" s="78" t="s">
-        <v>206</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="78"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="161"/>
       <c r="B40" s="137"/>
       <c r="C40" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
+        <v>238</v>
+      </c>
+      <c r="D40" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="F40" s="68" t="s">
+        <v>243</v>
+      </c>
       <c r="G40" s="68">
         <v>1</v>
       </c>
       <c r="H40" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
+        <v>35</v>
+      </c>
+      <c r="I40" s="68">
+        <v>3100</v>
+      </c>
+      <c r="J40" s="68">
+        <v>1</v>
+      </c>
+      <c r="K40" s="69">
+        <f t="shared" si="0"/>
+        <v>3100</v>
+      </c>
+      <c r="L40" s="68">
+        <v>1000</v>
+      </c>
+      <c r="M40" s="68">
+        <f t="shared" si="1"/>
+        <v>3100</v>
+      </c>
+      <c r="N40" s="68">
+        <v>3000</v>
+      </c>
       <c r="O40" s="70">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="71"/>
+        <v>-100</v>
+      </c>
+      <c r="P40" s="71">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
       <c r="Q40" s="70"/>
       <c r="R40" s="78"/>
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="161"/>
-      <c r="B41" s="137"/>
+      <c r="B41" s="136" t="s">
+        <v>235</v>
+      </c>
       <c r="C41" s="68" t="s">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="D41" s="68"/>
       <c r="E41" s="68"/>
@@ -7118,19 +7192,24 @@
         <v>1</v>
       </c>
       <c r="H41" s="68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I41" s="68"/>
       <c r="J41" s="68"/>
       <c r="K41" s="69"/>
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
+      <c r="N41" s="68">
+        <v>1000</v>
+      </c>
       <c r="O41" s="70">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="71"/>
+        <v>1000</v>
+      </c>
+      <c r="P41" s="71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q41" s="70"/>
       <c r="R41" s="78"/>
       <c r="S41" s="12"/>
@@ -7139,14 +7218,16 @@
       <c r="A42" s="161"/>
       <c r="B42" s="137"/>
       <c r="C42" s="68" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D42" s="68"/>
       <c r="E42" s="68"/>
       <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
+      <c r="G42" s="68">
+        <v>1</v>
+      </c>
       <c r="H42" s="68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I42" s="68"/>
       <c r="J42" s="68"/>
@@ -7154,13 +7235,16 @@
       <c r="L42" s="68"/>
       <c r="M42" s="68"/>
       <c r="N42" s="68">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O42" s="70">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="P42" s="71"/>
+        <v>1000</v>
+      </c>
+      <c r="P42" s="71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q42" s="70"/>
       <c r="R42" s="78"/>
       <c r="S42" s="12"/>
@@ -7169,14 +7253,16 @@
       <c r="A43" s="161"/>
       <c r="B43" s="138"/>
       <c r="C43" s="68" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="D43" s="68"/>
       <c r="E43" s="68"/>
       <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
+      <c r="G43" s="68">
+        <v>1</v>
+      </c>
       <c r="H43" s="68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I43" s="68"/>
       <c r="J43" s="68"/>
@@ -7184,13 +7270,16 @@
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
       <c r="N43" s="68">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="O43" s="70">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="P43" s="71"/>
+        <v>1500</v>
+      </c>
+      <c r="P43" s="71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q43" s="70"/>
       <c r="R43" s="78"/>
       <c r="S43" s="12"/>
@@ -7198,83 +7287,117 @@
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="161"/>
       <c r="B44" s="136" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="C44" s="68" t="s">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="D44" s="68"/>
       <c r="E44" s="68"/>
       <c r="F44" s="68"/>
       <c r="G44" s="68">
-        <v>1</v>
+        <v>18.22</v>
       </c>
       <c r="H44" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="I44" s="68">
+        <v>530</v>
+      </c>
+      <c r="J44" s="68">
+        <v>1</v>
+      </c>
+      <c r="K44" s="69">
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+      <c r="L44" s="68">
+        <v>0</v>
+      </c>
+      <c r="M44" s="68">
+        <f t="shared" si="1"/>
+        <v>9656.5999999999985</v>
+      </c>
       <c r="N44" s="68">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="O44" s="70">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="P44" s="71"/>
+        <v>-2656.5999999999985</v>
+      </c>
+      <c r="P44" s="71">
+        <f t="shared" si="3"/>
+        <v>0.37951428571428553</v>
+      </c>
       <c r="Q44" s="70"/>
-      <c r="R44" s="78"/>
+      <c r="R44" s="78" t="s">
+        <v>206</v>
+      </c>
       <c r="S44" s="12"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="161"/>
       <c r="B45" s="137"/>
       <c r="C45" s="68" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="D45" s="68"/>
       <c r="E45" s="68"/>
       <c r="F45" s="68"/>
       <c r="G45" s="68">
-        <v>1</v>
+        <v>7.45</v>
       </c>
       <c r="H45" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="I45" s="68">
+        <v>420</v>
+      </c>
+      <c r="J45" s="68">
+        <v>1</v>
+      </c>
+      <c r="K45" s="69">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="L45" s="68">
+        <v>0</v>
+      </c>
+      <c r="M45" s="68">
+        <f t="shared" si="1"/>
+        <v>3129</v>
+      </c>
       <c r="N45" s="68">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="O45" s="70">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="P45" s="71"/>
+        <v>-129</v>
+      </c>
+      <c r="P45" s="71">
+        <f t="shared" si="3"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
       <c r="Q45" s="70"/>
-      <c r="R45" s="78"/>
-      <c r="S45" s="12"/>
+      <c r="R45" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="S45" s="9"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="161"/>
-      <c r="B46" s="138"/>
+      <c r="B46" s="163" t="s">
+        <v>61</v>
+      </c>
       <c r="C46" s="68" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="D46" s="68"/>
       <c r="E46" s="68"/>
       <c r="F46" s="68"/>
-      <c r="G46" s="68">
-        <v>1</v>
-      </c>
+      <c r="G46" s="68"/>
       <c r="H46" s="68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I46" s="68"/>
       <c r="J46" s="68"/>
@@ -7282,279 +7405,293 @@
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
       <c r="N46" s="68">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="O46" s="70">
         <f t="shared" si="2"/>
-        <v>1500</v>
-      </c>
-      <c r="P46" s="71"/>
+        <v>10000</v>
+      </c>
+      <c r="P46" s="71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q46" s="70"/>
-      <c r="R46" s="78"/>
-      <c r="S46" s="12"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="161"/>
-      <c r="B47" s="136" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68">
-        <v>18.22</v>
-      </c>
-      <c r="H47" s="68" t="s">
+      <c r="R46" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="S46" s="9"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="162"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="I47" s="68">
-        <v>530</v>
-      </c>
-      <c r="J47" s="68">
-        <v>1</v>
-      </c>
-      <c r="K47" s="69">
-        <f t="shared" si="0"/>
-        <v>530</v>
-      </c>
-      <c r="L47" s="68">
-        <v>0</v>
-      </c>
-      <c r="M47" s="68">
-        <f t="shared" si="1"/>
-        <v>9656.5999999999985</v>
-      </c>
-      <c r="N47" s="68">
-        <v>7000</v>
-      </c>
-      <c r="O47" s="70">
-        <f t="shared" si="2"/>
-        <v>-2656.5999999999985</v>
-      </c>
-      <c r="P47" s="71">
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79">
+        <v>5000</v>
+      </c>
+      <c r="O47" s="81">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="P47" s="82">
         <f t="shared" si="3"/>
-        <v>0.37951428571428553</v>
-      </c>
-      <c r="Q47" s="70"/>
-      <c r="R47" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="S47" s="12"/>
+      <c r="S47" s="9"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="161"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68">
-        <v>7.45</v>
-      </c>
-      <c r="H48" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" s="68">
-        <v>420</v>
-      </c>
-      <c r="J48" s="68">
-        <v>1</v>
-      </c>
-      <c r="K48" s="69">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="L48" s="68">
-        <v>0</v>
-      </c>
-      <c r="M48" s="68">
-        <f t="shared" si="1"/>
-        <v>3129</v>
-      </c>
-      <c r="N48" s="68">
-        <v>3000</v>
-      </c>
-      <c r="O48" s="70">
-        <f t="shared" si="2"/>
-        <v>-129</v>
-      </c>
-      <c r="P48" s="71">
-        <f t="shared" si="3"/>
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="S48" s="9"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="161"/>
-      <c r="B49" s="163" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="68">
-        <v>10000</v>
-      </c>
-      <c r="O49" s="70">
-        <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="P49" s="71">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="S49" s="9"/>
-    </row>
-    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="162"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79">
-        <v>5000</v>
-      </c>
-      <c r="O50" s="81">
-        <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="P50" s="82">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q50" s="81"/>
-      <c r="R50" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="S50" s="9"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="144" t="s">
+      <c r="A48" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="142" t="s">
+      <c r="B48" s="142" t="s">
         <v>199</v>
       </c>
-      <c r="C51" s="88" t="s">
+      <c r="C48" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88">
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88">
         <v>18</v>
       </c>
-      <c r="H51" s="88" t="s">
+      <c r="H48" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="I51" s="88">
+      <c r="I48" s="88">
         <v>35</v>
       </c>
-      <c r="J51" s="88">
-        <v>1</v>
-      </c>
-      <c r="K51" s="89">
+      <c r="J48" s="88">
+        <v>1</v>
+      </c>
+      <c r="K48" s="89">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88">
+      <c r="L48" s="88"/>
+      <c r="M48" s="88">
         <f t="shared" si="1"/>
         <v>630</v>
       </c>
-      <c r="N51" s="88">
+      <c r="N48" s="88">
         <v>1500</v>
       </c>
-      <c r="O51" s="90">
-        <f>N51-M51</f>
+      <c r="O48" s="90">
+        <f>N48-M48</f>
         <v>870</v>
       </c>
-      <c r="P51" s="91">
+      <c r="P48" s="91">
         <f t="shared" si="3"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q51" s="90"/>
-      <c r="R51" s="92" t="s">
+      <c r="Q48" s="90"/>
+      <c r="R48" s="92" t="s">
         <v>206</v>
       </c>
+    </row>
+    <row r="49" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="145"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84">
+        <v>2.5</v>
+      </c>
+      <c r="H49" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="I49" s="84">
+        <v>200</v>
+      </c>
+      <c r="J49" s="84">
+        <v>1</v>
+      </c>
+      <c r="K49" s="85">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="N49" s="84">
+        <v>1000</v>
+      </c>
+      <c r="O49" s="86">
+        <f t="shared" ref="O49:O68" si="4">N49-M49</f>
+        <v>500</v>
+      </c>
+      <c r="P49" s="87">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q49" s="86"/>
+      <c r="R49" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="S49"/>
+      <c r="T49"/>
+    </row>
+    <row r="50" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="145"/>
+      <c r="B50" s="143" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84">
+        <v>1</v>
+      </c>
+      <c r="H50" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="I50" s="84">
+        <v>110</v>
+      </c>
+      <c r="J50" s="84">
+        <v>1</v>
+      </c>
+      <c r="K50" s="85">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="N50" s="84">
+        <v>110</v>
+      </c>
+      <c r="O50" s="86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="86"/>
+      <c r="R50" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="S50"/>
+      <c r="T50"/>
+    </row>
+    <row r="51" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="145"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84">
+        <v>50</v>
+      </c>
+      <c r="H51" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" s="84">
+        <v>20</v>
+      </c>
+      <c r="J51" s="84">
+        <v>1</v>
+      </c>
+      <c r="K51" s="85">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="N51" s="84">
+        <v>1000</v>
+      </c>
+      <c r="O51" s="86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="86"/>
+      <c r="R51" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="S51"/>
+      <c r="T51"/>
     </row>
     <row r="52" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="145"/>
       <c r="B52" s="143"/>
       <c r="C52" s="84" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D52" s="84"/>
       <c r="E52" s="84"/>
       <c r="F52" s="84"/>
       <c r="G52" s="84">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="H52" s="84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I52" s="84">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="J52" s="84">
         <v>1</v>
       </c>
       <c r="K52" s="85">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="L52" s="84"/>
       <c r="M52" s="84">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>308</v>
       </c>
       <c r="N52" s="84">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="O52" s="86">
-        <f t="shared" ref="O52:O72" si="4">N52-M52</f>
-        <v>500</v>
+        <f t="shared" si="4"/>
+        <v>2692</v>
       </c>
       <c r="P52" s="87">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.89733333333333332</v>
       </c>
       <c r="Q52" s="86"/>
       <c r="R52" s="93" t="s">
@@ -7565,11 +7702,9 @@
     </row>
     <row r="53" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="145"/>
-      <c r="B53" s="143" t="s">
-        <v>200</v>
-      </c>
+      <c r="B53" s="143"/>
       <c r="C53" s="84" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="D53" s="84"/>
       <c r="E53" s="84"/>
@@ -7580,24 +7715,18 @@
       <c r="H53" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="I53" s="84">
-        <v>110</v>
-      </c>
-      <c r="J53" s="84">
-        <v>1</v>
-      </c>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
       <c r="K53" s="85">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L53" s="84"/>
       <c r="M53" s="84">
         <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="N53" s="84">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N53" s="84"/>
       <c r="O53" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7617,42 +7746,42 @@
       <c r="A54" s="145"/>
       <c r="B54" s="143"/>
       <c r="C54" s="84" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D54" s="84"/>
       <c r="E54" s="84"/>
       <c r="F54" s="84"/>
       <c r="G54" s="84">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H54" s="84" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="I54" s="84">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J54" s="84">
         <v>1</v>
       </c>
       <c r="K54" s="85">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L54" s="84"/>
       <c r="M54" s="84">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="N54" s="84">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="O54" s="86">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="87">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q54" s="86"/>
       <c r="R54" s="93" t="s">
@@ -7661,241 +7790,219 @@
       <c r="S54"/>
       <c r="T54"/>
     </row>
-    <row r="55" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="145"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84">
-        <v>11</v>
-      </c>
-      <c r="H55" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="I55" s="84">
-        <v>28</v>
-      </c>
-      <c r="J55" s="84">
-        <v>1</v>
-      </c>
-      <c r="K55" s="85">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84">
-        <f t="shared" si="1"/>
-        <v>308</v>
-      </c>
-      <c r="N55" s="84">
-        <v>3000</v>
-      </c>
-      <c r="O55" s="86">
+    <row r="55" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="146"/>
+      <c r="B55" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" s="130" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="94">
+        <v>1</v>
+      </c>
+      <c r="H55" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" s="94">
+        <v>1110</v>
+      </c>
+      <c r="J55" s="94">
+        <v>1</v>
+      </c>
+      <c r="K55" s="95">
+        <f t="shared" ref="K55:K68" si="5">I55*J55</f>
+        <v>1110</v>
+      </c>
+      <c r="L55" s="94"/>
+      <c r="M55" s="94">
+        <f t="shared" ref="M55:M68" si="6">K55*G55</f>
+        <v>1110</v>
+      </c>
+      <c r="N55" s="94">
+        <v>1500</v>
+      </c>
+      <c r="O55" s="96">
         <f t="shared" si="4"/>
-        <v>2692</v>
-      </c>
-      <c r="P55" s="87">
+        <v>390</v>
+      </c>
+      <c r="P55" s="97">
         <f t="shared" si="3"/>
-        <v>0.89733333333333332</v>
-      </c>
-      <c r="Q55" s="86"/>
-      <c r="R55" s="93" t="s">
+        <v>0.26</v>
+      </c>
+      <c r="Q55" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="R55" s="98" t="s">
         <v>206</v>
       </c>
       <c r="S55"/>
       <c r="T55"/>
     </row>
     <row r="56" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="145"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="84" t="s">
-        <v>201</v>
-      </c>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84">
-        <v>1</v>
-      </c>
-      <c r="H56" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="84"/>
-      <c r="O56" s="86">
+      <c r="A56" s="147" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124">
+        <v>1</v>
+      </c>
+      <c r="H56" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="124"/>
+      <c r="M56" s="124">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="124">
+        <v>400</v>
+      </c>
+      <c r="O56" s="126">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="87">
+        <v>400</v>
+      </c>
+      <c r="P56" s="127">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="86"/>
-      <c r="R56" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="126"/>
+      <c r="R56" s="128" t="s">
         <v>206</v>
       </c>
       <c r="S56"/>
       <c r="T56"/>
     </row>
     <row r="57" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="145"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84">
-        <v>3</v>
-      </c>
-      <c r="H57" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="I57" s="84">
-        <v>3</v>
-      </c>
-      <c r="J57" s="84">
-        <v>1</v>
-      </c>
-      <c r="K57" s="85">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="N57" s="84">
-        <v>10</v>
-      </c>
-      <c r="O57" s="86">
+      <c r="A57" s="148"/>
+      <c r="B57" s="150"/>
+      <c r="C57" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99">
+        <v>1</v>
+      </c>
+      <c r="H57" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="99"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="99"/>
+      <c r="M57" s="99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="99">
+        <v>3000</v>
+      </c>
+      <c r="O57" s="101">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="P57" s="87">
+        <v>3000</v>
+      </c>
+      <c r="P57" s="102">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q57" s="86"/>
-      <c r="R57" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="101"/>
+      <c r="R57" s="103" t="s">
         <v>206</v>
       </c>
       <c r="S57"/>
       <c r="T57"/>
     </row>
-    <row r="58" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="146"/>
-      <c r="B58" s="94" t="s">
-        <v>189</v>
-      </c>
-      <c r="C58" s="130" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94">
-        <v>1</v>
-      </c>
-      <c r="H58" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="I58" s="94">
-        <v>1110</v>
-      </c>
-      <c r="J58" s="94">
-        <v>1</v>
-      </c>
-      <c r="K58" s="95">
-        <f t="shared" ref="K58:K72" si="5">I58*J58</f>
-        <v>1110</v>
-      </c>
-      <c r="L58" s="94"/>
-      <c r="M58" s="94">
-        <f t="shared" ref="M58:M72" si="6">K58*G58</f>
-        <v>1110</v>
-      </c>
-      <c r="N58" s="94">
-        <v>1500</v>
-      </c>
-      <c r="O58" s="96">
+    <row r="58" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="148"/>
+      <c r="B58" s="150"/>
+      <c r="C58" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99">
+        <v>1</v>
+      </c>
+      <c r="H58" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" s="99"/>
+      <c r="J58" s="99"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="99">
+        <v>200</v>
+      </c>
+      <c r="O58" s="101">
         <f t="shared" si="4"/>
-        <v>390</v>
-      </c>
-      <c r="P58" s="97">
+        <v>200</v>
+      </c>
+      <c r="P58" s="102">
         <f t="shared" si="3"/>
-        <v>0.26</v>
-      </c>
-      <c r="Q58" s="96" t="s">
-        <v>231</v>
-      </c>
-      <c r="R58" s="98" t="s">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q58" s="101"/>
+      <c r="R58" s="103"/>
       <c r="S58"/>
       <c r="T58"/>
     </row>
     <row r="59" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="147" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" s="124"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="124">
-        <v>1</v>
-      </c>
-      <c r="H59" s="124" t="s">
+      <c r="A59" s="148"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99">
+        <v>1</v>
+      </c>
+      <c r="H59" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I59" s="124"/>
-      <c r="J59" s="124"/>
-      <c r="K59" s="125">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="124"/>
-      <c r="M59" s="124">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="124">
-        <v>400</v>
-      </c>
-      <c r="O59" s="126">
+      <c r="I59" s="99"/>
+      <c r="J59" s="99"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="99"/>
+      <c r="M59" s="99"/>
+      <c r="N59" s="99">
+        <v>1000</v>
+      </c>
+      <c r="O59" s="101">
         <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-      <c r="P59" s="127">
+        <v>1000</v>
+      </c>
+      <c r="P59" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q59" s="126"/>
-      <c r="R59" s="128" t="s">
-        <v>206</v>
-      </c>
+      <c r="Q59" s="101"/>
+      <c r="R59" s="103"/>
       <c r="S59"/>
       <c r="T59"/>
     </row>
@@ -7903,17 +8010,13 @@
       <c r="A60" s="148"/>
       <c r="B60" s="150"/>
       <c r="C60" s="99" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D60" s="99"/>
       <c r="E60" s="99"/>
       <c r="F60" s="99"/>
-      <c r="G60" s="99">
-        <v>1</v>
-      </c>
-      <c r="H60" s="99" t="s">
-        <v>49</v>
-      </c>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
       <c r="I60" s="99"/>
       <c r="J60" s="99"/>
       <c r="K60" s="100">
@@ -7926,15 +8029,15 @@
         <v>0</v>
       </c>
       <c r="N60" s="99">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O60" s="101">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="P60" s="102">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="101"/>
       <c r="R60" s="103" t="s">
@@ -7945,9 +8048,11 @@
     </row>
     <row r="61" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="148"/>
-      <c r="B61" s="150"/>
+      <c r="B61" s="99" t="s">
+        <v>7</v>
+      </c>
       <c r="C61" s="99" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="D61" s="99"/>
       <c r="E61" s="99"/>
@@ -7960,30 +8065,40 @@
       </c>
       <c r="I61" s="99"/>
       <c r="J61" s="99"/>
-      <c r="K61" s="100"/>
+      <c r="K61" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="L61" s="99"/>
-      <c r="M61" s="99"/>
+      <c r="M61" s="99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="N61" s="99">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="O61" s="101">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="P61" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q61" s="101"/>
-      <c r="R61" s="103"/>
+      <c r="R61" s="103" t="s">
+        <v>206</v>
+      </c>
       <c r="S61"/>
       <c r="T61"/>
     </row>
     <row r="62" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="148"/>
-      <c r="B62" s="150"/>
+      <c r="B62" s="139" t="s">
+        <v>228</v>
+      </c>
       <c r="C62" s="99" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D62" s="99"/>
       <c r="E62" s="99"/>
@@ -7999,17 +8114,9 @@
       <c r="K62" s="100"/>
       <c r="L62" s="99"/>
       <c r="M62" s="99"/>
-      <c r="N62" s="99">
-        <v>1000</v>
-      </c>
-      <c r="O62" s="101">
-        <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-      <c r="P62" s="102">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="N62" s="99"/>
+      <c r="O62" s="101"/>
+      <c r="P62" s="102"/>
       <c r="Q62" s="101"/>
       <c r="R62" s="103"/>
       <c r="S62"/>
@@ -8017,51 +8124,37 @@
     </row>
     <row r="63" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="148"/>
-      <c r="B63" s="150"/>
+      <c r="B63" s="174"/>
       <c r="C63" s="99" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D63" s="99"/>
       <c r="E63" s="99"/>
       <c r="F63" s="99"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
+      <c r="G63" s="99">
+        <v>19</v>
+      </c>
+      <c r="H63" s="99" t="s">
+        <v>49</v>
+      </c>
       <c r="I63" s="99"/>
       <c r="J63" s="99"/>
-      <c r="K63" s="100">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="K63" s="100"/>
       <c r="L63" s="99"/>
-      <c r="M63" s="99">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N63" s="99">
-        <v>0</v>
-      </c>
-      <c r="O63" s="101">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="M63" s="99"/>
+      <c r="N63" s="99"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="102"/>
       <c r="Q63" s="101"/>
-      <c r="R63" s="103" t="s">
-        <v>206</v>
-      </c>
+      <c r="R63" s="103"/>
       <c r="S63"/>
       <c r="T63"/>
     </row>
     <row r="64" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="148"/>
-      <c r="B64" s="99" t="s">
-        <v>7</v>
-      </c>
+      <c r="B64" s="140"/>
       <c r="C64" s="99" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="D64" s="99"/>
       <c r="E64" s="99"/>
@@ -8083,16 +8176,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N64" s="99">
-        <v>2000</v>
-      </c>
+      <c r="N64" s="99"/>
       <c r="O64" s="101">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P64" s="102">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="101"/>
       <c r="R64" s="103" t="s">
@@ -8103,11 +8194,11 @@
     </row>
     <row r="65" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="148"/>
-      <c r="B65" s="139" t="s">
-        <v>228</v>
+      <c r="B65" s="150" t="s">
+        <v>173</v>
       </c>
       <c r="C65" s="99" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="D65" s="99"/>
       <c r="E65" s="99"/>
@@ -8118,32 +8209,44 @@
       <c r="H65" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
-      <c r="K65" s="100"/>
+      <c r="I65" s="99">
+        <v>1399</v>
+      </c>
+      <c r="J65" s="99">
+        <v>1</v>
+      </c>
+      <c r="K65" s="100">
+        <f t="shared" si="5"/>
+        <v>1399</v>
+      </c>
       <c r="L65" s="99"/>
-      <c r="M65" s="99"/>
+      <c r="M65" s="99">
+        <f t="shared" si="6"/>
+        <v>1399</v>
+      </c>
       <c r="N65" s="99">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="O65" s="101">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>101</v>
       </c>
       <c r="P65" s="102">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6.7333333333333328E-2</v>
       </c>
       <c r="Q65" s="101"/>
-      <c r="R65" s="103"/>
+      <c r="R65" s="103" t="s">
+        <v>206</v>
+      </c>
       <c r="S65"/>
       <c r="T65"/>
     </row>
     <row r="66" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="148"/>
-      <c r="B66" s="174"/>
+      <c r="B66" s="150"/>
       <c r="C66" s="99" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D66" s="99"/>
       <c r="E66" s="99"/>
@@ -8166,11 +8269,11 @@
         <v>0</v>
       </c>
       <c r="N66" s="99">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="O66" s="101">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="P66" s="102">
         <f t="shared" si="3"/>
@@ -8185,9 +8288,9 @@
     </row>
     <row r="67" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="148"/>
-      <c r="B67" s="174"/>
+      <c r="B67" s="150"/>
       <c r="C67" s="99" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D67" s="99"/>
       <c r="E67" s="99"/>
@@ -8200,273 +8303,223 @@
       </c>
       <c r="I67" s="99"/>
       <c r="J67" s="99"/>
-      <c r="K67" s="100"/>
+      <c r="K67" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="L67" s="99"/>
-      <c r="M67" s="99"/>
+      <c r="M67" s="99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="N67" s="99">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="O67" s="101">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="P67" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q67" s="101"/>
-      <c r="R67" s="103"/>
+      <c r="R67" s="103" t="s">
+        <v>206</v>
+      </c>
       <c r="S67"/>
       <c r="T67"/>
     </row>
-    <row r="68" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="148"/>
-      <c r="B68" s="140"/>
-      <c r="C68" s="99" t="s">
-        <v>241</v>
-      </c>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99">
-        <v>19</v>
-      </c>
-      <c r="H68" s="99" t="s">
+    <row r="68" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="149"/>
+      <c r="B68" s="139"/>
+      <c r="C68" s="104" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" s="104"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="104"/>
+      <c r="G68" s="104">
+        <v>1</v>
+      </c>
+      <c r="H68" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="I68" s="99"/>
-      <c r="J68" s="99"/>
-      <c r="K68" s="100"/>
-      <c r="L68" s="99"/>
-      <c r="M68" s="99"/>
-      <c r="N68" s="99">
-        <v>1000</v>
+      <c r="I68" s="104"/>
+      <c r="J68" s="104"/>
+      <c r="K68" s="105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="104"/>
+      <c r="M68" s="104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="104">
+        <v>1500</v>
       </c>
       <c r="O68" s="101">
         <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-      <c r="P68" s="102">
+        <v>1500</v>
+      </c>
+      <c r="P68" s="107">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q68" s="101"/>
-      <c r="R68" s="103"/>
+      <c r="Q68" s="106"/>
+      <c r="R68" s="108" t="s">
+        <v>206</v>
+      </c>
       <c r="S68"/>
       <c r="T68"/>
     </row>
     <row r="69" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="148"/>
-      <c r="B69" s="150" t="s">
-        <v>173</v>
-      </c>
-      <c r="C69" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="99">
-        <v>1</v>
-      </c>
-      <c r="H69" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="I69" s="99">
-        <v>1399</v>
-      </c>
-      <c r="J69" s="99">
-        <v>1</v>
-      </c>
-      <c r="K69" s="100">
-        <f t="shared" si="5"/>
-        <v>1399</v>
-      </c>
-      <c r="L69" s="99"/>
-      <c r="M69" s="99">
-        <f t="shared" si="6"/>
-        <v>1399</v>
-      </c>
-      <c r="N69" s="99">
-        <v>1500</v>
-      </c>
-      <c r="O69" s="101">
-        <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="P69" s="102">
+      <c r="A69" s="151" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="113" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="113"/>
+      <c r="H69" s="113"/>
+      <c r="I69" s="113"/>
+      <c r="J69" s="113"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="113"/>
+      <c r="M69" s="113"/>
+      <c r="N69" s="113"/>
+      <c r="O69" s="115"/>
+      <c r="P69" s="116">
         <f t="shared" si="3"/>
-        <v>6.7333333333333328E-2</v>
-      </c>
-      <c r="Q69" s="101"/>
-      <c r="R69" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="115"/>
+      <c r="R69" s="117" t="s">
         <v>206</v>
       </c>
       <c r="S69"/>
       <c r="T69"/>
     </row>
     <row r="70" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="148"/>
-      <c r="B70" s="150"/>
-      <c r="C70" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99">
-        <v>1</v>
-      </c>
-      <c r="H70" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="I70" s="99"/>
-      <c r="J70" s="99"/>
-      <c r="K70" s="100">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="99"/>
-      <c r="M70" s="99">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="99">
-        <v>6000</v>
-      </c>
-      <c r="O70" s="101">
-        <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="P70" s="102">
+      <c r="A70" s="152"/>
+      <c r="B70" s="141"/>
+      <c r="C70" s="109" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="109"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="109"/>
+      <c r="G70" s="109"/>
+      <c r="H70" s="109"/>
+      <c r="I70" s="109"/>
+      <c r="J70" s="109"/>
+      <c r="K70" s="110"/>
+      <c r="L70" s="109"/>
+      <c r="M70" s="109"/>
+      <c r="N70" s="109"/>
+      <c r="O70" s="111"/>
+      <c r="P70" s="112">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q70" s="101"/>
-      <c r="R70" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="111"/>
+      <c r="R70" s="118" t="s">
         <v>206</v>
       </c>
       <c r="S70"/>
       <c r="T70"/>
     </row>
     <row r="71" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="148"/>
-      <c r="B71" s="150"/>
-      <c r="C71" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="99">
-        <v>3</v>
-      </c>
-      <c r="H71" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="I71" s="99"/>
-      <c r="J71" s="99"/>
-      <c r="K71" s="100">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="99"/>
-      <c r="M71" s="99">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="99">
-        <v>6000</v>
-      </c>
-      <c r="O71" s="101">
-        <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="P71" s="102">
+      <c r="A71" s="152"/>
+      <c r="B71" s="141"/>
+      <c r="C71" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="109"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="109"/>
+      <c r="I71" s="109"/>
+      <c r="J71" s="109"/>
+      <c r="K71" s="110"/>
+      <c r="L71" s="109"/>
+      <c r="M71" s="109"/>
+      <c r="N71" s="109"/>
+      <c r="O71" s="111"/>
+      <c r="P71" s="112">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q71" s="101"/>
-      <c r="R71" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="111"/>
+      <c r="R71" s="118" t="s">
         <v>206</v>
       </c>
       <c r="S71"/>
       <c r="T71"/>
     </row>
-    <row r="72" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="149"/>
-      <c r="B72" s="139"/>
-      <c r="C72" s="104" t="s">
-        <v>225</v>
-      </c>
-      <c r="D72" s="104"/>
-      <c r="E72" s="104"/>
-      <c r="F72" s="104"/>
-      <c r="G72" s="104">
-        <v>1</v>
-      </c>
-      <c r="H72" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="I72" s="104"/>
-      <c r="J72" s="104"/>
-      <c r="K72" s="105">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="104"/>
-      <c r="M72" s="104">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N72" s="104">
-        <v>1500</v>
-      </c>
-      <c r="O72" s="101">
-        <f t="shared" si="4"/>
-        <v>1500</v>
-      </c>
-      <c r="P72" s="107">
+    <row r="72" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="152"/>
+      <c r="B72" s="141"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="109"/>
+      <c r="F72" s="109"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="109"/>
+      <c r="J72" s="109"/>
+      <c r="K72" s="110"/>
+      <c r="L72" s="109"/>
+      <c r="M72" s="109"/>
+      <c r="N72" s="109"/>
+      <c r="O72" s="111"/>
+      <c r="P72" s="112">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q72" s="106"/>
-      <c r="R72" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="111"/>
+      <c r="R72" s="118" t="s">
         <v>206</v>
       </c>
       <c r="S72"/>
       <c r="T72"/>
     </row>
     <row r="73" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="151" t="s">
-        <v>219</v>
-      </c>
-      <c r="B73" s="154" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="113" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
-      <c r="F73" s="113"/>
-      <c r="G73" s="113"/>
-      <c r="H73" s="113" t="s">
-        <v>49</v>
-      </c>
-      <c r="I73" s="113"/>
-      <c r="J73" s="113"/>
-      <c r="K73" s="114"/>
-      <c r="L73" s="113"/>
-      <c r="M73" s="113"/>
-      <c r="N73" s="113"/>
-      <c r="O73" s="115"/>
-      <c r="P73" s="116">
+      <c r="A73" s="152"/>
+      <c r="B73" s="141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="109" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" s="109"/>
+      <c r="E73" s="109"/>
+      <c r="F73" s="109"/>
+      <c r="G73" s="109"/>
+      <c r="H73" s="109"/>
+      <c r="I73" s="109"/>
+      <c r="J73" s="109"/>
+      <c r="K73" s="110"/>
+      <c r="L73" s="109"/>
+      <c r="M73" s="109"/>
+      <c r="N73" s="109">
+        <v>1000</v>
+      </c>
+      <c r="O73" s="111"/>
+      <c r="P73" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q73" s="115"/>
-      <c r="R73" s="117" t="s">
+      <c r="Q73" s="111"/>
+      <c r="R73" s="118" t="s">
         <v>206</v>
       </c>
       <c r="S73"/>
@@ -8476,21 +8529,25 @@
       <c r="A74" s="152"/>
       <c r="B74" s="141"/>
       <c r="C74" s="109" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D74" s="109"/>
       <c r="E74" s="109"/>
       <c r="F74" s="109"/>
-      <c r="G74" s="109"/>
+      <c r="G74" s="109">
+        <v>1</v>
+      </c>
       <c r="H74" s="109" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I74" s="109"/>
       <c r="J74" s="109"/>
       <c r="K74" s="110"/>
       <c r="L74" s="109"/>
       <c r="M74" s="109"/>
-      <c r="N74" s="109"/>
+      <c r="N74" s="109">
+        <v>6000</v>
+      </c>
       <c r="O74" s="111"/>
       <c r="P74" s="112">
         <f t="shared" si="3"/>
@@ -8503,239 +8560,112 @@
       <c r="S74"/>
       <c r="T74"/>
     </row>
-    <row r="75" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="152"/>
-      <c r="B75" s="141"/>
-      <c r="C75" s="109" t="s">
-        <v>215</v>
-      </c>
-      <c r="D75" s="109"/>
-      <c r="E75" s="109"/>
-      <c r="F75" s="109"/>
-      <c r="G75" s="109"/>
-      <c r="H75" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I75" s="109"/>
-      <c r="J75" s="109"/>
-      <c r="K75" s="110"/>
-      <c r="L75" s="109"/>
-      <c r="M75" s="109"/>
-      <c r="N75" s="109"/>
-      <c r="O75" s="111"/>
-      <c r="P75" s="112">
+    <row r="75" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="153"/>
+      <c r="B75" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="119" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" s="119"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="119"/>
+      <c r="G75" s="119"/>
+      <c r="H75" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" s="119"/>
+      <c r="J75" s="119"/>
+      <c r="K75" s="120"/>
+      <c r="L75" s="119"/>
+      <c r="M75" s="119"/>
+      <c r="N75" s="119">
+        <v>8000</v>
+      </c>
+      <c r="O75" s="121"/>
+      <c r="P75" s="122">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q75" s="111"/>
-      <c r="R75" s="118" t="s">
+      <c r="Q75" s="121"/>
+      <c r="R75" s="123" t="s">
         <v>206</v>
       </c>
       <c r="S75"/>
       <c r="T75"/>
     </row>
-    <row r="76" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="152"/>
-      <c r="B76" s="141"/>
-      <c r="C76" s="109"/>
-      <c r="D76" s="109"/>
-      <c r="E76" s="109"/>
-      <c r="F76" s="109"/>
-      <c r="G76" s="109"/>
-      <c r="H76" s="109"/>
-      <c r="I76" s="109"/>
-      <c r="J76" s="109"/>
-      <c r="K76" s="110"/>
-      <c r="L76" s="109"/>
-      <c r="M76" s="109"/>
-      <c r="N76" s="109"/>
-      <c r="O76" s="111"/>
-      <c r="P76" s="112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q76" s="111"/>
-      <c r="R76" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="S76"/>
-      <c r="T76"/>
-    </row>
-    <row r="77" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="152"/>
-      <c r="B77" s="141" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="109" t="s">
-        <v>216</v>
-      </c>
-      <c r="D77" s="109"/>
-      <c r="E77" s="109"/>
-      <c r="F77" s="109"/>
-      <c r="G77" s="109"/>
-      <c r="H77" s="109"/>
-      <c r="I77" s="109"/>
-      <c r="J77" s="109"/>
-      <c r="K77" s="110"/>
-      <c r="L77" s="109"/>
-      <c r="M77" s="109"/>
-      <c r="N77" s="109">
-        <v>1000</v>
-      </c>
-      <c r="O77" s="111"/>
-      <c r="P77" s="112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q77" s="111"/>
-      <c r="R77" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="S77"/>
-      <c r="T77"/>
-    </row>
-    <row r="78" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="152"/>
-      <c r="B78" s="141"/>
-      <c r="C78" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="D78" s="109"/>
-      <c r="E78" s="109"/>
-      <c r="F78" s="109"/>
-      <c r="G78" s="109">
-        <v>1</v>
-      </c>
-      <c r="H78" s="109" t="s">
-        <v>35</v>
-      </c>
-      <c r="I78" s="109"/>
-      <c r="J78" s="109"/>
-      <c r="K78" s="110"/>
-      <c r="L78" s="109"/>
-      <c r="M78" s="109"/>
-      <c r="N78" s="109">
-        <v>6000</v>
-      </c>
-      <c r="O78" s="111"/>
-      <c r="P78" s="112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q78" s="111"/>
-      <c r="R78" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="S78"/>
-      <c r="T78"/>
-    </row>
-    <row r="79" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="153"/>
-      <c r="B79" s="119" t="s">
-        <v>173</v>
-      </c>
-      <c r="C79" s="119" t="s">
-        <v>236</v>
-      </c>
-      <c r="D79" s="119"/>
-      <c r="E79" s="119"/>
-      <c r="F79" s="119"/>
-      <c r="G79" s="119"/>
-      <c r="H79" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="I79" s="119"/>
-      <c r="J79" s="119"/>
-      <c r="K79" s="120"/>
-      <c r="L79" s="119"/>
-      <c r="M79" s="119"/>
-      <c r="N79" s="119">
-        <v>8000</v>
-      </c>
-      <c r="O79" s="121"/>
-      <c r="P79" s="122">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q79" s="121"/>
-      <c r="R79" s="123" t="s">
-        <v>206</v>
-      </c>
-      <c r="S79"/>
-      <c r="T79"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="27"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="25"/>
-      <c r="R81" s="25"/>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="27"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="B73:B76"/>
+  <mergeCells count="26">
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:B72"/>
     <mergeCell ref="R1:AH1"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A28:A50"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A26:A47"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B26:B30"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A12:A25"/>
     <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="A56:A68"/>
+    <mergeCell ref="B56:B60"/>
     <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B33:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <conditionalFormatting sqref="P1:P1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
+        <color rgb="FFFFB628"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -8751,12 +8681,10 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{32387333-40EF-4BAA-BE50-F223D070A758}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>

--- a/九里A2-自己.xlsx
+++ b/九里A2-自己.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="预算" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="装修顺序" sheetId="3" r:id="rId5"/>
     <sheet name="室内分类" sheetId="2" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'预算 (2)'!$A$2:$AH$86</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="280">
   <si>
     <t>龙湖九里晴川家装预算表</t>
   </si>
@@ -542,9 +545,6 @@
     <t>天然气公司</t>
   </si>
   <si>
-    <t>封窗公司</t>
-  </si>
-  <si>
     <t>水电工</t>
   </si>
   <si>
@@ -554,18 +554,12 @@
     <t>木工</t>
   </si>
   <si>
-    <t>客厅吊顶，阳台吊顶</t>
-  </si>
-  <si>
     <t>水管包完改水电</t>
   </si>
   <si>
     <t>京东年货节活动，2/2/2018</t>
   </si>
   <si>
-    <t>水槽</t>
-  </si>
-  <si>
     <t>签厨柜合同当天，2/6/2018</t>
   </si>
   <si>
@@ -587,9 +581,6 @@
     <t>整体</t>
   </si>
   <si>
-    <t>地漏</t>
-  </si>
-  <si>
     <t>界面剂</t>
   </si>
   <si>
@@ -599,9 +590,6 @@
     <t>乐诚腻子</t>
   </si>
   <si>
-    <t>联邦吊顶</t>
-  </si>
-  <si>
     <t>记号笔</t>
   </si>
   <si>
@@ -623,12 +611,6 @@
     <t>张</t>
   </si>
   <si>
-    <t>客厅/卧室封窗</t>
-  </si>
-  <si>
-    <t>生活阳台封窗</t>
-  </si>
-  <si>
     <t>次</t>
   </si>
   <si>
@@ -645,12 +627,6 @@
   </si>
   <si>
     <t>厨房卫生间回填/打地平</t>
-  </si>
-  <si>
-    <t>阳台/卧室封窗 76断桥</t>
-  </si>
-  <si>
-    <t>生活阳台封窗 50断桥</t>
   </si>
   <si>
     <t>充电费</t>
@@ -704,9 +680,6 @@
     <t>自己收集</t>
   </si>
   <si>
-    <t>厨房吊柜</t>
-  </si>
-  <si>
     <t>柜体</t>
   </si>
   <si>
@@ -737,9 +710,6 @@
     <t>软装家具</t>
   </si>
   <si>
-    <t>石膏板，钉子，滚筒，木条，白乳胶，阳/阴角线，桑拿板</t>
-  </si>
-  <si>
     <t>冰箱</t>
   </si>
   <si>
@@ -788,9 +758,6 @@
     <t>马桶</t>
   </si>
   <si>
-    <t>天燃气灶</t>
-  </si>
-  <si>
     <t>钛合金推拉门-厨房/卫生间</t>
   </si>
   <si>
@@ -806,7 +773,151 @@
     <t>客厅吊顶完，2/25/2018，生产周期1个月</t>
   </si>
   <si>
-    <t>美心工艺门</t>
+    <t>敲墙开工后去订，</t>
+  </si>
+  <si>
+    <t>淘砖网（西门）</t>
+  </si>
+  <si>
+    <t>快贴完砖</t>
+  </si>
+  <si>
+    <t>京东（潜水艇）</t>
+  </si>
+  <si>
+    <t>厨卫贴砖时</t>
+  </si>
+  <si>
+    <t>红星美凯龙</t>
+  </si>
+  <si>
+    <t>李科群（微信）</t>
+  </si>
+  <si>
+    <t>美心.工艺门</t>
+  </si>
+  <si>
+    <t>敲墙开工后早订，施工要衔接搭的架子</t>
+  </si>
+  <si>
+    <t>杰地门窗</t>
+  </si>
+  <si>
+    <t>杰地门窗婷妹儿（微信）</t>
+  </si>
+  <si>
+    <t>师傅边施工边叫</t>
+  </si>
+  <si>
+    <t>物业附近，和物业合作商家</t>
+  </si>
+  <si>
+    <t>余军</t>
+  </si>
+  <si>
+    <t>开始做墙前</t>
+  </si>
+  <si>
+    <t>王姐</t>
+  </si>
+  <si>
+    <t>小区大门口</t>
+  </si>
+  <si>
+    <t>师傅买</t>
+  </si>
+  <si>
+    <t>小区旁边超市</t>
+  </si>
+  <si>
+    <t>石膏板，钉子，滚筒，木条，白乳胶，阳/阴角线，吊顶桑拿板</t>
+  </si>
+  <si>
+    <t>厨卫贴砖时，师傅指定时间去一次买完，主要先吊顶，然后刷墙</t>
+  </si>
+  <si>
+    <t>华阳南湖万家湾，兔宝宝</t>
+  </si>
+  <si>
+    <t>高建（七叔侄儿）</t>
+  </si>
+  <si>
+    <t>墙上开始打石膏</t>
+  </si>
+  <si>
+    <t>门槛石</t>
+  </si>
+  <si>
+    <t>客厅阳台地平</t>
+  </si>
+  <si>
+    <t>客厅吊顶</t>
+  </si>
+  <si>
+    <t>阳台吊顶</t>
+  </si>
+  <si>
+    <t>封窗红砖两个</t>
+  </si>
+  <si>
+    <t>打扫卫生</t>
+  </si>
+  <si>
+    <t>飘窗石（包安装）</t>
+  </si>
+  <si>
+    <t>窗台石（包安装）</t>
+  </si>
+  <si>
+    <t>阳台/卧室封窗 76断桥 （包安装）</t>
+  </si>
+  <si>
+    <t>生活阳台封窗 50断桥 （包安装）</t>
+  </si>
+  <si>
+    <t>墙面漆</t>
+  </si>
+  <si>
+    <t>腻子石膏运费加价</t>
+  </si>
+  <si>
+    <t>一次加运费30， 一次加价5*8</t>
+  </si>
+  <si>
+    <t>天燃气灶(能率)</t>
+  </si>
+  <si>
+    <t>抽油烟机+燃气灶(方太)</t>
+  </si>
+  <si>
+    <t>水槽(洁帝)</t>
+  </si>
+  <si>
+    <t>地漏(潜水艇)</t>
+  </si>
+  <si>
+    <t>联邦尚品道吊顶</t>
+  </si>
+  <si>
+    <t>五孔插座(施耐德)</t>
+  </si>
+  <si>
+    <t>带开关五孔插座</t>
+  </si>
+  <si>
+    <t>电气</t>
+  </si>
+  <si>
+    <t>给老板红包，背石头太远</t>
+  </si>
+  <si>
+    <t>美缝剂和工具</t>
+  </si>
+  <si>
+    <t>卫生间门锁</t>
+  </si>
+  <si>
+    <t>坑爹的写错，锁也没对</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1392,6 +1503,30 @@
     <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1407,63 +1542,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1474,9 +1552,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1491,6 +1566,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1500,6 +1578,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1516,12 +1597,93 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1836,28 +1998,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
+      <c r="A1" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
     </row>
     <row r="2" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1924,13 +2086,13 @@
     <row r="3" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="135">
+      <c r="D4" s="143">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1986,9 +2148,9 @@
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="6" t="s">
         <v>38</v>
       </c>
@@ -2042,9 +2204,9 @@
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
       <c r="E6" s="6" t="s">
         <v>39</v>
       </c>
@@ -2098,9 +2260,9 @@
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
       <c r="E7" s="6" t="s">
         <v>42</v>
       </c>
@@ -2154,11 +2316,11 @@
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="131" t="s">
+      <c r="B8" s="140"/>
+      <c r="C8" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="139">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2199,9 +2361,9 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
@@ -2240,9 +2402,9 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
@@ -2281,14 +2443,14 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="133" t="s">
+      <c r="B11" s="140"/>
+      <c r="C11" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="131">
+      <c r="D11" s="139">
         <v>3</v>
       </c>
-      <c r="E11" s="131" t="s">
+      <c r="E11" s="139" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2343,10 +2505,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
       <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
@@ -2393,10 +2555,10 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2441,10 +2603,10 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
       <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
@@ -2482,10 +2644,10 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
       <c r="F15" s="17" t="s">
         <v>45</v>
       </c>
@@ -2524,10 +2686,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
       <c r="F16" s="3" t="s">
         <v>46</v>
       </c>
@@ -2560,10 +2722,10 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
       <c r="F17" s="17" t="s">
         <v>82</v>
       </c>
@@ -2590,10 +2752,10 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
       <c r="F18" s="17" t="s">
         <v>83</v>
       </c>
@@ -2620,10 +2782,10 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131" t="s">
+      <c r="B19" s="140"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2661,10 +2823,10 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
       <c r="F20" s="5" t="s">
         <v>70</v>
       </c>
@@ -2698,10 +2860,10 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
       <c r="F21" s="3" t="s">
         <v>53</v>
       </c>
@@ -2737,10 +2899,10 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
       <c r="F22" s="3" t="s">
         <v>54</v>
       </c>
@@ -2776,10 +2938,10 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
       <c r="F23" s="3" t="s">
         <v>56</v>
       </c>
@@ -2813,10 +2975,10 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131" t="s">
+      <c r="B24" s="140"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -2851,10 +3013,10 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
       <c r="F25" s="19" t="s">
         <v>98</v>
       </c>
@@ -2887,10 +3049,10 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="3" t="s">
         <v>58</v>
       </c>
@@ -2926,10 +3088,10 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2963,10 +3125,10 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131" t="s">
+      <c r="B28" s="140"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="1"/>
@@ -3003,10 +3165,10 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
       <c r="F29" s="5"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -3034,10 +3196,10 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131" t="s">
+      <c r="B30" s="140"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139" t="s">
         <v>20</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -3075,10 +3237,10 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
       <c r="F31" s="5"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -3101,11 +3263,11 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="131" t="s">
+      <c r="B32" s="140"/>
+      <c r="C32" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="131">
+      <c r="D32" s="139">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3135,9 +3297,9 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="1" t="s">
         <v>18</v>
       </c>
@@ -3163,9 +3325,9 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="132"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="131"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
       <c r="E34" s="1" t="s">
         <v>19</v>
       </c>
@@ -3191,9 +3353,9 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
-      <c r="B35" s="132"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
+      <c r="B35" s="140"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
       <c r="E35" s="19" t="s">
         <v>57</v>
       </c>
@@ -3214,9 +3376,9 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
+      <c r="B36" s="140"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
       <c r="E36" s="1" t="s">
         <v>20</v>
       </c>
@@ -3246,14 +3408,14 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="131" t="s">
+      <c r="B37" s="140"/>
+      <c r="C37" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="131">
-        <v>1</v>
-      </c>
-      <c r="E37" s="131" t="s">
+      <c r="D37" s="139">
+        <v>1</v>
+      </c>
+      <c r="E37" s="139" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -3280,10 +3442,10 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
-      <c r="B38" s="132"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
       <c r="F38" s="3" t="s">
         <v>50</v>
       </c>
@@ -3301,10 +3463,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="132"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
+      <c r="B39" s="140"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
       <c r="F39" s="3" t="s">
         <v>51</v>
       </c>
@@ -3329,9 +3491,9 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="132"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
       <c r="E40" s="1" t="s">
         <v>18</v>
       </c>
@@ -3359,9 +3521,9 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="132"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
       <c r="E41" s="5" t="s">
         <v>75</v>
       </c>
@@ -3389,10 +3551,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131" t="s">
+      <c r="B42" s="140"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -3421,10 +3583,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
-      <c r="B43" s="132"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="139"/>
       <c r="F43" s="19" t="s">
         <v>112</v>
       </c>
@@ -3442,10 +3604,10 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
-      <c r="B44" s="132"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="131"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
       <c r="F44" s="19" t="s">
         <v>113</v>
       </c>
@@ -3463,10 +3625,10 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
       <c r="F45" s="3" t="s">
         <v>43</v>
       </c>
@@ -3495,11 +3657,11 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="132"/>
-      <c r="C46" s="131" t="s">
+      <c r="B46" s="140"/>
+      <c r="C46" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="131">
+      <c r="D46" s="139">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3527,9 +3689,9 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="132"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
       <c r="E47" s="1" t="s">
         <v>18</v>
       </c>
@@ -3555,9 +3717,9 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
       <c r="E48" s="1" t="s">
         <v>19</v>
       </c>
@@ -3583,9 +3745,9 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="132"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="139"/>
       <c r="E49" s="1" t="s">
         <v>20</v>
       </c>
@@ -3611,11 +3773,11 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="131" t="s">
+      <c r="B50" s="140"/>
+      <c r="C50" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="131">
+      <c r="D50" s="139">
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3643,9 +3805,9 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="132"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
+      <c r="B51" s="140"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
       <c r="E51" s="1" t="s">
         <v>18</v>
       </c>
@@ -3671,9 +3833,9 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="132"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="139"/>
       <c r="E52" s="1" t="s">
         <v>19</v>
       </c>
@@ -3701,10 +3863,10 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="132"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131" t="s">
+      <c r="B53" s="140"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="139" t="s">
         <v>20</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -3731,10 +3893,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="132"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
       <c r="F54" s="5" t="s">
         <v>76</v>
       </c>
@@ -3759,11 +3921,11 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="132"/>
-      <c r="C55" s="131" t="s">
+      <c r="B55" s="140"/>
+      <c r="C55" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="131">
+      <c r="D55" s="139">
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -3791,9 +3953,9 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="132"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="131"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="139"/>
       <c r="E56" s="1" t="s">
         <v>18</v>
       </c>
@@ -3819,9 +3981,9 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="132"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="139"/>
       <c r="E57" s="1" t="s">
         <v>19</v>
       </c>
@@ -3847,9 +4009,9 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="132"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="139"/>
       <c r="E58" s="1" t="s">
         <v>20</v>
       </c>
@@ -3877,11 +4039,11 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="132"/>
-      <c r="C59" s="131" t="s">
+      <c r="B59" s="140"/>
+      <c r="C59" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="131">
+      <c r="D59" s="139">
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -3909,9 +4071,9 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="132"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="139"/>
       <c r="E60" s="1" t="s">
         <v>18</v>
       </c>
@@ -3937,9 +4099,9 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="132"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="139"/>
       <c r="E61" s="1" t="s">
         <v>19</v>
       </c>
@@ -3967,9 +4129,9 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="132"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="131"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
       <c r="E62" s="1" t="s">
         <v>20</v>
       </c>
@@ -3997,11 +4159,11 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
-      <c r="B63" s="132"/>
-      <c r="C63" s="131" t="s">
+      <c r="B63" s="140"/>
+      <c r="C63" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="131">
+      <c r="D63" s="139">
         <v>1</v>
       </c>
       <c r="E63" s="17" t="s">
@@ -4029,9 +4191,9 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
-      <c r="B64" s="132"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="131"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="139"/>
       <c r="E64" s="17" t="s">
         <v>18</v>
       </c>
@@ -4057,9 +4219,9 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
-      <c r="B65" s="132"/>
-      <c r="C65" s="131"/>
-      <c r="D65" s="131"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="139"/>
       <c r="E65" s="17" t="s">
         <v>75</v>
       </c>
@@ -4085,10 +4247,10 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
-      <c r="B66" s="132"/>
-      <c r="C66" s="131"/>
-      <c r="D66" s="131"/>
-      <c r="E66" s="131" t="s">
+      <c r="B66" s="140"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="139"/>
+      <c r="E66" s="139" t="s">
         <v>20</v>
       </c>
       <c r="F66" s="19" t="s">
@@ -4108,10 +4270,10 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
-      <c r="B67" s="132"/>
-      <c r="C67" s="131"/>
-      <c r="D67" s="131"/>
-      <c r="E67" s="131"/>
+      <c r="B67" s="140"/>
+      <c r="C67" s="139"/>
+      <c r="D67" s="139"/>
+      <c r="E67" s="139"/>
       <c r="F67" s="17" t="s">
         <v>118</v>
       </c>
@@ -4158,13 +4320,13 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="132" t="s">
+      <c r="B69" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="133" t="s">
+      <c r="C69" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="D69" s="131">
+      <c r="D69" s="139">
         <v>3</v>
       </c>
       <c r="E69" s="1"/>
@@ -4190,9 +4352,9 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="132"/>
-      <c r="C70" s="131"/>
-      <c r="D70" s="131"/>
+      <c r="B70" s="140"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="139"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="17"/>
@@ -4216,9 +4378,9 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="132"/>
-      <c r="C71" s="131"/>
-      <c r="D71" s="131"/>
+      <c r="B71" s="140"/>
+      <c r="C71" s="139"/>
+      <c r="D71" s="139"/>
       <c r="E71" s="1" t="s">
         <v>19</v>
       </c>
@@ -4246,10 +4408,10 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
-      <c r="B72" s="132"/>
-      <c r="C72" s="131"/>
-      <c r="D72" s="131"/>
-      <c r="E72" s="131" t="s">
+      <c r="B72" s="140"/>
+      <c r="C72" s="139"/>
+      <c r="D72" s="139"/>
+      <c r="E72" s="139" t="s">
         <v>20</v>
       </c>
       <c r="F72" s="19" t="s">
@@ -4269,10 +4431,10 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
-      <c r="B73" s="132"/>
-      <c r="C73" s="131"/>
-      <c r="D73" s="131"/>
-      <c r="E73" s="131"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="139"/>
+      <c r="D73" s="139"/>
+      <c r="E73" s="139"/>
       <c r="F73" s="19" t="s">
         <v>103</v>
       </c>
@@ -4290,10 +4452,10 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="132"/>
-      <c r="C74" s="131"/>
-      <c r="D74" s="131"/>
-      <c r="E74" s="131"/>
+      <c r="B74" s="140"/>
+      <c r="C74" s="139"/>
+      <c r="D74" s="139"/>
+      <c r="E74" s="139"/>
       <c r="F74" s="1" t="s">
         <v>101</v>
       </c>
@@ -4318,11 +4480,11 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="132"/>
-      <c r="C75" s="131" t="s">
+      <c r="B75" s="140"/>
+      <c r="C75" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="131">
+      <c r="D75" s="139">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -4350,9 +4512,9 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="132"/>
-      <c r="C76" s="131"/>
-      <c r="D76" s="131"/>
+      <c r="B76" s="140"/>
+      <c r="C76" s="139"/>
+      <c r="D76" s="139"/>
       <c r="E76" s="1" t="s">
         <v>18</v>
       </c>
@@ -4378,10 +4540,10 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
-      <c r="B77" s="132"/>
-      <c r="C77" s="131"/>
-      <c r="D77" s="131"/>
-      <c r="E77" s="131" t="s">
+      <c r="B77" s="140"/>
+      <c r="C77" s="139"/>
+      <c r="D77" s="139"/>
+      <c r="E77" s="139" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="19" t="s">
@@ -4401,10 +4563,10 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="132"/>
-      <c r="C78" s="131"/>
-      <c r="D78" s="131"/>
-      <c r="E78" s="131"/>
+      <c r="B78" s="140"/>
+      <c r="C78" s="139"/>
+      <c r="D78" s="139"/>
+      <c r="E78" s="139"/>
       <c r="F78" s="1" t="s">
         <v>104</v>
       </c>
@@ -4429,10 +4591,10 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
-      <c r="B79" s="132"/>
-      <c r="C79" s="131"/>
-      <c r="D79" s="131"/>
-      <c r="E79" s="131" t="s">
+      <c r="B79" s="140"/>
+      <c r="C79" s="139"/>
+      <c r="D79" s="139"/>
+      <c r="E79" s="139" t="s">
         <v>20</v>
       </c>
       <c r="F79" s="19" t="s">
@@ -4452,10 +4614,10 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="132"/>
-      <c r="C80" s="131"/>
-      <c r="D80" s="131"/>
-      <c r="E80" s="131"/>
+      <c r="B80" s="140"/>
+      <c r="C80" s="139"/>
+      <c r="D80" s="139"/>
+      <c r="E80" s="139"/>
       <c r="F80" s="1" t="s">
         <v>107</v>
       </c>
@@ -4480,11 +4642,11 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="132"/>
-      <c r="C81" s="131" t="s">
+      <c r="B81" s="140"/>
+      <c r="C81" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="131">
+      <c r="D81" s="139">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -4512,9 +4674,9 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="132"/>
-      <c r="C82" s="131"/>
-      <c r="D82" s="131"/>
+      <c r="B82" s="140"/>
+      <c r="C82" s="139"/>
+      <c r="D82" s="139"/>
       <c r="E82" s="1" t="s">
         <v>18</v>
       </c>
@@ -4540,10 +4702,10 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="132"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131" t="s">
+      <c r="B83" s="140"/>
+      <c r="C83" s="139"/>
+      <c r="D83" s="139"/>
+      <c r="E83" s="139" t="s">
         <v>19</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -4570,10 +4732,10 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
-      <c r="B84" s="132"/>
-      <c r="C84" s="131"/>
-      <c r="D84" s="131"/>
-      <c r="E84" s="131"/>
+      <c r="B84" s="140"/>
+      <c r="C84" s="139"/>
+      <c r="D84" s="139"/>
+      <c r="E84" s="139"/>
       <c r="F84" s="19" t="s">
         <v>110</v>
       </c>
@@ -4591,10 +4753,10 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
-      <c r="B85" s="132"/>
-      <c r="C85" s="131"/>
-      <c r="D85" s="131"/>
-      <c r="E85" s="131"/>
+      <c r="B85" s="140"/>
+      <c r="C85" s="139"/>
+      <c r="D85" s="139"/>
+      <c r="E85" s="139"/>
       <c r="F85" s="19" t="s">
         <v>109</v>
       </c>
@@ -4612,9 +4774,9 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="132"/>
-      <c r="C86" s="131"/>
-      <c r="D86" s="131"/>
+      <c r="B86" s="140"/>
+      <c r="C86" s="139"/>
+      <c r="D86" s="139"/>
       <c r="E86" s="1" t="s">
         <v>20</v>
       </c>
@@ -4642,11 +4804,11 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="132"/>
-      <c r="C87" s="131" t="s">
+      <c r="B87" s="140"/>
+      <c r="C87" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="131">
+      <c r="D87" s="139">
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -4674,9 +4836,9 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="132"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="131"/>
+      <c r="B88" s="140"/>
+      <c r="C88" s="139"/>
+      <c r="D88" s="139"/>
       <c r="E88" s="1" t="s">
         <v>18</v>
       </c>
@@ -4702,9 +4864,9 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="132"/>
-      <c r="C89" s="131"/>
-      <c r="D89" s="131"/>
+      <c r="B89" s="140"/>
+      <c r="C89" s="139"/>
+      <c r="D89" s="139"/>
       <c r="E89" s="1" t="s">
         <v>19</v>
       </c>
@@ -4730,9 +4892,9 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="132"/>
-      <c r="C90" s="131"/>
-      <c r="D90" s="131"/>
+      <c r="B90" s="140"/>
+      <c r="C90" s="139"/>
+      <c r="D90" s="139"/>
       <c r="E90" s="1" t="s">
         <v>20</v>
       </c>
@@ -4760,11 +4922,11 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="132"/>
-      <c r="C91" s="131" t="s">
+      <c r="B91" s="140"/>
+      <c r="C91" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="131">
+      <c r="D91" s="139">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -4792,9 +4954,9 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="132"/>
-      <c r="C92" s="131"/>
-      <c r="D92" s="131"/>
+      <c r="B92" s="140"/>
+      <c r="C92" s="139"/>
+      <c r="D92" s="139"/>
       <c r="E92" s="1" t="s">
         <v>18</v>
       </c>
@@ -4820,9 +4982,9 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="132"/>
-      <c r="C93" s="131"/>
-      <c r="D93" s="131"/>
+      <c r="B93" s="140"/>
+      <c r="C93" s="139"/>
+      <c r="D93" s="139"/>
       <c r="E93" s="1" t="s">
         <v>19</v>
       </c>
@@ -4848,9 +5010,9 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="132"/>
-      <c r="C94" s="131"/>
-      <c r="D94" s="131"/>
+      <c r="B94" s="140"/>
+      <c r="C94" s="139"/>
+      <c r="D94" s="139"/>
       <c r="E94" s="1" t="s">
         <v>20</v>
       </c>
@@ -4876,11 +5038,11 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="132"/>
-      <c r="C95" s="131" t="s">
+      <c r="B95" s="140"/>
+      <c r="C95" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="D95" s="131">
+      <c r="D95" s="139">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -4908,9 +5070,9 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="132"/>
-      <c r="C96" s="131"/>
-      <c r="D96" s="131"/>
+      <c r="B96" s="140"/>
+      <c r="C96" s="139"/>
+      <c r="D96" s="139"/>
       <c r="E96" s="1" t="s">
         <v>18</v>
       </c>
@@ -4936,9 +5098,9 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="132"/>
-      <c r="C97" s="131"/>
-      <c r="D97" s="131"/>
+      <c r="B97" s="140"/>
+      <c r="C97" s="139"/>
+      <c r="D97" s="139"/>
       <c r="E97" s="1" t="s">
         <v>19</v>
       </c>
@@ -4964,9 +5126,9 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="132"/>
-      <c r="C98" s="131"/>
-      <c r="D98" s="131"/>
+      <c r="B98" s="140"/>
+      <c r="C98" s="139"/>
+      <c r="D98" s="139"/>
       <c r="E98" s="1" t="s">
         <v>20</v>
       </c>
@@ -4992,11 +5154,11 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="132"/>
-      <c r="C99" s="131" t="s">
+      <c r="B99" s="140"/>
+      <c r="C99" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="131">
+      <c r="D99" s="139">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -5024,9 +5186,9 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="132"/>
-      <c r="C100" s="131"/>
-      <c r="D100" s="131"/>
+      <c r="B100" s="140"/>
+      <c r="C100" s="139"/>
+      <c r="D100" s="139"/>
       <c r="E100" s="1" t="s">
         <v>18</v>
       </c>
@@ -5052,9 +5214,9 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="132"/>
-      <c r="C101" s="131"/>
-      <c r="D101" s="131"/>
+      <c r="B101" s="140"/>
+      <c r="C101" s="139"/>
+      <c r="D101" s="139"/>
       <c r="E101" s="1" t="s">
         <v>19</v>
       </c>
@@ -5080,9 +5242,9 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="132"/>
-      <c r="C102" s="131"/>
-      <c r="D102" s="131"/>
+      <c r="B102" s="140"/>
+      <c r="C102" s="139"/>
+      <c r="D102" s="139"/>
       <c r="E102" s="1" t="s">
         <v>20</v>
       </c>
@@ -5108,20 +5270,26 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="B4:B67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D11:D31"/>
-    <mergeCell ref="C11:C31"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="B69:B102"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="C81:C86"/>
+    <mergeCell ref="D81:D86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="D99:D102"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="C4:C7"/>
@@ -5138,26 +5306,20 @@
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="C37:C45"/>
-    <mergeCell ref="B69:B102"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="D81:D86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="B4:B67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D11:D31"/>
+    <mergeCell ref="C11:C31"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="E37:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5166,11 +5328,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH77"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5178,9 +5340,9 @@
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="67.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
@@ -5196,42 +5358,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134"/>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-    </row>
-    <row r="2" spans="1:34" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="142"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="142"/>
+      <c r="AH1" s="142"/>
+    </row>
+    <row r="2" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -5284,20 +5446,20 @@
         <v>65</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P3" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="155" t="s">
-        <v>207</v>
+      <c r="B4" s="144" t="s">
+        <v>198</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>37</v>
@@ -5320,14 +5482,14 @@
         <v>1</v>
       </c>
       <c r="K4" s="39">
-        <f t="shared" ref="K4:K54" si="0">I4*J4</f>
+        <f t="shared" ref="K4:K62" si="0">I4*J4</f>
         <v>11182.26</v>
       </c>
       <c r="L4" s="39">
         <v>0</v>
       </c>
       <c r="M4" s="40">
-        <f t="shared" ref="M4:M54" si="1">K4*G4</f>
+        <f t="shared" ref="M4:M62" si="1">K4*G4</f>
         <v>11182.26</v>
       </c>
       <c r="N4" s="40">
@@ -5343,19 +5505,19 @@
       </c>
       <c r="Q4" s="41"/>
       <c r="R4" s="43" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>78</v>
       </c>
       <c r="T4" s="15">
-        <f>SUM(M4:M77)</f>
-        <v>72766.452799999999</v>
+        <f>SUM(M4:M88)</f>
+        <v>89589.002800000017</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="172"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="145"/>
       <c r="C5" s="34" t="s">
         <v>38</v>
       </c>
@@ -5391,28 +5553,28 @@
         <v>2000</v>
       </c>
       <c r="O5" s="36">
-        <f t="shared" ref="O5:O47" si="2">N5-M5</f>
+        <f t="shared" ref="O5:O52" si="2">N5-M5</f>
         <v>-497</v>
       </c>
       <c r="P5" s="37">
-        <f t="shared" ref="P5:P75" si="3">IFERROR(ABS(O5/N5), 0)</f>
+        <f t="shared" ref="P5:P86" si="3">IFERROR(ABS(O5/N5), 0)</f>
         <v>0.2485</v>
       </c>
       <c r="Q5" s="36"/>
       <c r="R5" s="44" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>79</v>
       </c>
       <c r="T5" s="11">
-        <f>SUM(N4:N77)</f>
-        <v>163355</v>
+        <f>SUM(N4:N88)</f>
+        <v>179085</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="172"/>
-      <c r="B6" s="156"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="34" t="s">
         <v>39</v>
       </c>
@@ -5457,19 +5619,19 @@
       </c>
       <c r="Q6" s="36"/>
       <c r="R6" s="44" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>67</v>
       </c>
       <c r="T6" s="13">
         <f>T5-T4</f>
-        <v>90588.547200000001</v>
+        <v>89495.997199999983</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="172"/>
-      <c r="B7" s="156"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="145"/>
       <c r="C7" s="34" t="s">
         <v>42</v>
       </c>
@@ -5514,19 +5676,19 @@
       </c>
       <c r="Q7" s="36"/>
       <c r="R7" s="44" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>66</v>
       </c>
       <c r="T7" s="16">
         <f>T6/T5</f>
-        <v>0.55455019558629981</v>
+        <v>0.49974033112767668</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="156"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="145"/>
       <c r="C8" s="34" t="s">
         <v>141</v>
       </c>
@@ -5571,17 +5733,17 @@
       </c>
       <c r="Q8" s="36"/>
       <c r="R8" s="44" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="16"/>
     </row>
     <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="164" t="s">
+      <c r="A9" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="157" t="s">
-        <v>208</v>
+      <c r="B9" s="146" t="s">
+        <v>199</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>23</v>
@@ -5627,12 +5789,12 @@
       </c>
       <c r="Q9" s="36"/>
       <c r="R9" s="44" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="164"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>24</v>
       </c>
@@ -5676,12 +5838,12 @@
       </c>
       <c r="Q10" s="36"/>
       <c r="R10" s="44" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="165"/>
-      <c r="B11" s="158"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="45" t="s">
         <v>25</v>
       </c>
@@ -5725,11 +5887,11 @@
       </c>
       <c r="Q11" s="47"/>
       <c r="R11" s="49" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="168" t="s">
+      <c r="A12" s="158" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="56" t="s">
@@ -5779,19 +5941,19 @@
       </c>
       <c r="Q12" s="59"/>
       <c r="R12" s="61" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="169"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="51" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="52"/>
       <c r="F13" s="52"/>
@@ -5831,11 +5993,11 @@
       </c>
       <c r="Q13" s="53"/>
       <c r="R13" s="62" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="169"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="50" t="s">
         <v>151</v>
       </c>
@@ -5851,7 +6013,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I14" s="52">
         <v>150</v>
@@ -5883,16 +6045,16 @@
       </c>
       <c r="Q14" s="53"/>
       <c r="R14" s="62" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="169"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="51" t="s">
-        <v>193</v>
+      <c r="C15" s="132" t="s">
+        <v>256</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -5904,364 +6066,364 @@
         <v>35</v>
       </c>
       <c r="I15" s="52">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="J15" s="52">
         <v>1</v>
       </c>
       <c r="K15" s="52">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L15" s="52">
         <v>0</v>
       </c>
-      <c r="M15" s="51">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="N15" s="51">
-        <v>300</v>
-      </c>
-      <c r="O15" s="53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="M15" s="132">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="N15" s="132">
+        <v>80</v>
+      </c>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
       <c r="Q15" s="53"/>
-      <c r="R15" s="62" t="s">
-        <v>206</v>
-      </c>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="169"/>
+      <c r="A16" s="159"/>
       <c r="B16" s="50" t="s">
         <v>151</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
+      <c r="G16" s="52">
+        <v>1</v>
+      </c>
       <c r="H16" s="52" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I16" s="52">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="J16" s="52">
         <v>1</v>
       </c>
       <c r="K16" s="52">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="L16" s="52">
         <v>0</v>
       </c>
       <c r="M16" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N16" s="51">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="O16" s="53">
         <f t="shared" si="2"/>
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="P16" s="54">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="55" t="s">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="53"/>
       <c r="R16" s="62" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="169"/>
+      <c r="A17" s="159"/>
       <c r="B17" s="50" t="s">
         <v>151</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="52"/>
       <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="52">
+        <v>56</v>
+      </c>
       <c r="H17" s="52" t="s">
         <v>47</v>
       </c>
       <c r="I17" s="52">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J17" s="52">
         <v>1</v>
       </c>
       <c r="K17" s="52">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L17" s="52">
         <v>0</v>
       </c>
       <c r="M17" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2520</v>
       </c>
       <c r="N17" s="51">
-        <v>6250</v>
+        <v>2700</v>
       </c>
       <c r="O17" s="53">
         <f t="shared" si="2"/>
-        <v>6250</v>
+        <v>180</v>
       </c>
       <c r="P17" s="54">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="53"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Q17" s="55" t="s">
+        <v>195</v>
+      </c>
       <c r="R17" s="62" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="169"/>
+      <c r="A18" s="159"/>
       <c r="B18" s="50" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="D18" s="52"/>
       <c r="E18" s="52"/>
       <c r="F18" s="52"/>
       <c r="G18" s="52">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="H18" s="52" t="s">
         <v>47</v>
       </c>
       <c r="I18" s="52">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J18" s="52">
         <v>1</v>
       </c>
       <c r="K18" s="52">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L18" s="52">
         <v>0</v>
       </c>
       <c r="M18" s="51">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="N18" s="51">
-        <v>1000</v>
+        <v>6250</v>
       </c>
       <c r="O18" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P18" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Q18" s="53"/>
       <c r="R18" s="62" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="169"/>
-      <c r="B19" s="159" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>163</v>
+      <c r="A19" s="159"/>
+      <c r="B19" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="132" t="s">
+        <v>255</v>
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="52"/>
       <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
+      <c r="G19" s="52">
+        <v>2</v>
+      </c>
       <c r="H19" s="52" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="I19" s="52">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="J19" s="52">
         <v>1</v>
       </c>
       <c r="K19" s="52">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="L19" s="52">
         <v>0</v>
       </c>
-      <c r="M19" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="51">
-        <v>1200</v>
+      <c r="M19" s="132">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="N19" s="132">
+        <v>60</v>
       </c>
       <c r="O19" s="53">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="P19" s="54">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="53"/>
-      <c r="R19" s="62" t="s">
-        <v>206</v>
-      </c>
+      <c r="R19" s="62"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="169"/>
-      <c r="B20" s="159"/>
+      <c r="A20" s="159"/>
+      <c r="B20" s="50" t="s">
+        <v>151</v>
+      </c>
       <c r="C20" s="51" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="52"/>
       <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
+      <c r="G20" s="52">
+        <v>40</v>
+      </c>
       <c r="H20" s="52" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="52">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="J20" s="52">
         <v>1</v>
       </c>
       <c r="K20" s="52">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="L20" s="52">
         <v>0</v>
       </c>
       <c r="M20" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N20" s="51">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="O20" s="53">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="P20" s="54">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="53"/>
       <c r="R20" s="62" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="169"/>
-      <c r="B21" s="159" t="s">
-        <v>159</v>
+      <c r="A21" s="159"/>
+      <c r="B21" s="157" t="s">
+        <v>161</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
       <c r="G21" s="52">
-        <v>18.22</v>
+        <v>7</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="I21" s="52">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J21" s="52">
         <v>1</v>
       </c>
       <c r="K21" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="52">
+        <v>120</v>
+      </c>
+      <c r="L21" s="137">
         <v>0</v>
       </c>
       <c r="M21" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="N21" s="51">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="O21" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="P21" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q21" s="53"/>
       <c r="R21" s="62" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="169"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="51" t="s">
-        <v>187</v>
+      <c r="A22" s="159"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="134" t="s">
+        <v>258</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
       <c r="F22" s="52"/>
       <c r="G22" s="52">
-        <v>7.45</v>
+        <v>1</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="I22" s="52">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J22" s="52">
         <v>1</v>
       </c>
       <c r="K22" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L22" s="52">
         <v>0</v>
       </c>
-      <c r="M22" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="51">
-        <v>0</v>
+      <c r="M22" s="134">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="N22" s="134">
+        <v>160</v>
       </c>
       <c r="O22" s="53">
         <f t="shared" si="2"/>
@@ -6272,17 +6434,13 @@
         <v>0</v>
       </c>
       <c r="Q22" s="53"/>
-      <c r="R22" s="62" t="s">
-        <v>206</v>
-      </c>
+      <c r="R22" s="62"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="50" t="s">
-        <v>158</v>
-      </c>
+      <c r="A23" s="159"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="51" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -6291,48 +6449,46 @@
         <v>1</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="I23" s="52">
-        <v>257.3</v>
+        <v>150</v>
       </c>
       <c r="J23" s="52">
         <v>1</v>
       </c>
       <c r="K23" s="52">
         <f t="shared" si="0"/>
-        <v>257.3</v>
+        <v>150</v>
       </c>
       <c r="L23" s="52">
         <v>0</v>
       </c>
       <c r="M23" s="51">
         <f t="shared" si="1"/>
-        <v>257.3</v>
+        <v>150</v>
       </c>
       <c r="N23" s="51">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="O23" s="53">
         <f t="shared" si="2"/>
-        <v>42.699999999999989</v>
+        <v>0</v>
       </c>
       <c r="P23" s="54">
         <f t="shared" si="3"/>
-        <v>0.14233333333333328</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="53"/>
       <c r="R23" s="62" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="159" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>181</v>
+      <c r="A24" s="159"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="134" t="s">
+        <v>260</v>
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
@@ -6341,310 +6497,308 @@
         <v>1</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I24" s="52">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="J24" s="52">
         <v>1</v>
       </c>
       <c r="K24" s="52">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="L24" s="52">
         <v>0</v>
       </c>
-      <c r="M24" s="51">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="N24" s="51">
-        <v>100</v>
+      <c r="M24" s="134">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="N24" s="134">
+        <v>350</v>
       </c>
       <c r="O24" s="53">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P24" s="54">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="62"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="159"/>
+      <c r="B25" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52">
+        <v>1</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="52">
+        <v>257.3</v>
+      </c>
+      <c r="J25" s="52">
+        <v>1</v>
+      </c>
+      <c r="K25" s="52">
+        <f t="shared" si="0"/>
+        <v>257.3</v>
+      </c>
+      <c r="L25" s="52">
+        <v>0</v>
+      </c>
+      <c r="M25" s="51">
+        <f t="shared" si="1"/>
+        <v>257.3</v>
+      </c>
+      <c r="N25" s="51">
+        <v>300</v>
+      </c>
+      <c r="O25" s="53">
+        <f t="shared" si="2"/>
+        <v>42.699999999999989</v>
+      </c>
+      <c r="P25" s="54">
+        <f t="shared" si="3"/>
+        <v>0.14233333333333328</v>
+      </c>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="159"/>
+      <c r="B26" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52">
+        <v>1</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="52">
+        <v>45</v>
+      </c>
+      <c r="J26" s="52">
+        <v>1</v>
+      </c>
+      <c r="K26" s="52">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="L26" s="52">
+        <v>0</v>
+      </c>
+      <c r="M26" s="51">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="N26" s="51">
+        <v>100</v>
+      </c>
+      <c r="O26" s="53">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="P26" s="54">
+        <f t="shared" si="3"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="62" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="170"/>
-      <c r="B25" s="167"/>
-      <c r="C25" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64">
-        <v>1</v>
-      </c>
-      <c r="H25" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="I25" s="64">
+      <c r="Q26" s="53"/>
+      <c r="R26" s="62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="160"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64">
+        <v>1</v>
+      </c>
+      <c r="H27" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27" s="64">
         <v>100</v>
       </c>
-      <c r="J25" s="64">
-        <v>1</v>
-      </c>
-      <c r="K25" s="64">
+      <c r="J27" s="64">
+        <v>1</v>
+      </c>
+      <c r="K27" s="64">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L25" s="64">
-        <v>0</v>
-      </c>
-      <c r="M25" s="63">
+      <c r="L27" s="64">
+        <v>0</v>
+      </c>
+      <c r="M27" s="63">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="N25" s="63">
+      <c r="N27" s="63">
         <v>200</v>
       </c>
-      <c r="O25" s="65">
+      <c r="O27" s="65">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="P25" s="66">
+      <c r="P27" s="66">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="67" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="160" t="s">
-        <v>218</v>
-      </c>
-      <c r="B26" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="73" t="s">
+      <c r="Q27" s="65"/>
+      <c r="R27" s="67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="148" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D28" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E28" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F28" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="73">
+      <c r="G28" s="73">
         <v>3</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H28" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="73">
+      <c r="I28" s="73">
         <v>1299</v>
       </c>
-      <c r="J26" s="73">
-        <v>1</v>
-      </c>
-      <c r="K26" s="74">
+      <c r="J28" s="73">
+        <v>1</v>
+      </c>
+      <c r="K28" s="74">
         <f t="shared" si="0"/>
         <v>1299</v>
       </c>
-      <c r="L26" s="73">
-        <v>0</v>
-      </c>
-      <c r="M26" s="73">
+      <c r="L28" s="73">
+        <v>0</v>
+      </c>
+      <c r="M28" s="73">
         <f t="shared" si="1"/>
         <v>3897</v>
       </c>
-      <c r="N26" s="73">
+      <c r="N28" s="73">
         <v>3000</v>
       </c>
-      <c r="O26" s="75">
+      <c r="O28" s="75">
         <f t="shared" si="2"/>
         <v>-897</v>
       </c>
-      <c r="P26" s="76">
+      <c r="P28" s="76">
         <f t="shared" si="3"/>
         <v>0.29899999999999999</v>
       </c>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="77" t="s">
-        <v>206</v>
-      </c>
-      <c r="S26" s="14" t="s">
+      <c r="Q28" s="75"/>
+      <c r="R28" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="S28" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="68" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="149"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D29" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68">
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68">
         <v>3</v>
       </c>
-      <c r="H27" s="68" t="s">
+      <c r="H29" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="68">
+      <c r="I29" s="68">
         <v>368</v>
       </c>
-      <c r="J27" s="68">
-        <v>1</v>
-      </c>
-      <c r="K27" s="69">
+      <c r="J29" s="68">
+        <v>1</v>
+      </c>
+      <c r="K29" s="69">
         <f t="shared" si="0"/>
         <v>368</v>
       </c>
-      <c r="L27" s="68">
-        <v>0</v>
-      </c>
-      <c r="M27" s="68">
+      <c r="L29" s="68">
+        <v>0</v>
+      </c>
+      <c r="M29" s="68">
         <f t="shared" si="1"/>
         <v>1104</v>
       </c>
-      <c r="N27" s="68">
+      <c r="N29" s="68">
         <v>1000</v>
       </c>
-      <c r="O27" s="70">
+      <c r="O29" s="70">
         <f t="shared" si="2"/>
         <v>-104</v>
       </c>
-      <c r="P27" s="71">
+      <c r="P29" s="71">
         <f t="shared" si="3"/>
         <v>0.104</v>
       </c>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68">
-        <v>1</v>
-      </c>
-      <c r="K28" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="68">
-        <v>520</v>
-      </c>
-      <c r="M28" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="68">
-        <v>15000</v>
-      </c>
-      <c r="O28" s="70">
-        <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-      <c r="P28" s="71">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="R28" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="S28" s="12"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="161"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68">
-        <v>1</v>
-      </c>
-      <c r="K29" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="68">
-        <v>0</v>
-      </c>
-      <c r="M29" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="68">
-        <v>1000</v>
-      </c>
-      <c r="O29" s="70">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="P29" s="71">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="Q29" s="70"/>
       <c r="R29" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="S29" s="9"/>
+        <v>197</v>
+      </c>
+      <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
-      <c r="B30" s="163"/>
+      <c r="A30" s="149"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="68"/>
+        <v>29</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>93</v>
+      </c>
       <c r="E30" s="68" t="s">
         <v>94</v>
       </c>
@@ -6653,7 +6807,7 @@
       </c>
       <c r="G30" s="68"/>
       <c r="H30" s="68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I30" s="68"/>
       <c r="J30" s="68">
@@ -6664,223 +6818,241 @@
         <v>0</v>
       </c>
       <c r="L30" s="68">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="M30" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N30" s="68">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="O30" s="70">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="P30" s="71">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q30" s="70"/>
+      <c r="Q30" s="70" t="s">
+        <v>202</v>
+      </c>
       <c r="R30" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="S30" s="9"/>
+        <v>197</v>
+      </c>
+      <c r="S30" s="12"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
-      <c r="B31" s="136" t="s">
-        <v>183</v>
-      </c>
+      <c r="A31" s="149"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="68" t="s">
-        <v>170</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D31" s="68"/>
       <c r="E31" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68">
-        <v>1</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="68"/>
       <c r="H31" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="68">
-        <v>7684</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I31" s="68"/>
       <c r="J31" s="68">
         <v>1</v>
       </c>
       <c r="K31" s="69">
         <f t="shared" si="0"/>
-        <v>7684</v>
+        <v>0</v>
       </c>
       <c r="L31" s="68">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M31" s="68">
         <f t="shared" si="1"/>
-        <v>7684</v>
+        <v>0</v>
       </c>
       <c r="N31" s="68">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="O31" s="70">
         <f t="shared" si="2"/>
-        <v>1316</v>
+        <v>1000</v>
       </c>
       <c r="P31" s="71">
         <f t="shared" si="3"/>
-        <v>0.14622222222222223</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="70"/>
       <c r="R31" s="78" t="s">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="S31" s="9"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="161"/>
-      <c r="B32" s="137"/>
+      <c r="A32" s="149"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="68" t="s">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68">
-        <v>1</v>
-      </c>
+      <c r="E32" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="68"/>
       <c r="H32" s="68" t="s">
         <v>49</v>
       </c>
       <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
+      <c r="J32" s="68">
+        <v>1</v>
+      </c>
+      <c r="K32" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="68">
+        <v>0</v>
+      </c>
+      <c r="M32" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N32" s="68">
-        <v>3000</v>
-      </c>
-      <c r="O32" s="70"/>
-      <c r="P32" s="71"/>
+        <v>200</v>
+      </c>
+      <c r="O32" s="70">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="P32" s="71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q32" s="70"/>
-      <c r="R32" s="78"/>
+      <c r="R32" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="S32" s="9"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="161"/>
-      <c r="B33" s="137"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="152" t="s">
+        <v>178</v>
+      </c>
       <c r="C33" s="68" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D33" s="68" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="F33" s="68"/>
       <c r="G33" s="68">
         <v>1</v>
       </c>
       <c r="H33" s="68" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I33" s="68">
-        <v>2419</v>
+        <v>7684</v>
       </c>
       <c r="J33" s="68">
         <v>1</v>
       </c>
       <c r="K33" s="69">
         <f t="shared" si="0"/>
-        <v>2419</v>
+        <v>7684</v>
       </c>
       <c r="L33" s="68">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M33" s="68">
         <f t="shared" si="1"/>
-        <v>2419</v>
+        <v>7684</v>
       </c>
       <c r="N33" s="68">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O33" s="70">
         <f t="shared" si="2"/>
-        <v>1581</v>
+        <v>1316</v>
       </c>
       <c r="P33" s="71">
         <f t="shared" si="3"/>
-        <v>0.39524999999999999</v>
+        <v>0.14622222222222223</v>
       </c>
       <c r="Q33" s="70"/>
       <c r="R33" s="78" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
-      <c r="B34" s="137"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" s="68" t="s">
-        <v>168</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
       <c r="F34" s="68"/>
       <c r="G34" s="68">
         <v>1</v>
       </c>
       <c r="H34" s="68" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I34" s="68">
-        <v>775.68</v>
+        <v>2577.3000000000002</v>
       </c>
       <c r="J34" s="68">
         <v>1</v>
       </c>
       <c r="K34" s="69">
         <f t="shared" si="0"/>
-        <v>775.68</v>
+        <v>2577.3000000000002</v>
       </c>
       <c r="L34" s="68">
         <v>0</v>
       </c>
       <c r="M34" s="68">
         <f t="shared" si="1"/>
-        <v>775.68</v>
+        <v>2577.3000000000002</v>
       </c>
       <c r="N34" s="68">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="O34" s="70">
         <f t="shared" si="2"/>
-        <v>24.32000000000005</v>
+        <v>422.69999999999982</v>
       </c>
       <c r="P34" s="71">
         <f t="shared" si="3"/>
-        <v>3.0400000000000062E-2</v>
+        <v>0.14089999999999994</v>
       </c>
       <c r="Q34" s="70"/>
-      <c r="R34" s="78" t="s">
-        <v>206</v>
-      </c>
+      <c r="R34" s="78"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="161"/>
-      <c r="B35" s="137"/>
+      <c r="A35" s="149"/>
+      <c r="B35" s="163"/>
       <c r="C35" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
+        <v>269</v>
+      </c>
+      <c r="D35" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="68" t="s">
+        <v>166</v>
+      </c>
       <c r="F35" s="68"/>
       <c r="G35" s="68">
         <v>1</v>
@@ -6889,47 +7061,50 @@
         <v>35</v>
       </c>
       <c r="I35" s="68">
-        <v>6180</v>
+        <v>2419</v>
       </c>
       <c r="J35" s="68">
         <v>1</v>
       </c>
       <c r="K35" s="69">
-        <v>6180</v>
+        <f t="shared" si="0"/>
+        <v>2419</v>
       </c>
       <c r="L35" s="68">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M35" s="68">
         <f t="shared" si="1"/>
-        <v>6180</v>
+        <v>2419</v>
       </c>
       <c r="N35" s="68">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O35" s="70">
         <f t="shared" si="2"/>
-        <v>1820</v>
+        <v>1581</v>
       </c>
       <c r="P35" s="71">
         <f t="shared" si="3"/>
-        <v>0.22750000000000001</v>
-      </c>
-      <c r="Q35" s="72" t="s">
-        <v>203</v>
-      </c>
+        <v>0.39524999999999999</v>
+      </c>
+      <c r="Q35" s="70"/>
       <c r="R35" s="78" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="161"/>
-      <c r="B36" s="137"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="163"/>
       <c r="C36" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
+        <v>270</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>165</v>
+      </c>
       <c r="F36" s="68"/>
       <c r="G36" s="68">
         <v>1</v>
@@ -6938,47 +7113,50 @@
         <v>35</v>
       </c>
       <c r="I36" s="68">
-        <v>208</v>
+        <v>775.68</v>
       </c>
       <c r="J36" s="68">
         <v>1</v>
       </c>
       <c r="K36" s="69">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>775.68</v>
       </c>
       <c r="L36" s="68">
         <v>0</v>
       </c>
       <c r="M36" s="68">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>775.68</v>
       </c>
       <c r="N36" s="68">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="O36" s="70">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>24.32000000000005</v>
       </c>
       <c r="P36" s="71">
         <f t="shared" si="3"/>
-        <v>0.30666666666666664</v>
+        <v>3.0400000000000062E-2</v>
       </c>
       <c r="Q36" s="70"/>
       <c r="R36" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="S36" s="12"/>
+        <v>197</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="161"/>
-      <c r="B37" s="137"/>
+      <c r="A37" s="149"/>
+      <c r="B37" s="163"/>
       <c r="C37" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
+        <v>183</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="E37" s="68" t="s">
+        <v>232</v>
+      </c>
       <c r="F37" s="68"/>
       <c r="G37" s="68">
         <v>1</v>
@@ -6987,273 +7165,315 @@
         <v>35</v>
       </c>
       <c r="I37" s="68">
-        <v>2680</v>
+        <v>6180</v>
       </c>
       <c r="J37" s="68">
         <v>1</v>
       </c>
       <c r="K37" s="69">
-        <f t="shared" si="0"/>
-        <v>2680</v>
+        <v>6180</v>
       </c>
       <c r="L37" s="68">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M37" s="68">
         <f t="shared" si="1"/>
-        <v>2680</v>
+        <v>6180</v>
       </c>
       <c r="N37" s="68">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O37" s="70">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>1820</v>
       </c>
       <c r="P37" s="71">
         <f t="shared" si="3"/>
-        <v>0.10666666666666667</v>
-      </c>
-      <c r="Q37" s="70" t="s">
-        <v>212</v>
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="Q37" s="72" t="s">
+        <v>194</v>
       </c>
       <c r="R37" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="S37" s="12"/>
+        <v>197</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="161"/>
-      <c r="B38" s="137"/>
+      <c r="A38" s="149"/>
+      <c r="B38" s="163"/>
       <c r="C38" s="68" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="D38" s="68" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E38" s="68" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F38" s="68"/>
       <c r="G38" s="68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="68" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I38" s="68">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="J38" s="68">
         <v>1</v>
       </c>
       <c r="K38" s="69">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="L38" s="68">
         <v>0</v>
       </c>
       <c r="M38" s="68">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="N38" s="68">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O38" s="70">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="P38" s="71">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="Q38" s="70"/>
-      <c r="R38" s="78"/>
+      <c r="R38" s="78" t="s">
+        <v>197</v>
+      </c>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="161"/>
-      <c r="B39" s="137"/>
+      <c r="A39" s="149"/>
+      <c r="B39" s="163"/>
       <c r="C39" s="68" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E39" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="F39" s="68"/>
+        <v>236</v>
+      </c>
+      <c r="F39" s="68" t="s">
+        <v>237</v>
+      </c>
       <c r="G39" s="68">
         <v>1</v>
       </c>
       <c r="H39" s="68" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I39" s="68">
-        <v>80</v>
+        <v>2748</v>
       </c>
       <c r="J39" s="68">
         <v>1</v>
       </c>
       <c r="K39" s="69">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>2748</v>
       </c>
       <c r="L39" s="68">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M39" s="68">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>2748</v>
       </c>
       <c r="N39" s="68">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="O39" s="70">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="P39" s="71">
         <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="78"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="Q39" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="R39" s="78" t="s">
+        <v>197</v>
+      </c>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="161"/>
-      <c r="B40" s="137"/>
+      <c r="A40" s="149"/>
+      <c r="B40" s="163"/>
       <c r="C40" s="68" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E40" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="F40" s="68" t="s">
-        <v>243</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="F40" s="68"/>
       <c r="G40" s="68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="68" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I40" s="68">
-        <v>3100</v>
+        <v>80</v>
       </c>
       <c r="J40" s="68">
         <v>1</v>
       </c>
       <c r="K40" s="69">
         <f t="shared" si="0"/>
-        <v>3100</v>
+        <v>80</v>
       </c>
       <c r="L40" s="68">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M40" s="68">
         <f t="shared" si="1"/>
-        <v>3100</v>
+        <v>160</v>
       </c>
       <c r="N40" s="68">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="O40" s="70">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="P40" s="71">
         <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <v>0.2</v>
       </c>
       <c r="Q40" s="70"/>
       <c r="R40" s="78"/>
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="161"/>
-      <c r="B41" s="136" t="s">
-        <v>235</v>
-      </c>
+      <c r="A41" s="149"/>
+      <c r="B41" s="163"/>
       <c r="C41" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
+        <v>219</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E41" s="68" t="s">
+        <v>229</v>
+      </c>
       <c r="F41" s="68"/>
       <c r="G41" s="68">
         <v>1</v>
       </c>
       <c r="H41" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="I41" s="68">
+        <v>80</v>
+      </c>
+      <c r="J41" s="68">
+        <v>1</v>
+      </c>
+      <c r="K41" s="69">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L41" s="68">
+        <v>0</v>
+      </c>
+      <c r="M41" s="68">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
       <c r="N41" s="68">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="O41" s="70">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="P41" s="71">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Q41" s="70"/>
       <c r="R41" s="78"/>
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="161"/>
-      <c r="B42" s="137"/>
+      <c r="A42" s="149"/>
+      <c r="B42" s="163"/>
       <c r="C42" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
+        <v>226</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="68" t="s">
+        <v>238</v>
+      </c>
       <c r="G42" s="68">
         <v>1</v>
       </c>
       <c r="H42" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
+        <v>35</v>
+      </c>
+      <c r="I42" s="68">
+        <v>3800</v>
+      </c>
+      <c r="J42" s="68">
+        <v>1</v>
+      </c>
+      <c r="K42" s="69">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+      <c r="L42" s="68">
+        <v>1000</v>
+      </c>
+      <c r="M42" s="68">
+        <f t="shared" si="1"/>
+        <v>3800</v>
+      </c>
       <c r="N42" s="68">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="O42" s="70">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>-800</v>
       </c>
       <c r="P42" s="71">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="78"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="Q42" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="R42" s="78" t="s">
+        <v>197</v>
+      </c>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="161"/>
-      <c r="B43" s="138"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="152" t="s">
+        <v>224</v>
+      </c>
       <c r="C43" s="68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" s="68"/>
       <c r="E43" s="68"/>
@@ -7268,13 +7488,15 @@
       <c r="J43" s="68"/>
       <c r="K43" s="69"/>
       <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
+      <c r="M43" s="68">
+        <v>0</v>
+      </c>
       <c r="N43" s="68">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="O43" s="70">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="P43" s="71">
         <f t="shared" si="3"/>
@@ -7285,1380 +7507,1905 @@
       <c r="S43" s="12"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="161"/>
-      <c r="B44" s="136" t="s">
-        <v>173</v>
-      </c>
+      <c r="A44" s="149"/>
+      <c r="B44" s="163"/>
       <c r="C44" s="68" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="D44" s="68"/>
       <c r="E44" s="68"/>
       <c r="F44" s="68"/>
       <c r="G44" s="68">
-        <v>18.22</v>
+        <v>1</v>
       </c>
       <c r="H44" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" s="68">
-        <v>530</v>
-      </c>
-      <c r="J44" s="68">
-        <v>1</v>
-      </c>
-      <c r="K44" s="69">
-        <f t="shared" si="0"/>
-        <v>530</v>
-      </c>
-      <c r="L44" s="68">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="68"/>
       <c r="M44" s="68">
-        <f t="shared" si="1"/>
-        <v>9656.5999999999985</v>
+        <v>0</v>
       </c>
       <c r="N44" s="68">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="O44" s="70">
         <f t="shared" si="2"/>
-        <v>-2656.5999999999985</v>
+        <v>1000</v>
       </c>
       <c r="P44" s="71">
         <f t="shared" si="3"/>
-        <v>0.37951428571428553</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="70"/>
-      <c r="R44" s="78" t="s">
-        <v>206</v>
-      </c>
+      <c r="R44" s="78"/>
       <c r="S44" s="12"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="161"/>
-      <c r="B45" s="137"/>
+      <c r="A45" s="149"/>
+      <c r="B45" s="166"/>
       <c r="C45" s="68" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="D45" s="68"/>
       <c r="E45" s="68"/>
       <c r="F45" s="68"/>
       <c r="G45" s="68">
+        <v>1</v>
+      </c>
+      <c r="H45" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68">
+        <v>0</v>
+      </c>
+      <c r="N45" s="68">
+        <v>1500</v>
+      </c>
+      <c r="O45" s="70">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="P45" s="71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="78"/>
+      <c r="S45" s="12"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="149"/>
+      <c r="B46" s="152" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="D46" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="G46" s="68">
+        <v>18.22</v>
+      </c>
+      <c r="H46" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="68">
+        <v>530</v>
+      </c>
+      <c r="J46" s="68">
+        <v>1</v>
+      </c>
+      <c r="K46" s="69">
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+      <c r="L46" s="68">
+        <v>0</v>
+      </c>
+      <c r="M46" s="68">
+        <f t="shared" si="1"/>
+        <v>9656.5999999999985</v>
+      </c>
+      <c r="N46" s="68">
+        <v>7000</v>
+      </c>
+      <c r="O46" s="70">
+        <f t="shared" si="2"/>
+        <v>-2656.5999999999985</v>
+      </c>
+      <c r="P46" s="71">
+        <f t="shared" si="3"/>
+        <v>0.37951428571428553</v>
+      </c>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="S46" s="12"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="149"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="68" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="68">
         <v>7.45</v>
       </c>
-      <c r="H45" s="68" t="s">
+      <c r="H47" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="68">
+      <c r="I47" s="68">
         <v>420</v>
       </c>
-      <c r="J45" s="68">
-        <v>1</v>
-      </c>
-      <c r="K45" s="69">
+      <c r="J47" s="68">
+        <v>1</v>
+      </c>
+      <c r="K47" s="69">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="L45" s="68">
-        <v>0</v>
-      </c>
-      <c r="M45" s="68">
+      <c r="L47" s="68">
+        <v>0</v>
+      </c>
+      <c r="M47" s="68">
         <f t="shared" si="1"/>
         <v>3129</v>
       </c>
-      <c r="N45" s="68">
+      <c r="N47" s="68">
         <v>3000</v>
       </c>
-      <c r="O45" s="70">
+      <c r="O47" s="70">
         <f t="shared" si="2"/>
         <v>-129</v>
       </c>
-      <c r="P45" s="71">
+      <c r="P47" s="71">
         <f t="shared" si="3"/>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="Q45" s="70"/>
-      <c r="R45" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="S45" s="9"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="161"/>
-      <c r="B46" s="163" t="s">
+      <c r="Q47" s="70"/>
+      <c r="R47" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="S47" s="9"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="149"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="133" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" s="133" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" s="133" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133">
+        <v>4.95</v>
+      </c>
+      <c r="H48" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="133">
+        <v>245</v>
+      </c>
+      <c r="J48" s="133">
+        <v>1</v>
+      </c>
+      <c r="K48" s="69">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="L48" s="133">
+        <v>500</v>
+      </c>
+      <c r="M48" s="133">
+        <f t="shared" si="1"/>
+        <v>1212.75</v>
+      </c>
+      <c r="N48" s="133">
+        <v>1000</v>
+      </c>
+      <c r="O48" s="70">
+        <f t="shared" si="2"/>
+        <v>-212.75</v>
+      </c>
+      <c r="P48" s="71">
+        <f t="shared" si="3"/>
+        <v>0.21274999999999999</v>
+      </c>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="78"/>
+      <c r="S48" s="9"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="149"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="133" t="s">
+        <v>262</v>
+      </c>
+      <c r="D49" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="133" t="s">
+        <v>229</v>
+      </c>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133">
+        <v>9.5</v>
+      </c>
+      <c r="H49" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" s="133">
+        <v>95</v>
+      </c>
+      <c r="J49" s="133">
+        <v>1</v>
+      </c>
+      <c r="K49" s="69">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="L49" s="133">
+        <v>0</v>
+      </c>
+      <c r="M49" s="133">
+        <f t="shared" si="1"/>
+        <v>902.5</v>
+      </c>
+      <c r="N49" s="133">
+        <v>1000</v>
+      </c>
+      <c r="O49" s="70">
+        <f t="shared" si="2"/>
+        <v>97.5</v>
+      </c>
+      <c r="P49" s="71">
+        <f t="shared" si="3"/>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="Q49" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="R49" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="S49" s="9"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="149"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="135" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="135"/>
+      <c r="I50" s="135"/>
+      <c r="J50" s="135"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135">
+        <v>0</v>
+      </c>
+      <c r="N50" s="135">
+        <v>3000</v>
+      </c>
+      <c r="O50" s="70"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="9"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="149"/>
+      <c r="B51" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68" t="s">
+      <c r="C51" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68">
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68">
+        <v>0</v>
+      </c>
+      <c r="N51" s="68">
         <v>10000</v>
       </c>
-      <c r="O46" s="70">
+      <c r="O51" s="70">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="P46" s="71">
+      <c r="P51" s="71">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="S46" s="9"/>
-    </row>
-    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="162"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79" t="s">
+      <c r="Q51" s="70"/>
+      <c r="R51" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="S51" s="9"/>
+    </row>
+    <row r="52" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="150"/>
+      <c r="B52" s="152"/>
+      <c r="C52" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79">
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79">
+        <v>0</v>
+      </c>
+      <c r="N52" s="79">
         <v>5000</v>
       </c>
-      <c r="O47" s="81">
+      <c r="O52" s="81">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="P47" s="82">
+      <c r="P52" s="82">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="S47" s="9"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="144" t="s">
+      <c r="Q52" s="81"/>
+      <c r="R52" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="S52" s="9"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="142" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" s="88" t="s">
-        <v>171</v>
-      </c>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88">
-        <v>18</v>
-      </c>
-      <c r="H48" s="88" t="s">
+      <c r="B53" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="G53" s="88">
+        <v>21</v>
+      </c>
+      <c r="H53" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="I48" s="88">
+      <c r="I53" s="88">
         <v>35</v>
       </c>
-      <c r="J48" s="88">
-        <v>1</v>
-      </c>
-      <c r="K48" s="89">
+      <c r="J53" s="88">
+        <v>1</v>
+      </c>
+      <c r="K53" s="89">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
-      <c r="N48" s="88">
+      <c r="L53" s="88"/>
+      <c r="M53" s="88">
+        <f t="shared" si="1"/>
+        <v>735</v>
+      </c>
+      <c r="N53" s="88">
         <v>1500</v>
       </c>
-      <c r="O48" s="90">
-        <f>N48-M48</f>
-        <v>870</v>
-      </c>
-      <c r="P48" s="91">
+      <c r="O53" s="90">
+        <f>N53-M53</f>
+        <v>765</v>
+      </c>
+      <c r="P53" s="91">
         <f t="shared" si="3"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Q48" s="90"/>
-      <c r="R48" s="92" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="145"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84">
-        <v>2.5</v>
-      </c>
-      <c r="H49" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="I49" s="84">
-        <v>200</v>
-      </c>
-      <c r="J49" s="84">
-        <v>1</v>
-      </c>
-      <c r="K49" s="85">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="N49" s="84">
-        <v>1000</v>
-      </c>
-      <c r="O49" s="86">
-        <f t="shared" ref="O49:O68" si="4">N49-M49</f>
-        <v>500</v>
-      </c>
-      <c r="P49" s="87">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q49" s="86"/>
-      <c r="R49" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="S49"/>
-      <c r="T49"/>
-    </row>
-    <row r="50" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="145"/>
-      <c r="B50" s="143" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84">
-        <v>1</v>
-      </c>
-      <c r="H50" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="I50" s="84">
-        <v>110</v>
-      </c>
-      <c r="J50" s="84">
-        <v>1</v>
-      </c>
-      <c r="K50" s="85">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="N50" s="84">
-        <v>110</v>
-      </c>
-      <c r="O50" s="86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="87">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="86"/>
-      <c r="R50" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="S50"/>
-      <c r="T50"/>
-    </row>
-    <row r="51" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="145"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84">
-        <v>50</v>
-      </c>
-      <c r="H51" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="I51" s="84">
-        <v>20</v>
-      </c>
-      <c r="J51" s="84">
-        <v>1</v>
-      </c>
-      <c r="K51" s="85">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="N51" s="84">
-        <v>1000</v>
-      </c>
-      <c r="O51" s="86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="87">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="86"/>
-      <c r="R51" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="S51"/>
-      <c r="T51"/>
-    </row>
-    <row r="52" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="145"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84">
-        <v>11</v>
-      </c>
-      <c r="H52" s="84" t="s">
+        <v>0.51</v>
+      </c>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="I52" s="84">
-        <v>28</v>
-      </c>
-      <c r="J52" s="84">
-        <v>1</v>
-      </c>
-      <c r="K52" s="85">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84">
-        <f t="shared" si="1"/>
-        <v>308</v>
-      </c>
-      <c r="N52" s="84">
-        <v>3000</v>
-      </c>
-      <c r="O52" s="86">
-        <f t="shared" si="4"/>
-        <v>2692</v>
-      </c>
-      <c r="P52" s="87">
-        <f t="shared" si="3"/>
-        <v>0.89733333333333332</v>
-      </c>
-      <c r="Q52" s="86"/>
-      <c r="R52" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="S52"/>
-      <c r="T52"/>
-    </row>
-    <row r="53" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="145"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="84" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84">
-        <v>1</v>
-      </c>
-      <c r="H53" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="84"/>
-      <c r="O53" s="86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="87">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="86"/>
-      <c r="R53" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="S53"/>
-      <c r="T53"/>
     </row>
     <row r="54" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="145"/>
-      <c r="B54" s="143"/>
+      <c r="A54" s="176"/>
+      <c r="B54" s="179"/>
       <c r="C54" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
+        <v>169</v>
+      </c>
+      <c r="D54" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="84" t="s">
+        <v>149</v>
+      </c>
       <c r="F54" s="84"/>
       <c r="G54" s="84">
         <v>3</v>
       </c>
       <c r="H54" s="84" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="I54" s="84">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="J54" s="84">
         <v>1</v>
       </c>
       <c r="K54" s="85">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="L54" s="84"/>
       <c r="M54" s="84">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="N54" s="84">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="O54" s="86">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" ref="O54:O79" si="4">N54-M54</f>
+        <v>400</v>
       </c>
       <c r="P54" s="87">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Q54" s="86"/>
       <c r="R54" s="93" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S54"/>
       <c r="T54"/>
     </row>
-    <row r="55" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="146"/>
-      <c r="B55" s="94" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" s="130" t="s">
-        <v>220</v>
-      </c>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94">
-        <v>1</v>
-      </c>
-      <c r="H55" s="94" t="s">
+    <row r="55" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="176"/>
+      <c r="B55" s="179" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84">
+        <v>1</v>
+      </c>
+      <c r="H55" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="I55" s="84">
+        <v>110</v>
+      </c>
+      <c r="J55" s="84">
+        <v>1</v>
+      </c>
+      <c r="K55" s="85">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="N55" s="84">
+        <v>110</v>
+      </c>
+      <c r="O55" s="86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="86"/>
+      <c r="R55" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="S55"/>
+      <c r="T55"/>
+    </row>
+    <row r="56" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="176"/>
+      <c r="B56" s="179"/>
+      <c r="C56" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="F56" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="G56" s="84">
+        <v>53</v>
+      </c>
+      <c r="H56" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="I56" s="84">
+        <v>20</v>
+      </c>
+      <c r="J56" s="84">
+        <v>1</v>
+      </c>
+      <c r="K56" s="85">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84">
+        <f t="shared" si="1"/>
+        <v>1060</v>
+      </c>
+      <c r="N56" s="84">
+        <v>1000</v>
+      </c>
+      <c r="O56" s="86">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="P56" s="87">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="Q56" s="86"/>
+      <c r="R56" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="S56"/>
+      <c r="T56"/>
+    </row>
+    <row r="57" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="176"/>
+      <c r="B57" s="179"/>
+      <c r="C57" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="84">
+        <v>26</v>
+      </c>
+      <c r="H57" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="I57" s="84">
+        <v>28</v>
+      </c>
+      <c r="J57" s="84">
+        <v>1</v>
+      </c>
+      <c r="K57" s="85">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84">
+        <f t="shared" si="1"/>
+        <v>728</v>
+      </c>
+      <c r="N57" s="84">
+        <v>1000</v>
+      </c>
+      <c r="O57" s="86">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="P57" s="87">
+        <f t="shared" si="3"/>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="Q57" s="86"/>
+      <c r="R57" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="S57"/>
+      <c r="T57"/>
+    </row>
+    <row r="58" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="176"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="136" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="136"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="136">
+        <v>1</v>
+      </c>
+      <c r="H58" s="136" t="s">
+        <v>181</v>
+      </c>
+      <c r="I58" s="136">
+        <v>80</v>
+      </c>
+      <c r="J58" s="136">
+        <v>1</v>
+      </c>
+      <c r="K58" s="85">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L58" s="136"/>
+      <c r="M58" s="136">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="N58" s="136">
+        <v>80</v>
+      </c>
+      <c r="O58" s="86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="86" t="s">
+        <v>267</v>
+      </c>
+      <c r="R58" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="S58"/>
+      <c r="T58"/>
+    </row>
+    <row r="59" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="176"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84">
+        <v>1</v>
+      </c>
+      <c r="H59" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="84">
+        <v>0</v>
+      </c>
+      <c r="O59" s="86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="86"/>
+      <c r="R59" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="S59"/>
+      <c r="T59"/>
+    </row>
+    <row r="60" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="176"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="138" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="138"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
+      <c r="G60" s="138">
+        <v>1</v>
+      </c>
+      <c r="H60" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="I55" s="94">
+      <c r="I60" s="138">
+        <v>379</v>
+      </c>
+      <c r="J60" s="138">
+        <v>1</v>
+      </c>
+      <c r="K60" s="85">
+        <f t="shared" si="0"/>
+        <v>379</v>
+      </c>
+      <c r="L60" s="138"/>
+      <c r="M60" s="138">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+      <c r="N60" s="138">
+        <v>300</v>
+      </c>
+      <c r="O60" s="86">
+        <f t="shared" si="4"/>
+        <v>-79</v>
+      </c>
+      <c r="P60" s="87">
+        <f t="shared" si="3"/>
+        <v>0.26333333333333331</v>
+      </c>
+      <c r="Q60" s="86"/>
+      <c r="R60" s="93"/>
+      <c r="S60"/>
+      <c r="T60"/>
+    </row>
+    <row r="61" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="176"/>
+      <c r="B61" s="179"/>
+      <c r="C61" s="138" t="s">
+        <v>278</v>
+      </c>
+      <c r="D61" s="138"/>
+      <c r="E61" s="138"/>
+      <c r="F61" s="138"/>
+      <c r="G61" s="138">
+        <v>1</v>
+      </c>
+      <c r="H61" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="I61" s="138">
+        <v>58</v>
+      </c>
+      <c r="J61" s="138">
+        <v>1</v>
+      </c>
+      <c r="K61" s="85">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="L61" s="138"/>
+      <c r="M61" s="138">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="N61" s="138">
+        <v>50</v>
+      </c>
+      <c r="O61" s="86">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="P61" s="87">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="Q61" s="86"/>
+      <c r="R61" s="93"/>
+      <c r="S61"/>
+      <c r="T61"/>
+    </row>
+    <row r="62" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="176"/>
+      <c r="B62" s="179"/>
+      <c r="C62" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="F62" s="84"/>
+      <c r="G62" s="84">
+        <v>3</v>
+      </c>
+      <c r="H62" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="I62" s="84">
+        <v>3</v>
+      </c>
+      <c r="J62" s="84">
+        <v>1</v>
+      </c>
+      <c r="K62" s="85">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L62" s="84"/>
+      <c r="M62" s="84">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N62" s="84">
+        <v>10</v>
+      </c>
+      <c r="O62" s="86">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P62" s="87">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q62" s="86"/>
+      <c r="R62" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="S62"/>
+      <c r="T62"/>
+    </row>
+    <row r="63" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="185"/>
+      <c r="B63" s="191" t="s">
+        <v>275</v>
+      </c>
+      <c r="C63" s="186" t="s">
+        <v>273</v>
+      </c>
+      <c r="D63" s="186"/>
+      <c r="E63" s="186"/>
+      <c r="F63" s="186"/>
+      <c r="G63" s="186">
+        <v>1</v>
+      </c>
+      <c r="H63" s="186" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="186"/>
+      <c r="J63" s="186"/>
+      <c r="K63" s="187"/>
+      <c r="L63" s="186"/>
+      <c r="M63" s="186">
+        <v>0</v>
+      </c>
+      <c r="N63" s="186">
+        <v>600</v>
+      </c>
+      <c r="O63" s="188"/>
+      <c r="P63" s="189"/>
+      <c r="Q63" s="188"/>
+      <c r="R63" s="190"/>
+      <c r="S63"/>
+      <c r="T63"/>
+    </row>
+    <row r="64" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="185"/>
+      <c r="B64" s="193"/>
+      <c r="C64" s="186" t="s">
+        <v>274</v>
+      </c>
+      <c r="D64" s="186"/>
+      <c r="E64" s="186"/>
+      <c r="F64" s="186"/>
+      <c r="G64" s="186">
+        <v>6</v>
+      </c>
+      <c r="H64" s="186" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" s="186"/>
+      <c r="J64" s="186"/>
+      <c r="K64" s="187"/>
+      <c r="L64" s="186"/>
+      <c r="M64" s="186">
+        <v>0</v>
+      </c>
+      <c r="N64" s="186">
+        <v>0</v>
+      </c>
+      <c r="O64" s="188"/>
+      <c r="P64" s="189"/>
+      <c r="Q64" s="188"/>
+      <c r="R64" s="190"/>
+      <c r="S64"/>
+      <c r="T64"/>
+    </row>
+    <row r="65" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="185"/>
+      <c r="B65" s="192"/>
+      <c r="C65" s="186"/>
+      <c r="D65" s="186"/>
+      <c r="E65" s="186"/>
+      <c r="F65" s="186"/>
+      <c r="G65" s="186"/>
+      <c r="H65" s="186"/>
+      <c r="I65" s="186"/>
+      <c r="J65" s="186"/>
+      <c r="K65" s="187"/>
+      <c r="L65" s="186"/>
+      <c r="M65" s="186">
+        <v>0</v>
+      </c>
+      <c r="N65" s="186">
+        <v>0</v>
+      </c>
+      <c r="O65" s="188"/>
+      <c r="P65" s="189"/>
+      <c r="Q65" s="188"/>
+      <c r="R65" s="190"/>
+      <c r="S65"/>
+      <c r="T65"/>
+    </row>
+    <row r="66" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="177"/>
+      <c r="B66" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="130" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" s="94" t="s">
+        <v>251</v>
+      </c>
+      <c r="E66" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="F66" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="G66" s="94">
+        <v>1</v>
+      </c>
+      <c r="H66" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" s="94">
         <v>1110</v>
       </c>
-      <c r="J55" s="94">
-        <v>1</v>
-      </c>
-      <c r="K55" s="95">
-        <f t="shared" ref="K55:K68" si="5">I55*J55</f>
+      <c r="J66" s="94">
+        <v>1</v>
+      </c>
+      <c r="K66" s="95">
+        <f t="shared" ref="K66:K79" si="5">I66*J66</f>
         <v>1110</v>
       </c>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94">
-        <f t="shared" ref="M55:M68" si="6">K55*G55</f>
+      <c r="L66" s="94"/>
+      <c r="M66" s="94">
+        <f t="shared" ref="M66:M79" si="6">K66*G66</f>
         <v>1110</v>
       </c>
-      <c r="N55" s="94">
+      <c r="N66" s="94">
         <v>1500</v>
       </c>
-      <c r="O55" s="96">
+      <c r="O66" s="96">
         <f t="shared" si="4"/>
         <v>390</v>
       </c>
-      <c r="P55" s="97">
+      <c r="P66" s="97">
         <f t="shared" si="3"/>
         <v>0.26</v>
       </c>
-      <c r="Q55" s="96" t="s">
-        <v>231</v>
-      </c>
-      <c r="R55" s="98" t="s">
-        <v>206</v>
-      </c>
-      <c r="S55"/>
-      <c r="T55"/>
-    </row>
-    <row r="56" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="147" t="s">
+      <c r="Q66" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="R66" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="S66"/>
+      <c r="T66"/>
+    </row>
+    <row r="67" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="180" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="140" t="s">
+      <c r="B67" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="129" t="s">
+      <c r="C67" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124">
-        <v>1</v>
-      </c>
-      <c r="H56" s="124" t="s">
+      <c r="D67" s="124"/>
+      <c r="E67" s="124"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="124">
+        <v>1</v>
+      </c>
+      <c r="H67" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="125">
+      <c r="I67" s="124"/>
+      <c r="J67" s="124"/>
+      <c r="K67" s="125">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L56" s="124"/>
-      <c r="M56" s="124">
+      <c r="L67" s="124"/>
+      <c r="M67" s="124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N56" s="124">
+      <c r="N67" s="124">
         <v>400</v>
       </c>
-      <c r="O56" s="126">
+      <c r="O67" s="126">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="P56" s="127">
+      <c r="P67" s="127">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q56" s="126"/>
-      <c r="R56" s="128" t="s">
-        <v>206</v>
-      </c>
-      <c r="S56"/>
-      <c r="T56"/>
-    </row>
-    <row r="57" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="148"/>
-      <c r="B57" s="150"/>
-      <c r="C57" s="99" t="s">
-        <v>221</v>
-      </c>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99">
-        <v>1</v>
-      </c>
-      <c r="H57" s="99" t="s">
+      <c r="Q67" s="126"/>
+      <c r="R67" s="128" t="s">
+        <v>197</v>
+      </c>
+      <c r="S67"/>
+      <c r="T67"/>
+    </row>
+    <row r="68" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="181"/>
+      <c r="B68" s="183"/>
+      <c r="C68" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99">
+        <v>1</v>
+      </c>
+      <c r="H68" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
-      <c r="K57" s="100">
+      <c r="I68" s="99"/>
+      <c r="J68" s="99"/>
+      <c r="K68" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L57" s="99"/>
-      <c r="M57" s="99">
+      <c r="L68" s="99"/>
+      <c r="M68" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N57" s="99">
+      <c r="N68" s="99">
         <v>3000</v>
       </c>
-      <c r="O57" s="101">
+      <c r="O68" s="101">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="P57" s="102">
+      <c r="P68" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="103" t="s">
-        <v>206</v>
-      </c>
-      <c r="S57"/>
-      <c r="T57"/>
-    </row>
-    <row r="58" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="148"/>
-      <c r="B58" s="150"/>
-      <c r="C58" s="99" t="s">
-        <v>222</v>
-      </c>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99">
-        <v>1</v>
-      </c>
-      <c r="H58" s="99" t="s">
+      <c r="Q68" s="101"/>
+      <c r="R68" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="S68"/>
+      <c r="T68"/>
+    </row>
+    <row r="69" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="181"/>
+      <c r="B69" s="183"/>
+      <c r="C69" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99">
+        <v>1</v>
+      </c>
+      <c r="H69" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I58" s="99"/>
-      <c r="J58" s="99"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="99"/>
-      <c r="M58" s="99"/>
-      <c r="N58" s="99">
+      <c r="I69" s="99"/>
+      <c r="J69" s="99"/>
+      <c r="K69" s="100"/>
+      <c r="L69" s="99"/>
+      <c r="M69" s="99">
+        <v>0</v>
+      </c>
+      <c r="N69" s="99">
         <v>200</v>
       </c>
-      <c r="O58" s="101">
+      <c r="O69" s="101">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="P58" s="102">
+      <c r="P69" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q58" s="101"/>
-      <c r="R58" s="103"/>
-      <c r="S58"/>
-      <c r="T58"/>
-    </row>
-    <row r="59" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="148"/>
-      <c r="B59" s="150"/>
-      <c r="C59" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="99">
-        <v>1</v>
-      </c>
-      <c r="H59" s="99" t="s">
+      <c r="Q69" s="101"/>
+      <c r="R69" s="103"/>
+      <c r="S69"/>
+      <c r="T69"/>
+    </row>
+    <row r="70" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="181"/>
+      <c r="B70" s="183"/>
+      <c r="C70" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99">
+        <v>1</v>
+      </c>
+      <c r="H70" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I59" s="99"/>
-      <c r="J59" s="99"/>
-      <c r="K59" s="100"/>
-      <c r="L59" s="99"/>
-      <c r="M59" s="99"/>
-      <c r="N59" s="99">
+      <c r="I70" s="99"/>
+      <c r="J70" s="99"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="99"/>
+      <c r="M70" s="99">
+        <v>0</v>
+      </c>
+      <c r="N70" s="99">
         <v>1000</v>
       </c>
-      <c r="O59" s="101">
+      <c r="O70" s="101">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="P59" s="102">
+      <c r="P70" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q59" s="101"/>
-      <c r="R59" s="103"/>
-      <c r="S59"/>
-      <c r="T59"/>
-    </row>
-    <row r="60" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="148"/>
-      <c r="B60" s="150"/>
-      <c r="C60" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="99"/>
-      <c r="K60" s="100">
+      <c r="Q70" s="101"/>
+      <c r="R70" s="103"/>
+      <c r="S70"/>
+      <c r="T70"/>
+    </row>
+    <row r="71" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="181"/>
+      <c r="B71" s="183"/>
+      <c r="C71" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="99"/>
+      <c r="K71" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L60" s="99"/>
-      <c r="M60" s="99">
+      <c r="L71" s="99"/>
+      <c r="M71" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N60" s="99">
-        <v>0</v>
-      </c>
-      <c r="O60" s="101">
+      <c r="N71" s="99">
+        <v>0</v>
+      </c>
+      <c r="O71" s="101">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P60" s="102">
+      <c r="P71" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="101"/>
-      <c r="R60" s="103" t="s">
-        <v>206</v>
-      </c>
-      <c r="S60"/>
-      <c r="T60"/>
-    </row>
-    <row r="61" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="148"/>
-      <c r="B61" s="99" t="s">
+      <c r="Q71" s="101"/>
+      <c r="R71" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="S71"/>
+      <c r="T71"/>
+    </row>
+    <row r="72" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="181"/>
+      <c r="B72" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="99" t="s">
+      <c r="C72" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99">
-        <v>1</v>
-      </c>
-      <c r="H61" s="99" t="s">
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99">
+        <v>1</v>
+      </c>
+      <c r="H72" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="100">
+      <c r="I72" s="99"/>
+      <c r="J72" s="99"/>
+      <c r="K72" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L61" s="99"/>
-      <c r="M61" s="99">
+      <c r="L72" s="99"/>
+      <c r="M72" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N61" s="99">
+      <c r="N72" s="99">
         <v>2000</v>
       </c>
-      <c r="O61" s="101">
+      <c r="O72" s="101">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="P61" s="102">
+      <c r="P72" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q61" s="101"/>
-      <c r="R61" s="103" t="s">
-        <v>206</v>
-      </c>
-      <c r="S61"/>
-      <c r="T61"/>
-    </row>
-    <row r="62" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="148"/>
-      <c r="B62" s="139" t="s">
-        <v>228</v>
-      </c>
-      <c r="C62" s="99" t="s">
-        <v>232</v>
-      </c>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99">
-        <v>1</v>
-      </c>
-      <c r="H62" s="99" t="s">
+      <c r="Q72" s="101"/>
+      <c r="R72" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="S72"/>
+      <c r="T72"/>
+    </row>
+    <row r="73" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="181"/>
+      <c r="B73" s="167" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99">
+        <v>1</v>
+      </c>
+      <c r="H73" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
-      <c r="K62" s="100"/>
-      <c r="L62" s="99"/>
-      <c r="M62" s="99"/>
-      <c r="N62" s="99"/>
-      <c r="O62" s="101"/>
-      <c r="P62" s="102"/>
-      <c r="Q62" s="101"/>
-      <c r="R62" s="103"/>
-      <c r="S62"/>
-      <c r="T62"/>
-    </row>
-    <row r="63" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="148"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="99">
+      <c r="I73" s="99"/>
+      <c r="J73" s="99"/>
+      <c r="K73" s="100"/>
+      <c r="L73" s="99"/>
+      <c r="M73" s="99">
+        <v>0</v>
+      </c>
+      <c r="N73" s="99">
+        <v>3000</v>
+      </c>
+      <c r="O73" s="101"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="101"/>
+      <c r="R73" s="103"/>
+      <c r="S73"/>
+      <c r="T73"/>
+    </row>
+    <row r="74" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="181"/>
+      <c r="B74" s="168"/>
+      <c r="C74" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99">
         <v>19</v>
       </c>
-      <c r="H63" s="99" t="s">
+      <c r="H74" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-      <c r="K63" s="100"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="99"/>
-      <c r="O63" s="101"/>
-      <c r="P63" s="102"/>
-      <c r="Q63" s="101"/>
-      <c r="R63" s="103"/>
-      <c r="S63"/>
-      <c r="T63"/>
-    </row>
-    <row r="64" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="148"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="99">
-        <v>1</v>
-      </c>
-      <c r="H64" s="99" t="s">
+      <c r="I74" s="99"/>
+      <c r="J74" s="99"/>
+      <c r="K74" s="100"/>
+      <c r="L74" s="99"/>
+      <c r="M74" s="99">
+        <v>0</v>
+      </c>
+      <c r="N74" s="99">
+        <v>500</v>
+      </c>
+      <c r="O74" s="101"/>
+      <c r="P74" s="102"/>
+      <c r="Q74" s="101"/>
+      <c r="R74" s="103"/>
+      <c r="S74"/>
+      <c r="T74"/>
+    </row>
+    <row r="75" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="181"/>
+      <c r="B75" s="169"/>
+      <c r="C75" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99">
+        <v>1</v>
+      </c>
+      <c r="H75" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99"/>
-      <c r="K64" s="100">
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
+      <c r="K75" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L64" s="99"/>
-      <c r="M64" s="99">
+      <c r="L75" s="99"/>
+      <c r="M75" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N64" s="99"/>
-      <c r="O64" s="101">
+      <c r="N75" s="99">
+        <v>0</v>
+      </c>
+      <c r="O75" s="101">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P64" s="102">
+      <c r="P75" s="102">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="101"/>
-      <c r="R64" s="103" t="s">
-        <v>206</v>
-      </c>
-      <c r="S64"/>
-      <c r="T64"/>
-    </row>
-    <row r="65" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="148"/>
-      <c r="B65" s="150" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65" s="99"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99">
-        <v>1</v>
-      </c>
-      <c r="H65" s="99" t="s">
+      <c r="Q75" s="101"/>
+      <c r="R75" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="S75"/>
+      <c r="T75"/>
+    </row>
+    <row r="76" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="181"/>
+      <c r="B76" s="183" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99">
+        <v>1</v>
+      </c>
+      <c r="H76" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I65" s="99">
+      <c r="I76" s="99">
         <v>1399</v>
       </c>
-      <c r="J65" s="99">
-        <v>1</v>
-      </c>
-      <c r="K65" s="100">
+      <c r="J76" s="99">
+        <v>1</v>
+      </c>
+      <c r="K76" s="100">
         <f t="shared" si="5"/>
         <v>1399</v>
       </c>
-      <c r="L65" s="99"/>
-      <c r="M65" s="99">
+      <c r="L76" s="99"/>
+      <c r="M76" s="99">
         <f t="shared" si="6"/>
         <v>1399</v>
       </c>
-      <c r="N65" s="99">
+      <c r="N76" s="99">
         <v>1500</v>
       </c>
-      <c r="O65" s="101">
+      <c r="O76" s="101">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
-      <c r="P65" s="102">
+      <c r="P76" s="102">
         <f t="shared" si="3"/>
         <v>6.7333333333333328E-2</v>
       </c>
-      <c r="Q65" s="101"/>
-      <c r="R65" s="103" t="s">
-        <v>206</v>
-      </c>
-      <c r="S65"/>
-      <c r="T65"/>
-    </row>
-    <row r="66" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="148"/>
-      <c r="B66" s="150"/>
-      <c r="C66" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99">
-        <v>1</v>
-      </c>
-      <c r="H66" s="99" t="s">
+      <c r="Q76" s="101"/>
+      <c r="R76" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="S76"/>
+      <c r="T76"/>
+    </row>
+    <row r="77" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="181"/>
+      <c r="B77" s="183"/>
+      <c r="C77" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99">
+        <v>1</v>
+      </c>
+      <c r="H77" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I66" s="99"/>
-      <c r="J66" s="99"/>
-      <c r="K66" s="100">
+      <c r="I77" s="99"/>
+      <c r="J77" s="99"/>
+      <c r="K77" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L66" s="99"/>
-      <c r="M66" s="99">
+      <c r="L77" s="99"/>
+      <c r="M77" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N66" s="99">
+      <c r="N77" s="99">
         <v>6000</v>
       </c>
-      <c r="O66" s="101">
+      <c r="O77" s="101">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="P66" s="102">
+      <c r="P77" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q66" s="101"/>
-      <c r="R66" s="103" t="s">
-        <v>206</v>
-      </c>
-      <c r="S66"/>
-      <c r="T66"/>
-    </row>
-    <row r="67" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="148"/>
-      <c r="B67" s="150"/>
-      <c r="C67" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="99">
+      <c r="Q77" s="101"/>
+      <c r="R77" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="S77"/>
+      <c r="T77"/>
+    </row>
+    <row r="78" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="181"/>
+      <c r="B78" s="183"/>
+      <c r="C78" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="D78" s="99"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="99">
         <v>3</v>
       </c>
-      <c r="H67" s="99" t="s">
+      <c r="H78" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I67" s="99"/>
-      <c r="J67" s="99"/>
-      <c r="K67" s="100">
+      <c r="I78" s="99"/>
+      <c r="J78" s="99"/>
+      <c r="K78" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L67" s="99"/>
-      <c r="M67" s="99">
+      <c r="L78" s="99"/>
+      <c r="M78" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N67" s="99">
+      <c r="N78" s="99">
         <v>6000</v>
       </c>
-      <c r="O67" s="101">
+      <c r="O78" s="101">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="P67" s="102">
+      <c r="P78" s="102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q67" s="101"/>
-      <c r="R67" s="103" t="s">
-        <v>206</v>
-      </c>
-      <c r="S67"/>
-      <c r="T67"/>
-    </row>
-    <row r="68" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="149"/>
-      <c r="B68" s="139"/>
-      <c r="C68" s="104" t="s">
-        <v>225</v>
-      </c>
-      <c r="D68" s="104"/>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104"/>
-      <c r="G68" s="104">
-        <v>1</v>
-      </c>
-      <c r="H68" s="104" t="s">
+      <c r="Q78" s="101"/>
+      <c r="R78" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="S78"/>
+      <c r="T78"/>
+    </row>
+    <row r="79" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="182"/>
+      <c r="B79" s="167"/>
+      <c r="C79" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" s="104"/>
+      <c r="E79" s="104"/>
+      <c r="F79" s="104"/>
+      <c r="G79" s="104">
+        <v>1</v>
+      </c>
+      <c r="H79" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="I68" s="104"/>
-      <c r="J68" s="104"/>
-      <c r="K68" s="105">
+      <c r="I79" s="104"/>
+      <c r="J79" s="104"/>
+      <c r="K79" s="105">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L68" s="104"/>
-      <c r="M68" s="104">
+      <c r="L79" s="104"/>
+      <c r="M79" s="104">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N68" s="104">
+      <c r="N79" s="104">
         <v>1500</v>
       </c>
-      <c r="O68" s="101">
+      <c r="O79" s="101">
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="P68" s="107">
+      <c r="P79" s="107">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q68" s="106"/>
-      <c r="R68" s="108" t="s">
+      <c r="Q79" s="106"/>
+      <c r="R79" s="108" t="s">
+        <v>197</v>
+      </c>
+      <c r="S79"/>
+      <c r="T79"/>
+    </row>
+    <row r="80" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="170" t="s">
+        <v>209</v>
+      </c>
+      <c r="B80" s="173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="113"/>
+      <c r="E80" s="113"/>
+      <c r="F80" s="113"/>
+      <c r="G80" s="113"/>
+      <c r="H80" s="113"/>
+      <c r="I80" s="113"/>
+      <c r="J80" s="113"/>
+      <c r="K80" s="114"/>
+      <c r="L80" s="113"/>
+      <c r="M80" s="113">
+        <v>0</v>
+      </c>
+      <c r="N80" s="113">
+        <v>2000</v>
+      </c>
+      <c r="O80" s="115"/>
+      <c r="P80" s="116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="115"/>
+      <c r="R80" s="117" t="s">
+        <v>197</v>
+      </c>
+      <c r="S80"/>
+      <c r="T80"/>
+    </row>
+    <row r="81" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="171"/>
+      <c r="B81" s="174"/>
+      <c r="C81" s="109" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" s="109"/>
+      <c r="E81" s="109"/>
+      <c r="F81" s="109"/>
+      <c r="G81" s="109"/>
+      <c r="H81" s="109"/>
+      <c r="I81" s="109"/>
+      <c r="J81" s="109"/>
+      <c r="K81" s="110"/>
+      <c r="L81" s="109"/>
+      <c r="M81" s="109">
+        <v>0</v>
+      </c>
+      <c r="N81" s="109">
+        <v>2000</v>
+      </c>
+      <c r="O81" s="111"/>
+      <c r="P81" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="111"/>
+      <c r="R81" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="S81"/>
+      <c r="T81"/>
+    </row>
+    <row r="82" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="171"/>
+      <c r="B82" s="174"/>
+      <c r="C82" s="109" t="s">
+        <v>205</v>
+      </c>
+      <c r="D82" s="109"/>
+      <c r="E82" s="109"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="109"/>
+      <c r="H82" s="109"/>
+      <c r="I82" s="109"/>
+      <c r="J82" s="109"/>
+      <c r="K82" s="110"/>
+      <c r="L82" s="109"/>
+      <c r="M82" s="109">
+        <v>0</v>
+      </c>
+      <c r="N82" s="109">
+        <v>4000</v>
+      </c>
+      <c r="O82" s="111"/>
+      <c r="P82" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="111"/>
+      <c r="R82" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="S82"/>
+      <c r="T82"/>
+    </row>
+    <row r="83" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="171"/>
+      <c r="B83" s="174"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="109"/>
+      <c r="E83" s="109"/>
+      <c r="F83" s="109"/>
+      <c r="G83" s="109"/>
+      <c r="H83" s="109"/>
+      <c r="I83" s="109"/>
+      <c r="J83" s="109"/>
+      <c r="K83" s="110"/>
+      <c r="L83" s="109"/>
+      <c r="M83" s="109">
+        <v>0</v>
+      </c>
+      <c r="N83" s="109">
+        <v>0</v>
+      </c>
+      <c r="O83" s="111"/>
+      <c r="P83" s="112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="111"/>
+      <c r="R83" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="S83"/>
+      <c r="T83"/>
+    </row>
+    <row r="84" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="171"/>
+      <c r="B84" s="174" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="109" t="s">
         <v>206</v>
       </c>
-      <c r="S68"/>
-      <c r="T68"/>
-    </row>
-    <row r="69" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="151" t="s">
-        <v>219</v>
-      </c>
-      <c r="B69" s="154" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="113" t="s">
-        <v>213</v>
-      </c>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="113"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="113"/>
-      <c r="M69" s="113"/>
-      <c r="N69" s="113"/>
-      <c r="O69" s="115"/>
-      <c r="P69" s="116">
+      <c r="D84" s="109"/>
+      <c r="E84" s="109"/>
+      <c r="F84" s="109"/>
+      <c r="G84" s="109"/>
+      <c r="H84" s="109"/>
+      <c r="I84" s="109"/>
+      <c r="J84" s="109"/>
+      <c r="K84" s="110"/>
+      <c r="L84" s="109"/>
+      <c r="M84" s="109">
+        <v>0</v>
+      </c>
+      <c r="N84" s="109">
+        <v>1000</v>
+      </c>
+      <c r="O84" s="111"/>
+      <c r="P84" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q69" s="115"/>
-      <c r="R69" s="117" t="s">
-        <v>206</v>
-      </c>
-      <c r="S69"/>
-      <c r="T69"/>
-    </row>
-    <row r="70" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="152"/>
-      <c r="B70" s="141"/>
-      <c r="C70" s="109" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="109"/>
-      <c r="G70" s="109"/>
-      <c r="H70" s="109"/>
-      <c r="I70" s="109"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="110"/>
-      <c r="L70" s="109"/>
-      <c r="M70" s="109"/>
-      <c r="N70" s="109"/>
-      <c r="O70" s="111"/>
-      <c r="P70" s="112">
+      <c r="Q84" s="111"/>
+      <c r="R84" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="S84"/>
+      <c r="T84"/>
+    </row>
+    <row r="85" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="171"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="109"/>
+      <c r="E85" s="109"/>
+      <c r="F85" s="109"/>
+      <c r="G85" s="109">
+        <v>1</v>
+      </c>
+      <c r="H85" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="I85" s="109"/>
+      <c r="J85" s="109"/>
+      <c r="K85" s="110"/>
+      <c r="L85" s="109"/>
+      <c r="M85" s="109">
+        <v>0</v>
+      </c>
+      <c r="N85" s="109">
+        <v>6000</v>
+      </c>
+      <c r="O85" s="111"/>
+      <c r="P85" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q70" s="111"/>
-      <c r="R70" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="S70"/>
-      <c r="T70"/>
-    </row>
-    <row r="71" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="152"/>
-      <c r="B71" s="141"/>
-      <c r="C71" s="109" t="s">
-        <v>215</v>
-      </c>
-      <c r="D71" s="109"/>
-      <c r="E71" s="109"/>
-      <c r="F71" s="109"/>
-      <c r="G71" s="109"/>
-      <c r="H71" s="109"/>
-      <c r="I71" s="109"/>
-      <c r="J71" s="109"/>
-      <c r="K71" s="110"/>
-      <c r="L71" s="109"/>
-      <c r="M71" s="109"/>
-      <c r="N71" s="109"/>
-      <c r="O71" s="111"/>
-      <c r="P71" s="112">
+      <c r="Q85" s="111"/>
+      <c r="R85" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="S85"/>
+      <c r="T85"/>
+    </row>
+    <row r="86" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="172"/>
+      <c r="B86" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="D86" s="119"/>
+      <c r="E86" s="119"/>
+      <c r="F86" s="119"/>
+      <c r="G86" s="119"/>
+      <c r="H86" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" s="119"/>
+      <c r="J86" s="119"/>
+      <c r="K86" s="120"/>
+      <c r="L86" s="119"/>
+      <c r="M86" s="119">
+        <v>0</v>
+      </c>
+      <c r="N86" s="119">
+        <v>8000</v>
+      </c>
+      <c r="O86" s="121"/>
+      <c r="P86" s="122">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q71" s="111"/>
-      <c r="R71" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="S71"/>
-      <c r="T71"/>
-    </row>
-    <row r="72" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="152"/>
-      <c r="B72" s="141"/>
-      <c r="C72" s="109"/>
-      <c r="D72" s="109"/>
-      <c r="E72" s="109"/>
-      <c r="F72" s="109"/>
-      <c r="G72" s="109"/>
-      <c r="H72" s="109"/>
-      <c r="I72" s="109"/>
-      <c r="J72" s="109"/>
-      <c r="K72" s="110"/>
-      <c r="L72" s="109"/>
-      <c r="M72" s="109"/>
-      <c r="N72" s="109"/>
-      <c r="O72" s="111"/>
-      <c r="P72" s="112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q72" s="111"/>
-      <c r="R72" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="S72"/>
-      <c r="T72"/>
-    </row>
-    <row r="73" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="152"/>
-      <c r="B73" s="141" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="109" t="s">
-        <v>216</v>
-      </c>
-      <c r="D73" s="109"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="109"/>
-      <c r="G73" s="109"/>
-      <c r="H73" s="109"/>
-      <c r="I73" s="109"/>
-      <c r="J73" s="109"/>
-      <c r="K73" s="110"/>
-      <c r="L73" s="109"/>
-      <c r="M73" s="109"/>
-      <c r="N73" s="109">
-        <v>1000</v>
-      </c>
-      <c r="O73" s="111"/>
-      <c r="P73" s="112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="111"/>
-      <c r="R73" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="S73"/>
-      <c r="T73"/>
-    </row>
-    <row r="74" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="152"/>
-      <c r="B74" s="141"/>
-      <c r="C74" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="D74" s="109"/>
-      <c r="E74" s="109"/>
-      <c r="F74" s="109"/>
-      <c r="G74" s="109">
-        <v>1</v>
-      </c>
-      <c r="H74" s="109" t="s">
-        <v>35</v>
-      </c>
-      <c r="I74" s="109"/>
-      <c r="J74" s="109"/>
-      <c r="K74" s="110"/>
-      <c r="L74" s="109"/>
-      <c r="M74" s="109"/>
-      <c r="N74" s="109">
-        <v>6000</v>
-      </c>
-      <c r="O74" s="111"/>
-      <c r="P74" s="112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="111"/>
-      <c r="R74" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="S74"/>
-      <c r="T74"/>
-    </row>
-    <row r="75" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="153"/>
-      <c r="B75" s="119" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" s="119" t="s">
-        <v>234</v>
-      </c>
-      <c r="D75" s="119"/>
-      <c r="E75" s="119"/>
-      <c r="F75" s="119"/>
-      <c r="G75" s="119"/>
-      <c r="H75" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="I75" s="119"/>
-      <c r="J75" s="119"/>
-      <c r="K75" s="120"/>
-      <c r="L75" s="119"/>
-      <c r="M75" s="119"/>
-      <c r="N75" s="119">
-        <v>8000</v>
-      </c>
-      <c r="O75" s="121"/>
-      <c r="P75" s="122">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q75" s="121"/>
-      <c r="R75" s="123" t="s">
-        <v>206</v>
-      </c>
-      <c r="S75"/>
-      <c r="T75"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="27"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="33"/>
-      <c r="Q77" s="25"/>
-      <c r="R77" s="25"/>
+      <c r="Q86" s="121"/>
+      <c r="R86" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="S86"/>
+      <c r="T86"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="27"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="A53:A66"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A67:A79"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="B63:B65"/>
     <mergeCell ref="R1:AH1"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A26:A47"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A28:A52"/>
+    <mergeCell ref="B51:B52"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A12:A25"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A12:A27"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="A56:A68"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B46:B50"/>
   </mergeCells>
   <conditionalFormatting sqref="P1:P1048576">
     <cfRule type="dataBar" priority="1">
@@ -8823,7 +9570,7 @@
       <c r="B10" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="184">
         <v>780</v>
       </c>
     </row>
@@ -8831,7 +9578,7 @@
       <c r="B11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="173"/>
+      <c r="C11" s="184"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">

--- a/九里A2-自己.xlsx
+++ b/九里A2-自己.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B98FE2-5819-5F48-BFE1-7A9DFCB76735}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8934A2-2B85-C640-80BD-11825110ABF8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="室内分类" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'预算 (2)'!$A$2:$AH$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'预算 (2)'!$A$2:$AH$151</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="378">
   <si>
     <t>龙湖九里晴川家装预算表</t>
   </si>
@@ -1198,6 +1198,21 @@
   </si>
   <si>
     <t>厨房挂件-多加3杆子和免钉座</t>
+  </si>
+  <si>
+    <t>净水器安装</t>
+  </si>
+  <si>
+    <t>空调-儿童房</t>
+  </si>
+  <si>
+    <t>空调安装（儿童房，美的）</t>
+  </si>
+  <si>
+    <t>铜管1.3米，接水盘50</t>
+  </si>
+  <si>
+    <t>转孔20, 减压阈50</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1548,11 +1563,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1920,6 +1948,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1935,6 +1969,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1989,71 +2077,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2367,28 +2404,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
+      <c r="A1" s="170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
     </row>
     <row r="2" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2455,13 +2492,13 @@
     <row r="3" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="169">
+      <c r="D4" s="171">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2517,9 +2554,9 @@
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="6" t="s">
         <v>38</v>
       </c>
@@ -2573,9 +2610,9 @@
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
       <c r="E6" s="6" t="s">
         <v>39</v>
       </c>
@@ -2629,9 +2666,9 @@
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
       <c r="E7" s="6" t="s">
         <v>42</v>
       </c>
@@ -2685,11 +2722,11 @@
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="165" t="s">
+      <c r="B8" s="168"/>
+      <c r="C8" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="165">
+      <c r="D8" s="167">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2730,9 +2767,9 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
@@ -2771,9 +2808,9 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
@@ -2812,14 +2849,14 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="167" t="s">
+      <c r="B11" s="168"/>
+      <c r="C11" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="165">
+      <c r="D11" s="167">
         <v>3</v>
       </c>
-      <c r="E11" s="165" t="s">
+      <c r="E11" s="167" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2874,10 +2911,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
       <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
@@ -2924,10 +2961,10 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
       <c r="F13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2972,10 +3009,10 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
       <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
@@ -3013,10 +3050,10 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
       <c r="F15" s="17" t="s">
         <v>45</v>
       </c>
@@ -3055,10 +3092,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
       <c r="F16" s="3" t="s">
         <v>46</v>
       </c>
@@ -3091,10 +3128,10 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
       <c r="F17" s="17" t="s">
         <v>82</v>
       </c>
@@ -3121,10 +3158,10 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
       <c r="F18" s="17" t="s">
         <v>83</v>
       </c>
@@ -3151,10 +3188,10 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165" t="s">
+      <c r="B19" s="168"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -3192,10 +3229,10 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
       <c r="F20" s="5" t="s">
         <v>70</v>
       </c>
@@ -3229,10 +3266,10 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
       <c r="F21" s="3" t="s">
         <v>53</v>
       </c>
@@ -3268,10 +3305,10 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
       <c r="F22" s="3" t="s">
         <v>54</v>
       </c>
@@ -3307,10 +3344,10 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
       <c r="F23" s="3" t="s">
         <v>56</v>
       </c>
@@ -3344,10 +3381,10 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165" t="s">
+      <c r="B24" s="168"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -3382,10 +3419,10 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
       <c r="F25" s="19" t="s">
         <v>98</v>
       </c>
@@ -3418,10 +3455,10 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
       <c r="F26" s="3" t="s">
         <v>58</v>
       </c>
@@ -3457,10 +3494,10 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
       <c r="F27" s="3" t="s">
         <v>59</v>
       </c>
@@ -3494,10 +3531,10 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165" t="s">
+      <c r="B28" s="168"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="1"/>
@@ -3534,10 +3571,10 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
       <c r="F29" s="5"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -3565,10 +3602,10 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165" t="s">
+      <c r="B30" s="168"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167" t="s">
         <v>20</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -3606,10 +3643,10 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
       <c r="F31" s="5"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -3632,11 +3669,11 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="166"/>
-      <c r="C32" s="165" t="s">
+      <c r="B32" s="168"/>
+      <c r="C32" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="165">
+      <c r="D32" s="167">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3666,9 +3703,9 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="166"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
       <c r="E33" s="1" t="s">
         <v>18</v>
       </c>
@@ -3694,9 +3731,9 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="166"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
       <c r="E34" s="1" t="s">
         <v>19</v>
       </c>
@@ -3722,9 +3759,9 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
-      <c r="B35" s="166"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
       <c r="E35" s="19" t="s">
         <v>57</v>
       </c>
@@ -3745,9 +3782,9 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="166"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
       <c r="E36" s="1" t="s">
         <v>20</v>
       </c>
@@ -3777,14 +3814,14 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="166"/>
-      <c r="C37" s="165" t="s">
+      <c r="B37" s="168"/>
+      <c r="C37" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="165">
-        <v>1</v>
-      </c>
-      <c r="E37" s="165" t="s">
+      <c r="D37" s="167">
+        <v>1</v>
+      </c>
+      <c r="E37" s="167" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -3811,10 +3848,10 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
-      <c r="B38" s="166"/>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="165"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
       <c r="F38" s="3" t="s">
         <v>50</v>
       </c>
@@ -3832,10 +3869,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="B39" s="166"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="165"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="167"/>
+      <c r="E39" s="167"/>
       <c r="F39" s="3" t="s">
         <v>51</v>
       </c>
@@ -3860,9 +3897,9 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="166"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="167"/>
       <c r="E40" s="1" t="s">
         <v>18</v>
       </c>
@@ -3890,9 +3927,9 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="166"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="167"/>
+      <c r="D41" s="167"/>
       <c r="E41" s="5" t="s">
         <v>75</v>
       </c>
@@ -3920,10 +3957,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
-      <c r="B42" s="166"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="165" t="s">
+      <c r="B42" s="168"/>
+      <c r="C42" s="167"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="167" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -3952,10 +3989,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
-      <c r="B43" s="166"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="165"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="167"/>
+      <c r="E43" s="167"/>
       <c r="F43" s="19" t="s">
         <v>112</v>
       </c>
@@ -3973,10 +4010,10 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
-      <c r="B44" s="166"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="165"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="167"/>
+      <c r="E44" s="167"/>
       <c r="F44" s="19" t="s">
         <v>113</v>
       </c>
@@ -3994,10 +4031,10 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="166"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="165"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
       <c r="F45" s="3" t="s">
         <v>43</v>
       </c>
@@ -4026,11 +4063,11 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="166"/>
-      <c r="C46" s="165" t="s">
+      <c r="B46" s="168"/>
+      <c r="C46" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="165">
+      <c r="D46" s="167">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -4058,9 +4095,9 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="166"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="167"/>
+      <c r="D47" s="167"/>
       <c r="E47" s="1" t="s">
         <v>18</v>
       </c>
@@ -4086,9 +4123,9 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="166"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="167"/>
       <c r="E48" s="1" t="s">
         <v>19</v>
       </c>
@@ -4114,9 +4151,9 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="167"/>
+      <c r="D49" s="167"/>
       <c r="E49" s="1" t="s">
         <v>20</v>
       </c>
@@ -4142,11 +4179,11 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="166"/>
-      <c r="C50" s="165" t="s">
+      <c r="B50" s="168"/>
+      <c r="C50" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="165">
+      <c r="D50" s="167">
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -4174,9 +4211,9 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="166"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="167"/>
       <c r="E51" s="1" t="s">
         <v>18</v>
       </c>
@@ -4202,9 +4239,9 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="166"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="167"/>
       <c r="E52" s="1" t="s">
         <v>19</v>
       </c>
@@ -4232,10 +4269,10 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="166"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
-      <c r="E53" s="165" t="s">
+      <c r="B53" s="168"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="167"/>
+      <c r="E53" s="167" t="s">
         <v>20</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -4262,10 +4299,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="166"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
-      <c r="E54" s="165"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
       <c r="F54" s="5" t="s">
         <v>76</v>
       </c>
@@ -4290,11 +4327,11 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="166"/>
-      <c r="C55" s="165" t="s">
+      <c r="B55" s="168"/>
+      <c r="C55" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="165">
+      <c r="D55" s="167">
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4322,9 +4359,9 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="166"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="167"/>
+      <c r="D56" s="167"/>
       <c r="E56" s="1" t="s">
         <v>18</v>
       </c>
@@ -4350,9 +4387,9 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="166"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="167"/>
+      <c r="D57" s="167"/>
       <c r="E57" s="1" t="s">
         <v>19</v>
       </c>
@@ -4378,9 +4415,9 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="166"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="167"/>
+      <c r="D58" s="167"/>
       <c r="E58" s="1" t="s">
         <v>20</v>
       </c>
@@ -4408,11 +4445,11 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="166"/>
-      <c r="C59" s="165" t="s">
+      <c r="B59" s="168"/>
+      <c r="C59" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="165">
+      <c r="D59" s="167">
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4440,9 +4477,9 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="166"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="167"/>
       <c r="E60" s="1" t="s">
         <v>18</v>
       </c>
@@ -4468,9 +4505,9 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="166"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="167"/>
+      <c r="D61" s="167"/>
       <c r="E61" s="1" t="s">
         <v>19</v>
       </c>
@@ -4498,9 +4535,9 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="166"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="167"/>
       <c r="E62" s="1" t="s">
         <v>20</v>
       </c>
@@ -4528,11 +4565,11 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
-      <c r="B63" s="166"/>
-      <c r="C63" s="165" t="s">
+      <c r="B63" s="168"/>
+      <c r="C63" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="165">
+      <c r="D63" s="167">
         <v>1</v>
       </c>
       <c r="E63" s="17" t="s">
@@ -4560,9 +4597,9 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
-      <c r="B64" s="166"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="167"/>
+      <c r="D64" s="167"/>
       <c r="E64" s="17" t="s">
         <v>18</v>
       </c>
@@ -4588,9 +4625,9 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
-      <c r="B65" s="166"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="167"/>
       <c r="E65" s="17" t="s">
         <v>75</v>
       </c>
@@ -4616,10 +4653,10 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
-      <c r="B66" s="166"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="165" t="s">
+      <c r="B66" s="168"/>
+      <c r="C66" s="167"/>
+      <c r="D66" s="167"/>
+      <c r="E66" s="167" t="s">
         <v>20</v>
       </c>
       <c r="F66" s="19" t="s">
@@ -4639,10 +4676,10 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="17"/>
-      <c r="B67" s="166"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="165"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="167"/>
+      <c r="D67" s="167"/>
+      <c r="E67" s="167"/>
       <c r="F67" s="17" t="s">
         <v>118</v>
       </c>
@@ -4689,13 +4726,13 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="166" t="s">
+      <c r="B69" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="167" t="s">
+      <c r="C69" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="D69" s="165">
+      <c r="D69" s="167">
         <v>3</v>
       </c>
       <c r="E69" s="1"/>
@@ -4721,9 +4758,9 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="166"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="165"/>
+      <c r="B70" s="168"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="167"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="17"/>
@@ -4747,9 +4784,9 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="166"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
+      <c r="B71" s="168"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="167"/>
       <c r="E71" s="1" t="s">
         <v>19</v>
       </c>
@@ -4777,10 +4814,10 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
-      <c r="B72" s="166"/>
-      <c r="C72" s="165"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="165" t="s">
+      <c r="B72" s="168"/>
+      <c r="C72" s="167"/>
+      <c r="D72" s="167"/>
+      <c r="E72" s="167" t="s">
         <v>20</v>
       </c>
       <c r="F72" s="19" t="s">
@@ -4800,10 +4837,10 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
-      <c r="B73" s="166"/>
-      <c r="C73" s="165"/>
-      <c r="D73" s="165"/>
-      <c r="E73" s="165"/>
+      <c r="B73" s="168"/>
+      <c r="C73" s="167"/>
+      <c r="D73" s="167"/>
+      <c r="E73" s="167"/>
       <c r="F73" s="19" t="s">
         <v>103</v>
       </c>
@@ -4821,10 +4858,10 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="166"/>
-      <c r="C74" s="165"/>
-      <c r="D74" s="165"/>
-      <c r="E74" s="165"/>
+      <c r="B74" s="168"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
       <c r="F74" s="1" t="s">
         <v>101</v>
       </c>
@@ -4849,11 +4886,11 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="166"/>
-      <c r="C75" s="165" t="s">
+      <c r="B75" s="168"/>
+      <c r="C75" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="165">
+      <c r="D75" s="167">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -4881,9 +4918,9 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="166"/>
-      <c r="C76" s="165"/>
-      <c r="D76" s="165"/>
+      <c r="B76" s="168"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
       <c r="E76" s="1" t="s">
         <v>18</v>
       </c>
@@ -4909,10 +4946,10 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
-      <c r="B77" s="166"/>
-      <c r="C77" s="165"/>
-      <c r="D77" s="165"/>
-      <c r="E77" s="165" t="s">
+      <c r="B77" s="168"/>
+      <c r="C77" s="167"/>
+      <c r="D77" s="167"/>
+      <c r="E77" s="167" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="19" t="s">
@@ -4932,10 +4969,10 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="166"/>
-      <c r="C78" s="165"/>
-      <c r="D78" s="165"/>
-      <c r="E78" s="165"/>
+      <c r="B78" s="168"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="167"/>
+      <c r="E78" s="167"/>
       <c r="F78" s="1" t="s">
         <v>104</v>
       </c>
@@ -4960,10 +4997,10 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
-      <c r="B79" s="166"/>
-      <c r="C79" s="165"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="165" t="s">
+      <c r="B79" s="168"/>
+      <c r="C79" s="167"/>
+      <c r="D79" s="167"/>
+      <c r="E79" s="167" t="s">
         <v>20</v>
       </c>
       <c r="F79" s="19" t="s">
@@ -4983,10 +5020,10 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="166"/>
-      <c r="C80" s="165"/>
-      <c r="D80" s="165"/>
-      <c r="E80" s="165"/>
+      <c r="B80" s="168"/>
+      <c r="C80" s="167"/>
+      <c r="D80" s="167"/>
+      <c r="E80" s="167"/>
       <c r="F80" s="1" t="s">
         <v>107</v>
       </c>
@@ -5011,11 +5048,11 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="166"/>
-      <c r="C81" s="165" t="s">
+      <c r="B81" s="168"/>
+      <c r="C81" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="165">
+      <c r="D81" s="167">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -5043,9 +5080,9 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="166"/>
-      <c r="C82" s="165"/>
-      <c r="D82" s="165"/>
+      <c r="B82" s="168"/>
+      <c r="C82" s="167"/>
+      <c r="D82" s="167"/>
       <c r="E82" s="1" t="s">
         <v>18</v>
       </c>
@@ -5071,10 +5108,10 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="166"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165" t="s">
+      <c r="B83" s="168"/>
+      <c r="C83" s="167"/>
+      <c r="D83" s="167"/>
+      <c r="E83" s="167" t="s">
         <v>19</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -5101,10 +5138,10 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
-      <c r="B84" s="166"/>
-      <c r="C84" s="165"/>
-      <c r="D84" s="165"/>
-      <c r="E84" s="165"/>
+      <c r="B84" s="168"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
       <c r="F84" s="19" t="s">
         <v>110</v>
       </c>
@@ -5122,10 +5159,10 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
-      <c r="B85" s="166"/>
-      <c r="C85" s="165"/>
-      <c r="D85" s="165"/>
-      <c r="E85" s="165"/>
+      <c r="B85" s="168"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="167"/>
+      <c r="E85" s="167"/>
       <c r="F85" s="19" t="s">
         <v>109</v>
       </c>
@@ -5143,9 +5180,9 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="166"/>
-      <c r="C86" s="165"/>
-      <c r="D86" s="165"/>
+      <c r="B86" s="168"/>
+      <c r="C86" s="167"/>
+      <c r="D86" s="167"/>
       <c r="E86" s="1" t="s">
         <v>20</v>
       </c>
@@ -5173,11 +5210,11 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="166"/>
-      <c r="C87" s="165" t="s">
+      <c r="B87" s="168"/>
+      <c r="C87" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="165">
+      <c r="D87" s="167">
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -5205,9 +5242,9 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="166"/>
-      <c r="C88" s="165"/>
-      <c r="D88" s="165"/>
+      <c r="B88" s="168"/>
+      <c r="C88" s="167"/>
+      <c r="D88" s="167"/>
       <c r="E88" s="1" t="s">
         <v>18</v>
       </c>
@@ -5233,9 +5270,9 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="166"/>
-      <c r="C89" s="165"/>
-      <c r="D89" s="165"/>
+      <c r="B89" s="168"/>
+      <c r="C89" s="167"/>
+      <c r="D89" s="167"/>
       <c r="E89" s="1" t="s">
         <v>19</v>
       </c>
@@ -5261,9 +5298,9 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="166"/>
-      <c r="C90" s="165"/>
-      <c r="D90" s="165"/>
+      <c r="B90" s="168"/>
+      <c r="C90" s="167"/>
+      <c r="D90" s="167"/>
       <c r="E90" s="1" t="s">
         <v>20</v>
       </c>
@@ -5291,11 +5328,11 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="166"/>
-      <c r="C91" s="165" t="s">
+      <c r="B91" s="168"/>
+      <c r="C91" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="165">
+      <c r="D91" s="167">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -5323,9 +5360,9 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="166"/>
-      <c r="C92" s="165"/>
-      <c r="D92" s="165"/>
+      <c r="B92" s="168"/>
+      <c r="C92" s="167"/>
+      <c r="D92" s="167"/>
       <c r="E92" s="1" t="s">
         <v>18</v>
       </c>
@@ -5351,9 +5388,9 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="166"/>
-      <c r="C93" s="165"/>
-      <c r="D93" s="165"/>
+      <c r="B93" s="168"/>
+      <c r="C93" s="167"/>
+      <c r="D93" s="167"/>
       <c r="E93" s="1" t="s">
         <v>19</v>
       </c>
@@ -5379,9 +5416,9 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="166"/>
-      <c r="C94" s="165"/>
-      <c r="D94" s="165"/>
+      <c r="B94" s="168"/>
+      <c r="C94" s="167"/>
+      <c r="D94" s="167"/>
       <c r="E94" s="1" t="s">
         <v>20</v>
       </c>
@@ -5407,11 +5444,11 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="166"/>
-      <c r="C95" s="165" t="s">
+      <c r="B95" s="168"/>
+      <c r="C95" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="D95" s="165">
+      <c r="D95" s="167">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -5439,9 +5476,9 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="166"/>
-      <c r="C96" s="165"/>
-      <c r="D96" s="165"/>
+      <c r="B96" s="168"/>
+      <c r="C96" s="167"/>
+      <c r="D96" s="167"/>
       <c r="E96" s="1" t="s">
         <v>18</v>
       </c>
@@ -5467,9 +5504,9 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="166"/>
-      <c r="C97" s="165"/>
-      <c r="D97" s="165"/>
+      <c r="B97" s="168"/>
+      <c r="C97" s="167"/>
+      <c r="D97" s="167"/>
       <c r="E97" s="1" t="s">
         <v>19</v>
       </c>
@@ -5495,9 +5532,9 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="166"/>
-      <c r="C98" s="165"/>
-      <c r="D98" s="165"/>
+      <c r="B98" s="168"/>
+      <c r="C98" s="167"/>
+      <c r="D98" s="167"/>
       <c r="E98" s="1" t="s">
         <v>20</v>
       </c>
@@ -5523,11 +5560,11 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="166"/>
-      <c r="C99" s="165" t="s">
+      <c r="B99" s="168"/>
+      <c r="C99" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="165">
+      <c r="D99" s="167">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -5555,9 +5592,9 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="166"/>
-      <c r="C100" s="165"/>
-      <c r="D100" s="165"/>
+      <c r="B100" s="168"/>
+      <c r="C100" s="167"/>
+      <c r="D100" s="167"/>
       <c r="E100" s="1" t="s">
         <v>18</v>
       </c>
@@ -5583,9 +5620,9 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="166"/>
-      <c r="C101" s="165"/>
-      <c r="D101" s="165"/>
+      <c r="B101" s="168"/>
+      <c r="C101" s="167"/>
+      <c r="D101" s="167"/>
       <c r="E101" s="1" t="s">
         <v>19</v>
       </c>
@@ -5611,9 +5648,9 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="166"/>
-      <c r="C102" s="165"/>
-      <c r="D102" s="165"/>
+      <c r="B102" s="168"/>
+      <c r="C102" s="167"/>
+      <c r="D102" s="167"/>
       <c r="E102" s="1" t="s">
         <v>20</v>
       </c>
@@ -5639,26 +5676,20 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="B69:B102"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="D81:D86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="B4:B67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D11:D31"/>
+    <mergeCell ref="C11:C31"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="E37:E39"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="C4:C7"/>
@@ -5675,20 +5706,26 @@
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="C37:C45"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="B4:B67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D11:D31"/>
-    <mergeCell ref="C11:C31"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="B69:B102"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="C81:C86"/>
+    <mergeCell ref="D81:D86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E66:E67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5697,11 +5734,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH160"/>
+  <dimension ref="A1:AH163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H161" sqref="H161"/>
+      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L140" sqref="L140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5727,40 +5764,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="168"/>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
+      <c r="A1" s="170"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="170"/>
+      <c r="AD1" s="170"/>
+      <c r="AE1" s="170"/>
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="170"/>
+      <c r="AH1" s="170"/>
     </row>
     <row r="2" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5824,10 +5861,10 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="190" t="s">
         <v>197</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -5878,8 +5915,8 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="187"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="207"/>
+      <c r="B5" s="191"/>
       <c r="C5" s="34" t="s">
         <v>38</v>
       </c>
@@ -5919,7 +5956,7 @@
         <v>-497</v>
       </c>
       <c r="P5" s="37">
-        <f t="shared" ref="P5:P148" si="3">IFERROR(ABS(O5/N5), 0)</f>
+        <f t="shared" ref="P5:P151" si="3">IFERROR(ABS(O5/N5), 0)</f>
         <v>0.2485</v>
       </c>
       <c r="Q5" s="36"/>
@@ -5928,8 +5965,8 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="187"/>
-      <c r="B6" s="171"/>
+      <c r="A6" s="207"/>
+      <c r="B6" s="191"/>
       <c r="C6" s="34" t="s">
         <v>39</v>
       </c>
@@ -5978,8 +6015,8 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="187"/>
-      <c r="B7" s="171"/>
+      <c r="A7" s="207"/>
+      <c r="B7" s="191"/>
       <c r="C7" s="34" t="s">
         <v>42</v>
       </c>
@@ -6028,8 +6065,8 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="187"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="207"/>
+      <c r="B8" s="191"/>
       <c r="C8" s="34" t="s">
         <v>141</v>
       </c>
@@ -6078,10 +6115,10 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="192" t="s">
         <v>198</v>
       </c>
       <c r="C9" s="35" t="s">
@@ -6132,8 +6169,8 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="177"/>
-      <c r="B10" s="172"/>
+      <c r="A10" s="197"/>
+      <c r="B10" s="192"/>
       <c r="C10" s="35" t="s">
         <v>24</v>
       </c>
@@ -6181,8 +6218,8 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="178"/>
-      <c r="B11" s="173"/>
+      <c r="A11" s="198"/>
+      <c r="B11" s="193"/>
       <c r="C11" s="45" t="s">
         <v>25</v>
       </c>
@@ -6230,7 +6267,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="183" t="s">
+      <c r="A12" s="203" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="56" t="s">
@@ -6284,7 +6321,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="50" t="s">
         <v>159</v>
       </c>
@@ -6336,7 +6373,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="50" t="s">
         <v>151</v>
       </c>
@@ -6388,7 +6425,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="184"/>
+      <c r="A15" s="204"/>
       <c r="B15" s="50" t="s">
         <v>151</v>
       </c>
@@ -6436,7 +6473,7 @@
       <c r="R15" s="62"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="184"/>
+      <c r="A16" s="204"/>
       <c r="B16" s="50" t="s">
         <v>151</v>
       </c>
@@ -6486,7 +6523,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
+      <c r="A17" s="204"/>
       <c r="B17" s="50" t="s">
         <v>151</v>
       </c>
@@ -6538,7 +6575,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="204"/>
       <c r="B18" s="50" t="s">
         <v>151</v>
       </c>
@@ -6588,7 +6625,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="184"/>
+      <c r="A19" s="204"/>
       <c r="B19" s="50" t="s">
         <v>151</v>
       </c>
@@ -6636,7 +6673,7 @@
       <c r="R19" s="62"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="184"/>
+      <c r="A20" s="204"/>
       <c r="B20" s="50" t="s">
         <v>151</v>
       </c>
@@ -6684,7 +6721,7 @@
       <c r="R20" s="62"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
+      <c r="A21" s="204"/>
       <c r="B21" s="50" t="s">
         <v>151</v>
       </c>
@@ -6734,8 +6771,8 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
-      <c r="B22" s="182" t="s">
+      <c r="A22" s="204"/>
+      <c r="B22" s="202" t="s">
         <v>161</v>
       </c>
       <c r="C22" s="51" t="s">
@@ -6784,8 +6821,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="184"/>
-      <c r="B23" s="190"/>
+      <c r="A23" s="204"/>
+      <c r="B23" s="208"/>
       <c r="C23" s="117" t="s">
         <v>245</v>
       </c>
@@ -6830,8 +6867,8 @@
       <c r="R23" s="62"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="184"/>
-      <c r="B24" s="190"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="208"/>
       <c r="C24" s="51" t="s">
         <v>246</v>
       </c>
@@ -6878,8 +6915,8 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
-      <c r="B25" s="190"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="208"/>
       <c r="C25" s="129" t="s">
         <v>293</v>
       </c>
@@ -6924,8 +6961,8 @@
       <c r="R25" s="62"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
-      <c r="B26" s="190"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="208"/>
       <c r="C26" s="136" t="s">
         <v>294</v>
       </c>
@@ -6970,8 +7007,8 @@
       <c r="R26" s="62"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="184"/>
-      <c r="B27" s="190"/>
+      <c r="A27" s="204"/>
+      <c r="B27" s="208"/>
       <c r="C27" s="157" t="s">
         <v>347</v>
       </c>
@@ -7016,8 +7053,8 @@
       <c r="R27" s="62"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="184"/>
-      <c r="B28" s="191"/>
+      <c r="A28" s="204"/>
+      <c r="B28" s="209"/>
       <c r="C28" s="117" t="s">
         <v>247</v>
       </c>
@@ -7062,7 +7099,7 @@
       <c r="R28" s="62"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
+      <c r="A29" s="204"/>
       <c r="B29" s="50" t="s">
         <v>158</v>
       </c>
@@ -7112,7 +7149,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
+      <c r="A30" s="204"/>
       <c r="B30" s="50" t="s">
         <v>345</v>
       </c>
@@ -7160,8 +7197,8 @@
       <c r="R30" s="62"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="184"/>
-      <c r="B31" s="181" t="s">
+      <c r="A31" s="204"/>
+      <c r="B31" s="201" t="s">
         <v>175</v>
       </c>
       <c r="C31" s="51" t="s">
@@ -7210,8 +7247,8 @@
       <c r="R31" s="62"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="185"/>
-      <c r="B32" s="182"/>
+      <c r="A32" s="205"/>
+      <c r="B32" s="202"/>
       <c r="C32" s="130" t="s">
         <v>362</v>
       </c>
@@ -7258,8 +7295,8 @@
       <c r="R32" s="67"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="185"/>
-      <c r="B33" s="182"/>
+      <c r="A33" s="205"/>
+      <c r="B33" s="202"/>
       <c r="C33" s="158" t="s">
         <v>348</v>
       </c>
@@ -7304,8 +7341,8 @@
       <c r="R33" s="67"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="185"/>
-      <c r="B34" s="182"/>
+      <c r="A34" s="205"/>
+      <c r="B34" s="202"/>
       <c r="C34" s="130" t="s">
         <v>281</v>
       </c>
@@ -7350,8 +7387,8 @@
       <c r="R34" s="67"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="185"/>
-      <c r="B35" s="182"/>
+      <c r="A35" s="205"/>
+      <c r="B35" s="202"/>
       <c r="C35" s="155" t="s">
         <v>336</v>
       </c>
@@ -7400,8 +7437,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="185"/>
-      <c r="B36" s="182"/>
+      <c r="A36" s="205"/>
+      <c r="B36" s="202"/>
       <c r="C36" s="63" t="s">
         <v>186</v>
       </c>
@@ -7448,10 +7485,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="174" t="s">
+      <c r="A37" s="194" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="179" t="s">
+      <c r="B37" s="199" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="73" t="s">
@@ -7509,8 +7546,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="175"/>
-      <c r="B38" s="180"/>
+      <c r="A38" s="195"/>
+      <c r="B38" s="200"/>
       <c r="C38" s="68" t="s">
         <v>34</v>
       </c>
@@ -7560,8 +7597,8 @@
       <c r="S38" s="10"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="175"/>
-      <c r="B39" s="180"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="200"/>
       <c r="C39" s="137" t="s">
         <v>200</v>
       </c>
@@ -7607,8 +7644,8 @@
       <c r="S39" s="10"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="175"/>
-      <c r="B40" s="180"/>
+      <c r="A40" s="195"/>
+      <c r="B40" s="200"/>
       <c r="C40" s="137" t="s">
         <v>201</v>
       </c>
@@ -7654,8 +7691,8 @@
       <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="175"/>
-      <c r="B41" s="180"/>
+      <c r="A41" s="195"/>
+      <c r="B41" s="200"/>
       <c r="C41" s="137" t="s">
         <v>342</v>
       </c>
@@ -7705,8 +7742,8 @@
       <c r="S41" s="10"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="175"/>
-      <c r="B42" s="180"/>
+      <c r="A42" s="195"/>
+      <c r="B42" s="200"/>
       <c r="C42" s="137" t="s">
         <v>321</v>
       </c>
@@ -7752,8 +7789,8 @@
       <c r="S42" s="10"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="175"/>
-      <c r="B43" s="180"/>
+      <c r="A43" s="195"/>
+      <c r="B43" s="200"/>
       <c r="C43" s="156" t="s">
         <v>370</v>
       </c>
@@ -7803,8 +7840,8 @@
       <c r="S43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="175"/>
-      <c r="B44" s="180"/>
+      <c r="A44" s="195"/>
+      <c r="B44" s="200"/>
       <c r="C44" s="163" t="s">
         <v>369</v>
       </c>
@@ -7850,8 +7887,8 @@
       <c r="S44" s="10"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="175"/>
-      <c r="B45" s="180"/>
+      <c r="A45" s="195"/>
+      <c r="B45" s="200"/>
       <c r="C45" s="68" t="s">
         <v>29</v>
       </c>
@@ -7907,8 +7944,8 @@
       <c r="S45" s="12"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="175"/>
-      <c r="B46" s="180"/>
+      <c r="A46" s="195"/>
+      <c r="B46" s="200"/>
       <c r="C46" s="68" t="s">
         <v>44</v>
       </c>
@@ -7960,8 +7997,8 @@
       <c r="S46" s="9"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="175"/>
-      <c r="B47" s="180"/>
+      <c r="A47" s="195"/>
+      <c r="B47" s="200"/>
       <c r="C47" s="127" t="s">
         <v>267</v>
       </c>
@@ -8007,8 +8044,8 @@
       <c r="S47" s="9"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="175"/>
-      <c r="B48" s="180"/>
+      <c r="A48" s="195"/>
+      <c r="B48" s="200"/>
       <c r="C48" s="68" t="s">
         <v>268</v>
       </c>
@@ -8060,8 +8097,8 @@
       <c r="S48" s="9"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="175"/>
-      <c r="B49" s="188" t="s">
+      <c r="A49" s="195"/>
+      <c r="B49" s="174" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="137" t="s">
@@ -8109,8 +8146,8 @@
       <c r="S49" s="9"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="175"/>
-      <c r="B50" s="189"/>
+      <c r="A50" s="195"/>
+      <c r="B50" s="175"/>
       <c r="C50" s="137" t="s">
         <v>279</v>
       </c>
@@ -8156,8 +8193,8 @@
       <c r="S50" s="9"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="175"/>
-      <c r="B51" s="189"/>
+      <c r="A51" s="195"/>
+      <c r="B51" s="175"/>
       <c r="C51" s="156" t="s">
         <v>357</v>
       </c>
@@ -8203,8 +8240,8 @@
       <c r="S51" s="9"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="175"/>
-      <c r="B52" s="192"/>
+      <c r="A52" s="195"/>
+      <c r="B52" s="176"/>
       <c r="C52" s="137" t="s">
         <v>276</v>
       </c>
@@ -8245,8 +8282,8 @@
       <c r="S52" s="9"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="175"/>
-      <c r="B53" s="188" t="s">
+      <c r="A53" s="195"/>
+      <c r="B53" s="174" t="s">
         <v>178</v>
       </c>
       <c r="C53" s="68" t="s">
@@ -8299,8 +8336,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="175"/>
-      <c r="B54" s="189"/>
+      <c r="A54" s="195"/>
+      <c r="B54" s="175"/>
       <c r="C54" s="154" t="s">
         <v>331</v>
       </c>
@@ -8347,8 +8384,8 @@
       <c r="R54" s="78"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="175"/>
-      <c r="B55" s="189"/>
+      <c r="A55" s="195"/>
+      <c r="B55" s="175"/>
       <c r="C55" s="163" t="s">
         <v>372</v>
       </c>
@@ -8393,8 +8430,8 @@
       <c r="R55" s="78"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="175"/>
-      <c r="B56" s="189"/>
+      <c r="A56" s="195"/>
+      <c r="B56" s="175"/>
       <c r="C56" s="163" t="s">
         <v>371</v>
       </c>
@@ -8439,8 +8476,8 @@
       <c r="R56" s="78"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="175"/>
-      <c r="B57" s="189"/>
+      <c r="A57" s="195"/>
+      <c r="B57" s="175"/>
       <c r="C57" s="127" t="s">
         <v>277</v>
       </c>
@@ -8489,8 +8526,8 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="175"/>
-      <c r="B58" s="189"/>
+      <c r="A58" s="195"/>
+      <c r="B58" s="175"/>
       <c r="C58" s="163" t="s">
         <v>368</v>
       </c>
@@ -8535,8 +8572,8 @@
       <c r="R58" s="78"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="175"/>
-      <c r="B59" s="189"/>
+      <c r="A59" s="195"/>
+      <c r="B59" s="175"/>
       <c r="C59" s="68" t="s">
         <v>255</v>
       </c>
@@ -8581,8 +8618,8 @@
       <c r="R59" s="78"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="175"/>
-      <c r="B60" s="189"/>
+      <c r="A60" s="195"/>
+      <c r="B60" s="175"/>
       <c r="C60" s="128" t="s">
         <v>288</v>
       </c>
@@ -8627,8 +8664,8 @@
       <c r="R60" s="78"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="175"/>
-      <c r="B61" s="189"/>
+      <c r="A61" s="195"/>
+      <c r="B61" s="175"/>
       <c r="C61" s="156" t="s">
         <v>359</v>
       </c>
@@ -8673,8 +8710,8 @@
       <c r="R61" s="78"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="175"/>
-      <c r="B62" s="189"/>
+      <c r="A62" s="195"/>
+      <c r="B62" s="175"/>
       <c r="C62" s="68" t="s">
         <v>256</v>
       </c>
@@ -8725,8 +8762,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="175"/>
-      <c r="B63" s="189"/>
+      <c r="A63" s="195"/>
+      <c r="B63" s="175"/>
       <c r="C63" s="128" t="s">
         <v>282</v>
       </c>
@@ -8771,8 +8808,8 @@
       <c r="R63" s="78"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="175"/>
-      <c r="B64" s="189"/>
+      <c r="A64" s="195"/>
+      <c r="B64" s="175"/>
       <c r="C64" s="68" t="s">
         <v>257</v>
       </c>
@@ -8823,8 +8860,8 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A65" s="175"/>
-      <c r="B65" s="189"/>
+      <c r="A65" s="195"/>
+      <c r="B65" s="175"/>
       <c r="C65" s="68" t="s">
         <v>182</v>
       </c>
@@ -8876,8 +8913,8 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="175"/>
-      <c r="B66" s="189"/>
+      <c r="A66" s="195"/>
+      <c r="B66" s="175"/>
       <c r="C66" s="68" t="s">
         <v>258</v>
       </c>
@@ -8929,8 +8966,8 @@
       <c r="S66" s="12"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="175"/>
-      <c r="B67" s="189"/>
+      <c r="A67" s="195"/>
+      <c r="B67" s="175"/>
       <c r="C67" s="68" t="s">
         <v>259</v>
       </c>
@@ -8986,8 +9023,8 @@
       <c r="S67" s="12"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="175"/>
-      <c r="B68" s="189"/>
+      <c r="A68" s="195"/>
+      <c r="B68" s="175"/>
       <c r="C68" s="68" t="s">
         <v>209</v>
       </c>
@@ -9037,8 +9074,8 @@
       <c r="S68" s="12"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="175"/>
-      <c r="B69" s="189"/>
+      <c r="A69" s="195"/>
+      <c r="B69" s="175"/>
       <c r="C69" s="68" t="s">
         <v>210</v>
       </c>
@@ -9088,8 +9125,8 @@
       <c r="S69" s="12"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="175"/>
-      <c r="B70" s="189"/>
+      <c r="A70" s="195"/>
+      <c r="B70" s="175"/>
       <c r="C70" s="135" t="s">
         <v>299</v>
       </c>
@@ -9135,8 +9172,8 @@
       <c r="S70" s="12"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="175"/>
-      <c r="B71" s="189"/>
+      <c r="A71" s="195"/>
+      <c r="B71" s="175"/>
       <c r="C71" s="68" t="s">
         <v>214</v>
       </c>
@@ -9192,8 +9229,8 @@
       <c r="S71" s="12"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="175"/>
-      <c r="B72" s="188" t="s">
+      <c r="A72" s="195"/>
+      <c r="B72" s="174" t="s">
         <v>212</v>
       </c>
       <c r="C72" s="68" t="s">
@@ -9245,8 +9282,8 @@
       <c r="S72" s="12"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="175"/>
-      <c r="B73" s="189"/>
+      <c r="A73" s="195"/>
+      <c r="B73" s="175"/>
       <c r="C73" s="154" t="s">
         <v>333</v>
       </c>
@@ -9294,8 +9331,8 @@
       <c r="S73" s="12"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="175"/>
-      <c r="B74" s="189"/>
+      <c r="A74" s="195"/>
+      <c r="B74" s="175"/>
       <c r="C74" s="156" t="s">
         <v>361</v>
       </c>
@@ -9341,8 +9378,8 @@
       <c r="S74" s="12"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="175"/>
-      <c r="B75" s="189"/>
+      <c r="A75" s="195"/>
+      <c r="B75" s="175"/>
       <c r="C75" s="68" t="s">
         <v>213</v>
       </c>
@@ -9388,8 +9425,8 @@
       <c r="S75" s="12"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="175"/>
-      <c r="B76" s="189"/>
+      <c r="A76" s="195"/>
+      <c r="B76" s="175"/>
       <c r="C76" s="154" t="s">
         <v>334</v>
       </c>
@@ -9439,8 +9476,8 @@
       <c r="S76" s="12"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="175"/>
-      <c r="B77" s="192"/>
+      <c r="A77" s="195"/>
+      <c r="B77" s="176"/>
       <c r="C77" s="68" t="s">
         <v>290</v>
       </c>
@@ -9490,8 +9527,8 @@
       <c r="S77" s="12"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" s="175"/>
-      <c r="B78" s="188" t="s">
+      <c r="A78" s="195"/>
+      <c r="B78" s="174" t="s">
         <v>170</v>
       </c>
       <c r="C78" s="68" t="s">
@@ -9547,8 +9584,8 @@
       <c r="S78" s="12"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="175"/>
-      <c r="B79" s="189"/>
+      <c r="A79" s="195"/>
+      <c r="B79" s="175"/>
       <c r="C79" s="68" t="s">
         <v>251</v>
       </c>
@@ -9602,8 +9639,8 @@
       <c r="S79" s="9"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="175"/>
-      <c r="B80" s="189"/>
+      <c r="A80" s="195"/>
+      <c r="B80" s="175"/>
       <c r="C80" s="156" t="s">
         <v>343</v>
       </c>
@@ -9653,8 +9690,8 @@
       <c r="S80" s="9"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" s="175"/>
-      <c r="B81" s="189"/>
+      <c r="A81" s="195"/>
+      <c r="B81" s="175"/>
       <c r="C81" s="116" t="s">
         <v>248</v>
       </c>
@@ -9704,8 +9741,8 @@
       <c r="S81" s="9"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="175"/>
-      <c r="B82" s="189"/>
+      <c r="A82" s="195"/>
+      <c r="B82" s="175"/>
       <c r="C82" s="116" t="s">
         <v>249</v>
       </c>
@@ -9759,8 +9796,8 @@
       <c r="S82" s="9"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" s="175"/>
-      <c r="B83" s="189"/>
+      <c r="A83" s="195"/>
+      <c r="B83" s="175"/>
       <c r="C83" s="135" t="s">
         <v>307</v>
       </c>
@@ -9806,8 +9843,8 @@
       <c r="S83" s="9"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" s="175"/>
-      <c r="B84" s="189"/>
+      <c r="A84" s="195"/>
+      <c r="B84" s="175"/>
       <c r="C84" s="127" t="s">
         <v>364</v>
       </c>
@@ -9858,8 +9895,8 @@
       <c r="S84" s="9"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85" s="175"/>
-      <c r="B85" s="189"/>
+      <c r="A85" s="195"/>
+      <c r="B85" s="175"/>
       <c r="C85" s="135" t="s">
         <v>303</v>
       </c>
@@ -9905,8 +9942,8 @@
       <c r="S85" s="9"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" s="175"/>
-      <c r="B86" s="189"/>
+      <c r="A86" s="195"/>
+      <c r="B86" s="175"/>
       <c r="C86" s="135" t="s">
         <v>304</v>
       </c>
@@ -9952,8 +9989,8 @@
       <c r="S86" s="9"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" s="175"/>
-      <c r="B87" s="189"/>
+      <c r="A87" s="195"/>
+      <c r="B87" s="175"/>
       <c r="C87" s="135" t="s">
         <v>305</v>
       </c>
@@ -9999,8 +10036,8 @@
       <c r="S87" s="9"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88" s="175"/>
-      <c r="B88" s="189"/>
+      <c r="A88" s="195"/>
+      <c r="B88" s="175"/>
       <c r="C88" s="135" t="s">
         <v>306</v>
       </c>
@@ -10046,8 +10083,8 @@
       <c r="S88" s="9"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" s="175"/>
-      <c r="B89" s="189"/>
+      <c r="A89" s="195"/>
+      <c r="B89" s="175"/>
       <c r="C89" s="148" t="s">
         <v>324</v>
       </c>
@@ -10093,8 +10130,8 @@
       <c r="S89" s="9"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" s="175"/>
-      <c r="B90" s="189"/>
+      <c r="A90" s="195"/>
+      <c r="B90" s="175"/>
       <c r="C90" s="163" t="s">
         <v>365</v>
       </c>
@@ -10140,8 +10177,8 @@
       <c r="S90" s="9"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="175"/>
-      <c r="B91" s="189"/>
+      <c r="A91" s="195"/>
+      <c r="B91" s="175"/>
       <c r="C91" s="156" t="s">
         <v>353</v>
       </c>
@@ -10187,8 +10224,8 @@
       <c r="S91" s="9"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="175"/>
-      <c r="B92" s="192"/>
+      <c r="A92" s="195"/>
+      <c r="B92" s="176"/>
       <c r="C92" s="118" t="s">
         <v>252</v>
       </c>
@@ -10234,8 +10271,8 @@
       <c r="S92" s="9"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A93" s="175"/>
-      <c r="B93" s="188" t="s">
+      <c r="A93" s="195"/>
+      <c r="B93" s="174" t="s">
         <v>316</v>
       </c>
       <c r="C93" s="156" t="s">
@@ -10287,8 +10324,8 @@
       <c r="S93" s="9"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="175"/>
-      <c r="B94" s="189"/>
+      <c r="A94" s="195"/>
+      <c r="B94" s="175"/>
       <c r="C94" s="156" t="s">
         <v>351</v>
       </c>
@@ -10334,8 +10371,8 @@
       <c r="S94" s="9"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" s="175"/>
-      <c r="B95" s="189"/>
+      <c r="A95" s="195"/>
+      <c r="B95" s="175"/>
       <c r="C95" s="156" t="s">
         <v>352</v>
       </c>
@@ -10381,8 +10418,8 @@
       <c r="S95" s="9"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" s="175"/>
-      <c r="B96" s="189"/>
+      <c r="A96" s="195"/>
+      <c r="B96" s="175"/>
       <c r="C96" s="68" t="s">
         <v>270</v>
       </c>
@@ -10432,8 +10469,8 @@
       <c r="S96" s="9"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A97" s="176"/>
-      <c r="B97" s="189"/>
+      <c r="A97" s="196"/>
+      <c r="B97" s="175"/>
       <c r="C97" s="125" t="s">
         <v>271</v>
       </c>
@@ -10481,8 +10518,8 @@
       <c r="S97" s="9"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A98" s="176"/>
-      <c r="B98" s="189"/>
+      <c r="A98" s="196"/>
+      <c r="B98" s="175"/>
       <c r="C98" s="144" t="s">
         <v>318</v>
       </c>
@@ -10532,8 +10569,8 @@
       <c r="S98" s="9"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A99" s="176"/>
-      <c r="B99" s="189"/>
+      <c r="A99" s="196"/>
+      <c r="B99" s="175"/>
       <c r="C99" s="141" t="s">
         <v>314</v>
       </c>
@@ -10581,8 +10618,8 @@
       <c r="S99" s="9"/>
     </row>
     <row r="100" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="176"/>
-      <c r="B100" s="193"/>
+      <c r="A100" s="196"/>
+      <c r="B100" s="210"/>
       <c r="C100" s="79" t="s">
         <v>269</v>
       </c>
@@ -10632,10 +10669,10 @@
       <c r="S100" s="9"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A101" s="196" t="s">
+      <c r="A101" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="B101" s="200" t="s">
+      <c r="B101" s="181" t="s">
         <v>189</v>
       </c>
       <c r="C101" s="88" t="s">
@@ -10690,8 +10727,8 @@
       </c>
     </row>
     <row r="102" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="197"/>
-      <c r="B102" s="201"/>
+      <c r="A102" s="178"/>
+      <c r="B102" s="182"/>
       <c r="C102" s="84" t="s">
         <v>169</v>
       </c>
@@ -10729,7 +10766,7 @@
         <v>1000</v>
       </c>
       <c r="O102" s="86">
-        <f t="shared" ref="O102:O148" si="4">N102-M102</f>
+        <f t="shared" ref="O102:O151" si="4">N102-M102</f>
         <v>300</v>
       </c>
       <c r="P102" s="87">
@@ -10744,8 +10781,8 @@
       <c r="T102"/>
     </row>
     <row r="103" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="197"/>
-      <c r="B103" s="201" t="s">
+      <c r="A103" s="178"/>
+      <c r="B103" s="182" t="s">
         <v>190</v>
       </c>
       <c r="C103" s="84" t="s">
@@ -10798,8 +10835,8 @@
       <c r="T103"/>
     </row>
     <row r="104" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="197"/>
-      <c r="B104" s="201"/>
+      <c r="A104" s="178"/>
+      <c r="B104" s="182"/>
       <c r="C104" s="126" t="s">
         <v>275</v>
       </c>
@@ -10846,8 +10883,8 @@
       <c r="T104"/>
     </row>
     <row r="105" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="197"/>
-      <c r="B105" s="201"/>
+      <c r="A105" s="178"/>
+      <c r="B105" s="182"/>
       <c r="C105" s="126" t="s">
         <v>295</v>
       </c>
@@ -10898,8 +10935,8 @@
       <c r="T105"/>
     </row>
     <row r="106" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="197"/>
-      <c r="B106" s="201"/>
+      <c r="A106" s="178"/>
+      <c r="B106" s="182"/>
       <c r="C106" s="84" t="s">
         <v>172</v>
       </c>
@@ -10952,8 +10989,8 @@
       <c r="T106"/>
     </row>
     <row r="107" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="197"/>
-      <c r="B107" s="201"/>
+      <c r="A107" s="178"/>
+      <c r="B107" s="182"/>
       <c r="C107" s="84" t="s">
         <v>173</v>
       </c>
@@ -11006,8 +11043,8 @@
       <c r="T107"/>
     </row>
     <row r="108" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="197"/>
-      <c r="B108" s="201"/>
+      <c r="A108" s="178"/>
+      <c r="B108" s="182"/>
       <c r="C108" s="119" t="s">
         <v>253</v>
       </c>
@@ -11058,8 +11095,8 @@
       <c r="T108"/>
     </row>
     <row r="109" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="197"/>
-      <c r="B109" s="201"/>
+      <c r="A109" s="178"/>
+      <c r="B109" s="182"/>
       <c r="C109" s="84" t="s">
         <v>191</v>
       </c>
@@ -11110,8 +11147,8 @@
       <c r="T109"/>
     </row>
     <row r="110" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="197"/>
-      <c r="B110" s="201"/>
+      <c r="A110" s="178"/>
+      <c r="B110" s="182"/>
       <c r="C110" s="121" t="s">
         <v>261</v>
       </c>
@@ -11158,8 +11195,8 @@
       <c r="T110"/>
     </row>
     <row r="111" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="197"/>
-      <c r="B111" s="201"/>
+      <c r="A111" s="178"/>
+      <c r="B111" s="182"/>
       <c r="C111" s="131" t="s">
         <v>285</v>
       </c>
@@ -11206,8 +11243,8 @@
       <c r="T111"/>
     </row>
     <row r="112" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="197"/>
-      <c r="B112" s="201"/>
+      <c r="A112" s="178"/>
+      <c r="B112" s="182"/>
       <c r="C112" s="131" t="s">
         <v>286</v>
       </c>
@@ -11254,8 +11291,8 @@
       <c r="T112"/>
     </row>
     <row r="113" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="197"/>
-      <c r="B113" s="201"/>
+      <c r="A113" s="178"/>
+      <c r="B113" s="182"/>
       <c r="C113" s="134" t="s">
         <v>300</v>
       </c>
@@ -11302,8 +11339,8 @@
       <c r="T113"/>
     </row>
     <row r="114" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="197"/>
-      <c r="B114" s="201"/>
+      <c r="A114" s="178"/>
+      <c r="B114" s="182"/>
       <c r="C114" s="131" t="s">
         <v>291</v>
       </c>
@@ -11350,8 +11387,8 @@
       <c r="T114"/>
     </row>
     <row r="115" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="197"/>
-      <c r="B115" s="201"/>
+      <c r="A115" s="178"/>
+      <c r="B115" s="182"/>
       <c r="C115" s="134" t="s">
         <v>297</v>
       </c>
@@ -11398,8 +11435,8 @@
       <c r="T115"/>
     </row>
     <row r="116" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="197"/>
-      <c r="B116" s="201"/>
+      <c r="A116" s="178"/>
+      <c r="B116" s="182"/>
       <c r="C116" s="134" t="s">
         <v>298</v>
       </c>
@@ -11446,8 +11483,8 @@
       <c r="T116"/>
     </row>
     <row r="117" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="197"/>
-      <c r="B117" s="201"/>
+      <c r="A117" s="178"/>
+      <c r="B117" s="182"/>
       <c r="C117" s="150" t="s">
         <v>325</v>
       </c>
@@ -11494,8 +11531,8 @@
       <c r="T117"/>
     </row>
     <row r="118" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="197"/>
-      <c r="B118" s="201"/>
+      <c r="A118" s="178"/>
+      <c r="B118" s="182"/>
       <c r="C118" s="134" t="s">
         <v>302</v>
       </c>
@@ -11542,8 +11579,8 @@
       <c r="T118"/>
     </row>
     <row r="119" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="197"/>
-      <c r="B119" s="201"/>
+      <c r="A119" s="178"/>
+      <c r="B119" s="182"/>
       <c r="C119" s="121" t="s">
         <v>262</v>
       </c>
@@ -11590,8 +11627,8 @@
       <c r="T119"/>
     </row>
     <row r="120" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="197"/>
-      <c r="B120" s="201"/>
+      <c r="A120" s="178"/>
+      <c r="B120" s="182"/>
       <c r="C120" s="134" t="s">
         <v>301</v>
       </c>
@@ -11638,8 +11675,8 @@
       <c r="T120"/>
     </row>
     <row r="121" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="197"/>
-      <c r="B121" s="201"/>
+      <c r="A121" s="178"/>
+      <c r="B121" s="182"/>
       <c r="C121" s="150" t="s">
         <v>326</v>
       </c>
@@ -11686,8 +11723,8 @@
       <c r="T121"/>
     </row>
     <row r="122" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="197"/>
-      <c r="B122" s="201"/>
+      <c r="A122" s="178"/>
+      <c r="B122" s="182"/>
       <c r="C122" s="159" t="s">
         <v>354</v>
       </c>
@@ -11734,8 +11771,8 @@
       <c r="T122"/>
     </row>
     <row r="123" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="197"/>
-      <c r="B123" s="201"/>
+      <c r="A123" s="178"/>
+      <c r="B123" s="182"/>
       <c r="C123" s="159" t="s">
         <v>356</v>
       </c>
@@ -11782,8 +11819,8 @@
       <c r="T123"/>
     </row>
     <row r="124" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="197"/>
-      <c r="B124" s="201"/>
+      <c r="A124" s="178"/>
+      <c r="B124" s="182"/>
       <c r="C124" s="159" t="s">
         <v>355</v>
       </c>
@@ -11830,8 +11867,8 @@
       <c r="T124"/>
     </row>
     <row r="125" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="197"/>
-      <c r="B125" s="201"/>
+      <c r="A125" s="178"/>
+      <c r="B125" s="182"/>
       <c r="C125" s="84" t="s">
         <v>174</v>
       </c>
@@ -11882,8 +11919,8 @@
       <c r="T125"/>
     </row>
     <row r="126" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="198"/>
-      <c r="B126" s="207"/>
+      <c r="A126" s="179"/>
+      <c r="B126" s="188"/>
       <c r="C126" s="153" t="s">
         <v>283</v>
       </c>
@@ -11932,8 +11969,8 @@
       <c r="T126"/>
     </row>
     <row r="127" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="198"/>
-      <c r="B127" s="207"/>
+      <c r="A127" s="179"/>
+      <c r="B127" s="188"/>
       <c r="C127" s="133" t="s">
         <v>287</v>
       </c>
@@ -11980,8 +12017,8 @@
       <c r="T127"/>
     </row>
     <row r="128" spans="1:20" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="199"/>
-      <c r="B128" s="208"/>
+      <c r="A128" s="180"/>
+      <c r="B128" s="189"/>
       <c r="C128" s="113" t="s">
         <v>237</v>
       </c>
@@ -12038,10 +12075,10 @@
       <c r="T128"/>
     </row>
     <row r="129" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="202" t="s">
+      <c r="A129" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="B129" s="205" t="s">
+      <c r="B129" s="212" t="s">
         <v>3</v>
       </c>
       <c r="C129" s="112" t="s">
@@ -12059,12 +12096,12 @@
       <c r="I129" s="108"/>
       <c r="J129" s="108"/>
       <c r="K129" s="99">
-        <f t="shared" ref="K129:K148" si="7">I129*J129</f>
+        <f t="shared" ref="K129:K151" si="7">I129*J129</f>
         <v>0</v>
       </c>
       <c r="L129" s="108"/>
       <c r="M129" s="108">
-        <f t="shared" ref="M129:M148" si="8">K129*G129</f>
+        <f t="shared" ref="M129:M151" si="8">K129*G129</f>
         <v>0</v>
       </c>
       <c r="N129" s="108">
@@ -12086,8 +12123,8 @@
       <c r="T129"/>
     </row>
     <row r="130" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="203"/>
-      <c r="B130" s="206"/>
+      <c r="A130" s="184"/>
+      <c r="B130" s="173"/>
       <c r="C130" s="98" t="s">
         <v>203</v>
       </c>
@@ -12136,8 +12173,8 @@
       <c r="T130"/>
     </row>
     <row r="131" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="203"/>
-      <c r="B131" s="206"/>
+      <c r="A131" s="184"/>
+      <c r="B131" s="173"/>
       <c r="C131" s="98" t="s">
         <v>204</v>
       </c>
@@ -12177,8 +12214,8 @@
       <c r="T131"/>
     </row>
     <row r="132" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="203"/>
-      <c r="B132" s="206"/>
+      <c r="A132" s="184"/>
+      <c r="B132" s="173"/>
       <c r="C132" s="98" t="s">
         <v>206</v>
       </c>
@@ -12218,8 +12255,8 @@
       <c r="T132"/>
     </row>
     <row r="133" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="203"/>
-      <c r="B133" s="206"/>
+      <c r="A133" s="184"/>
+      <c r="B133" s="173"/>
       <c r="C133" s="98" t="s">
         <v>205</v>
       </c>
@@ -12232,27 +12269,33 @@
       <c r="H133" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="I133" s="98"/>
-      <c r="J133" s="98"/>
+      <c r="I133" s="98">
+        <v>959</v>
+      </c>
+      <c r="J133" s="98">
+        <v>1</v>
+      </c>
       <c r="K133" s="99">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L133" s="98"/>
+        <v>959</v>
+      </c>
+      <c r="L133" s="98">
+        <v>0</v>
+      </c>
       <c r="M133" s="98">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="N133" s="98">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O133" s="100">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="P133" s="101">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q133" s="100"/>
       <c r="R133" s="102" t="s">
@@ -12262,250 +12305,252 @@
       <c r="T133"/>
     </row>
     <row r="134" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="203"/>
-      <c r="B134" s="194" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="D134" s="98"/>
-      <c r="E134" s="98"/>
-      <c r="F134" s="98"/>
-      <c r="G134" s="98">
-        <v>1</v>
-      </c>
-      <c r="H134" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="I134" s="98">
-        <v>3069</v>
-      </c>
-      <c r="J134" s="98">
+      <c r="A134" s="184"/>
+      <c r="B134" s="186"/>
+      <c r="C134" s="166" t="s">
+        <v>373</v>
+      </c>
+      <c r="D134" s="166"/>
+      <c r="E134" s="166"/>
+      <c r="F134" s="166"/>
+      <c r="G134" s="166">
+        <v>1</v>
+      </c>
+      <c r="H134" s="166" t="s">
+        <v>181</v>
+      </c>
+      <c r="I134" s="166">
+        <v>70</v>
+      </c>
+      <c r="J134" s="166">
         <v>1</v>
       </c>
       <c r="K134" s="99">
         <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="L134" s="166">
+        <v>0</v>
+      </c>
+      <c r="M134" s="166">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="N134" s="166">
+        <v>0</v>
+      </c>
+      <c r="O134" s="100">
+        <f t="shared" si="4"/>
+        <v>-70</v>
+      </c>
+      <c r="P134" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q134" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="R134" s="102"/>
+      <c r="S134"/>
+      <c r="T134"/>
+    </row>
+    <row r="135" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="184"/>
+      <c r="B135" s="172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="D135" s="98"/>
+      <c r="E135" s="98"/>
+      <c r="F135" s="98"/>
+      <c r="G135" s="98">
+        <v>1</v>
+      </c>
+      <c r="H135" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I135" s="98">
         <v>3069</v>
       </c>
-      <c r="L134" s="98">
-        <v>0</v>
-      </c>
-      <c r="M134" s="132">
+      <c r="J135" s="98">
+        <v>1</v>
+      </c>
+      <c r="K135" s="99">
+        <f t="shared" si="7"/>
+        <v>3069</v>
+      </c>
+      <c r="L135" s="98">
+        <v>0</v>
+      </c>
+      <c r="M135" s="132">
         <f t="shared" si="8"/>
         <v>3069</v>
       </c>
-      <c r="N134" s="98">
+      <c r="N135" s="98">
         <v>2000</v>
       </c>
-      <c r="O134" s="100">
+      <c r="O135" s="100">
         <f t="shared" si="4"/>
         <v>-1069</v>
       </c>
-      <c r="P134" s="101">
+      <c r="P135" s="101">
         <f t="shared" si="3"/>
         <v>0.53449999999999998</v>
       </c>
-      <c r="Q134" s="100"/>
-      <c r="R134" s="102" t="s">
+      <c r="Q135" s="100"/>
+      <c r="R135" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="S134"/>
-      <c r="T134"/>
-    </row>
-    <row r="135" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="203"/>
-      <c r="B135" s="205"/>
-      <c r="C135" s="147" t="s">
+      <c r="S135"/>
+      <c r="T135"/>
+    </row>
+    <row r="136" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="184"/>
+      <c r="B136" s="186"/>
+      <c r="C136" s="147" t="s">
         <v>323</v>
       </c>
-      <c r="D135" s="147"/>
-      <c r="E135" s="147"/>
-      <c r="F135" s="147"/>
-      <c r="G135" s="147">
-        <v>1</v>
-      </c>
-      <c r="H135" s="147" t="s">
+      <c r="D136" s="147"/>
+      <c r="E136" s="147"/>
+      <c r="F136" s="147"/>
+      <c r="G136" s="147">
+        <v>1</v>
+      </c>
+      <c r="H136" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="I135" s="147">
+      <c r="I136" s="147">
         <v>128</v>
       </c>
-      <c r="J135" s="147">
-        <v>1</v>
-      </c>
-      <c r="K135" s="99">
+      <c r="J136" s="147">
+        <v>1</v>
+      </c>
+      <c r="K136" s="99">
         <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="L135" s="147">
-        <v>0</v>
-      </c>
-      <c r="M135" s="147">
+      <c r="L136" s="147">
+        <v>0</v>
+      </c>
+      <c r="M136" s="147">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="N135" s="147">
-        <v>0</v>
-      </c>
-      <c r="O135" s="100">
+      <c r="N136" s="147">
+        <v>0</v>
+      </c>
+      <c r="O136" s="100">
         <f t="shared" si="4"/>
         <v>-128</v>
       </c>
-      <c r="P135" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q135" s="100"/>
-      <c r="R135" s="102"/>
-      <c r="S135"/>
-      <c r="T135"/>
-    </row>
-    <row r="136" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="203"/>
-      <c r="B136" s="194" t="s">
+      <c r="P136" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q136" s="100"/>
+      <c r="R136" s="102"/>
+      <c r="S136"/>
+      <c r="T136"/>
+    </row>
+    <row r="137" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="184"/>
+      <c r="B137" s="172" t="s">
         <v>208</v>
       </c>
-      <c r="C136" s="98" t="s">
+      <c r="C137" s="98" t="s">
         <v>317</v>
       </c>
-      <c r="D136" s="98"/>
-      <c r="E136" s="98"/>
-      <c r="F136" s="98"/>
-      <c r="G136" s="98">
-        <v>1</v>
-      </c>
-      <c r="H136" s="98" t="s">
+      <c r="D137" s="98"/>
+      <c r="E137" s="98"/>
+      <c r="F137" s="98"/>
+      <c r="G137" s="98">
+        <v>1</v>
+      </c>
+      <c r="H137" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="I136" s="98">
+      <c r="I137" s="98">
         <f>1967-174</f>
         <v>1793</v>
       </c>
-      <c r="J136" s="98">
-        <v>1</v>
-      </c>
-      <c r="K136" s="99">
+      <c r="J137" s="98">
+        <v>1</v>
+      </c>
+      <c r="K137" s="99">
         <f t="shared" si="7"/>
         <v>1793</v>
       </c>
-      <c r="L136" s="98">
-        <v>0</v>
-      </c>
-      <c r="M136" s="132">
+      <c r="L137" s="98">
+        <v>0</v>
+      </c>
+      <c r="M137" s="132">
         <f t="shared" si="8"/>
         <v>1793</v>
       </c>
-      <c r="N136" s="98">
+      <c r="N137" s="98">
         <v>3000</v>
       </c>
-      <c r="O136" s="100">
+      <c r="O137" s="100">
         <f t="shared" si="4"/>
         <v>1207</v>
       </c>
-      <c r="P136" s="101">
+      <c r="P137" s="101">
         <f t="shared" si="3"/>
         <v>0.40233333333333332</v>
       </c>
-      <c r="Q136" s="100" t="s">
+      <c r="Q137" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="R136" s="102" t="s">
+      <c r="R137" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="S136"/>
-      <c r="T136"/>
-    </row>
-    <row r="137" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="203"/>
-      <c r="B137" s="195"/>
-      <c r="C137" s="160" t="s">
+      <c r="S137"/>
+      <c r="T137"/>
+    </row>
+    <row r="138" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="184"/>
+      <c r="B138" s="173"/>
+      <c r="C138" s="160" t="s">
         <v>360</v>
       </c>
-      <c r="D137" s="160"/>
-      <c r="E137" s="160"/>
-      <c r="F137" s="160"/>
-      <c r="G137" s="160">
-        <v>1</v>
-      </c>
-      <c r="H137" s="160" t="s">
+      <c r="D138" s="160"/>
+      <c r="E138" s="160"/>
+      <c r="F138" s="160"/>
+      <c r="G138" s="160">
+        <v>1</v>
+      </c>
+      <c r="H138" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="I137" s="160">
+      <c r="I138" s="160">
         <v>69</v>
       </c>
-      <c r="J137" s="160">
-        <v>1</v>
-      </c>
-      <c r="K137" s="99">
+      <c r="J138" s="160">
+        <v>1</v>
+      </c>
+      <c r="K138" s="99">
         <f t="shared" si="7"/>
         <v>69</v>
       </c>
-      <c r="L137" s="160">
-        <v>0</v>
-      </c>
-      <c r="M137" s="160">
+      <c r="L138" s="160">
+        <v>0</v>
+      </c>
+      <c r="M138" s="160">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
-      <c r="N137" s="160">
-        <v>0</v>
-      </c>
-      <c r="O137" s="100">
+      <c r="N138" s="160">
+        <v>0</v>
+      </c>
+      <c r="O138" s="100">
         <f t="shared" si="4"/>
         <v>-69</v>
       </c>
-      <c r="P137" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q137" s="100"/>
-      <c r="R137" s="102"/>
-      <c r="S137"/>
-      <c r="T137"/>
-    </row>
-    <row r="138" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="203"/>
-      <c r="B138" s="195"/>
-      <c r="C138" s="98" t="s">
-        <v>289</v>
-      </c>
-      <c r="D138" s="98"/>
-      <c r="E138" s="98"/>
-      <c r="F138" s="98"/>
-      <c r="G138" s="98">
-        <v>19</v>
-      </c>
-      <c r="H138" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="I138" s="98">
-        <v>20.8</v>
-      </c>
-      <c r="J138" s="98">
-        <v>0.8</v>
-      </c>
-      <c r="K138" s="99">
-        <f t="shared" si="7"/>
-        <v>16.64</v>
-      </c>
-      <c r="L138" s="98">
-        <v>0</v>
-      </c>
-      <c r="M138" s="132">
-        <f t="shared" si="8"/>
-        <v>316.16000000000003</v>
-      </c>
-      <c r="N138" s="98">
-        <v>500</v>
-      </c>
-      <c r="O138" s="100">
-        <f t="shared" si="4"/>
-        <v>183.83999999999997</v>
-      </c>
       <c r="P138" s="101">
         <f t="shared" si="3"/>
-        <v>0.36767999999999995</v>
+        <v>0</v>
       </c>
       <c r="Q138" s="100"/>
       <c r="R138" s="102"/>
@@ -12513,60 +12558,60 @@
       <c r="T138"/>
     </row>
     <row r="139" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="203"/>
-      <c r="B139" s="206" t="s">
-        <v>170</v>
-      </c>
+      <c r="A139" s="184"/>
+      <c r="B139" s="173"/>
       <c r="C139" s="98" t="s">
-        <v>177</v>
+        <v>289</v>
       </c>
       <c r="D139" s="98"/>
       <c r="E139" s="98"/>
       <c r="F139" s="98"/>
       <c r="G139" s="98">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H139" s="98" t="s">
         <v>49</v>
       </c>
       <c r="I139" s="98">
-        <v>1399</v>
+        <v>20.8</v>
       </c>
       <c r="J139" s="98">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K139" s="99">
         <f t="shared" si="7"/>
-        <v>1399</v>
-      </c>
-      <c r="L139" s="98"/>
+        <v>16.64</v>
+      </c>
+      <c r="L139" s="98">
+        <v>0</v>
+      </c>
       <c r="M139" s="132">
         <f t="shared" si="8"/>
-        <v>1399</v>
+        <v>316.16000000000003</v>
       </c>
       <c r="N139" s="98">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="O139" s="100">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>183.83999999999997</v>
       </c>
       <c r="P139" s="101">
         <f t="shared" si="3"/>
-        <v>6.7333333333333328E-2</v>
+        <v>0.36767999999999995</v>
       </c>
       <c r="Q139" s="100"/>
-      <c r="R139" s="102" t="s">
-        <v>196</v>
-      </c>
+      <c r="R139" s="102"/>
       <c r="S139"/>
       <c r="T139"/>
     </row>
     <row r="140" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="203"/>
-      <c r="B140" s="206"/>
+      <c r="A140" s="184"/>
+      <c r="B140" s="187" t="s">
+        <v>170</v>
+      </c>
       <c r="C140" s="98" t="s">
-        <v>329</v>
+        <v>177</v>
       </c>
       <c r="D140" s="98"/>
       <c r="E140" s="98"/>
@@ -12578,34 +12623,34 @@
         <v>49</v>
       </c>
       <c r="I140" s="98">
-        <v>5199</v>
+        <v>1399</v>
       </c>
       <c r="J140" s="98">
         <v>1</v>
       </c>
       <c r="K140" s="99">
         <f t="shared" si="7"/>
-        <v>5199</v>
-      </c>
-      <c r="L140" s="98"/>
+        <v>1399</v>
+      </c>
+      <c r="L140" s="98">
+        <v>0</v>
+      </c>
       <c r="M140" s="132">
         <f t="shared" si="8"/>
-        <v>5199</v>
+        <v>1399</v>
       </c>
       <c r="N140" s="98">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="O140" s="100">
         <f t="shared" si="4"/>
-        <v>801</v>
+        <v>101</v>
       </c>
       <c r="P140" s="101">
         <f t="shared" si="3"/>
-        <v>0.13350000000000001</v>
-      </c>
-      <c r="Q140" s="100" t="s">
-        <v>322</v>
-      </c>
+        <v>6.7333333333333328E-2</v>
+      </c>
+      <c r="Q140" s="100"/>
       <c r="R140" s="102" t="s">
         <v>196</v>
       </c>
@@ -12613,297 +12658,297 @@
       <c r="T140"/>
     </row>
     <row r="141" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="203"/>
-      <c r="B141" s="206"/>
-      <c r="C141" s="147" t="s">
-        <v>330</v>
-      </c>
-      <c r="D141" s="147"/>
-      <c r="E141" s="147"/>
-      <c r="F141" s="147"/>
-      <c r="G141" s="147">
-        <v>1</v>
-      </c>
-      <c r="H141" s="147" t="s">
+      <c r="A141" s="184"/>
+      <c r="B141" s="187"/>
+      <c r="C141" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="D141" s="98"/>
+      <c r="E141" s="98"/>
+      <c r="F141" s="98"/>
+      <c r="G141" s="98">
+        <v>1</v>
+      </c>
+      <c r="H141" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="I141" s="147">
-        <v>2099</v>
-      </c>
-      <c r="J141" s="147">
+      <c r="I141" s="98">
+        <v>5199</v>
+      </c>
+      <c r="J141" s="98">
         <v>1</v>
       </c>
       <c r="K141" s="99">
         <f t="shared" si="7"/>
+        <v>5199</v>
+      </c>
+      <c r="L141" s="98">
+        <v>0</v>
+      </c>
+      <c r="M141" s="132">
+        <f t="shared" si="8"/>
+        <v>5199</v>
+      </c>
+      <c r="N141" s="98">
+        <v>6000</v>
+      </c>
+      <c r="O141" s="100">
+        <f t="shared" si="4"/>
+        <v>801</v>
+      </c>
+      <c r="P141" s="101">
+        <f t="shared" si="3"/>
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="Q141" s="100" t="s">
+        <v>322</v>
+      </c>
+      <c r="R141" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="S141"/>
+      <c r="T141"/>
+    </row>
+    <row r="142" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="184"/>
+      <c r="B142" s="187"/>
+      <c r="C142" s="147" t="s">
+        <v>330</v>
+      </c>
+      <c r="D142" s="147"/>
+      <c r="E142" s="147"/>
+      <c r="F142" s="147"/>
+      <c r="G142" s="147">
+        <v>1</v>
+      </c>
+      <c r="H142" s="147" t="s">
+        <v>49</v>
+      </c>
+      <c r="I142" s="147">
         <v>2099</v>
       </c>
-      <c r="L141" s="147">
-        <v>0</v>
-      </c>
-      <c r="M141" s="147">
+      <c r="J142" s="147">
+        <v>1</v>
+      </c>
+      <c r="K142" s="99">
+        <f t="shared" si="7"/>
+        <v>2099</v>
+      </c>
+      <c r="L142" s="147">
+        <v>0</v>
+      </c>
+      <c r="M142" s="147">
         <f t="shared" si="8"/>
         <v>2099</v>
       </c>
-      <c r="N141" s="147">
+      <c r="N142" s="147">
         <v>3000</v>
       </c>
-      <c r="O141" s="100">
+      <c r="O142" s="100">
         <f t="shared" si="4"/>
         <v>901</v>
       </c>
-      <c r="P141" s="101">
+      <c r="P142" s="101">
         <f t="shared" si="3"/>
         <v>0.30033333333333334</v>
       </c>
-      <c r="Q141" s="100"/>
-      <c r="R141" s="102"/>
-      <c r="S141"/>
-      <c r="T141"/>
-    </row>
-    <row r="142" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="203"/>
-      <c r="B142" s="206"/>
-      <c r="C142" s="98" t="s">
+      <c r="Q142" s="100"/>
+      <c r="R142" s="102"/>
+      <c r="S142"/>
+      <c r="T142"/>
+    </row>
+    <row r="143" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="184"/>
+      <c r="B143" s="187"/>
+      <c r="C143" s="98" t="s">
         <v>320</v>
       </c>
-      <c r="D142" s="98"/>
-      <c r="E142" s="98"/>
-      <c r="F142" s="98"/>
-      <c r="G142" s="98">
-        <v>1</v>
-      </c>
-      <c r="H142" s="98" t="s">
+      <c r="D143" s="98"/>
+      <c r="E143" s="98"/>
+      <c r="F143" s="98"/>
+      <c r="G143" s="98">
+        <v>1</v>
+      </c>
+      <c r="H143" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="I142" s="98">
+      <c r="I143" s="98">
         <v>1820</v>
       </c>
-      <c r="J142" s="98">
-        <v>1</v>
-      </c>
-      <c r="K142" s="99">
+      <c r="J143" s="98">
+        <v>1</v>
+      </c>
+      <c r="K143" s="99">
         <f t="shared" si="7"/>
         <v>1820</v>
       </c>
-      <c r="L142" s="98">
-        <v>0</v>
-      </c>
-      <c r="M142" s="147">
+      <c r="L143" s="98">
+        <v>0</v>
+      </c>
+      <c r="M143" s="147">
         <f t="shared" si="8"/>
         <v>1820</v>
       </c>
-      <c r="N142" s="98">
+      <c r="N143" s="98">
         <v>3000</v>
       </c>
-      <c r="O142" s="100">
+      <c r="O143" s="100">
         <f t="shared" si="4"/>
         <v>1180</v>
       </c>
-      <c r="P142" s="101">
+      <c r="P143" s="101">
         <f t="shared" si="3"/>
         <v>0.39333333333333331</v>
       </c>
-      <c r="Q142" s="100"/>
-      <c r="R142" s="102" t="s">
-        <v>196</v>
-      </c>
-      <c r="S142"/>
-      <c r="T142"/>
-    </row>
-    <row r="143" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="204"/>
-      <c r="B143" s="194"/>
-      <c r="C143" s="151" t="s">
-        <v>327</v>
-      </c>
-      <c r="D143" s="151"/>
-      <c r="E143" s="151"/>
-      <c r="F143" s="151"/>
-      <c r="G143" s="151">
-        <v>1</v>
-      </c>
-      <c r="H143" s="151" t="s">
-        <v>181</v>
-      </c>
-      <c r="I143" s="151">
-        <v>410</v>
-      </c>
-      <c r="J143" s="151">
-        <v>1</v>
-      </c>
-      <c r="K143" s="99">
-        <f t="shared" si="7"/>
-        <v>410</v>
-      </c>
-      <c r="L143" s="151">
-        <v>0</v>
-      </c>
-      <c r="M143" s="152">
-        <f t="shared" si="8"/>
-        <v>410</v>
-      </c>
-      <c r="N143" s="151">
-        <v>0</v>
-      </c>
-      <c r="O143" s="100">
-        <f t="shared" si="4"/>
-        <v>-410</v>
-      </c>
-      <c r="P143" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q143" s="105" t="s">
-        <v>328</v>
-      </c>
-      <c r="R143" s="107" t="s">
+      <c r="Q143" s="100"/>
+      <c r="R143" s="102" t="s">
         <v>196</v>
       </c>
       <c r="S143"/>
       <c r="T143"/>
     </row>
     <row r="144" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="204"/>
-      <c r="B144" s="194"/>
+      <c r="A144" s="185"/>
+      <c r="B144" s="172"/>
       <c r="C144" s="151" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="D144" s="151"/>
       <c r="E144" s="151"/>
       <c r="F144" s="151"/>
       <c r="G144" s="151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H144" s="151" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="I144" s="151">
-        <v>30</v>
+        <v>410</v>
       </c>
       <c r="J144" s="151">
         <v>1</v>
       </c>
       <c r="K144" s="99">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>410</v>
       </c>
       <c r="L144" s="151">
         <v>0</v>
       </c>
       <c r="M144" s="152">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>410</v>
       </c>
       <c r="N144" s="151">
         <v>0</v>
       </c>
       <c r="O144" s="100">
         <f t="shared" si="4"/>
-        <v>-90</v>
-      </c>
-      <c r="P144" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q144" s="105"/>
-      <c r="R144" s="107"/>
+        <v>-410</v>
+      </c>
+      <c r="P144" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q144" s="105" t="s">
+        <v>328</v>
+      </c>
+      <c r="R144" s="107" t="s">
+        <v>196</v>
+      </c>
       <c r="S144"/>
       <c r="T144"/>
     </row>
     <row r="145" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="204"/>
-      <c r="B145" s="194"/>
-      <c r="C145" s="139" t="s">
-        <v>104</v>
-      </c>
-      <c r="D145" s="139"/>
-      <c r="E145" s="139"/>
-      <c r="F145" s="139"/>
-      <c r="G145" s="139">
-        <v>1</v>
-      </c>
-      <c r="H145" s="139" t="s">
+      <c r="A145" s="185"/>
+      <c r="B145" s="172"/>
+      <c r="C145" s="151" t="s">
+        <v>363</v>
+      </c>
+      <c r="D145" s="151"/>
+      <c r="E145" s="151"/>
+      <c r="F145" s="151"/>
+      <c r="G145" s="151">
+        <v>3</v>
+      </c>
+      <c r="H145" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="I145" s="139">
-        <v>2238</v>
-      </c>
-      <c r="J145" s="139">
+      <c r="I145" s="151">
+        <v>30</v>
+      </c>
+      <c r="J145" s="151">
         <v>1</v>
       </c>
       <c r="K145" s="99">
         <f t="shared" si="7"/>
-        <v>2238</v>
-      </c>
-      <c r="L145" s="139">
-        <v>0</v>
-      </c>
-      <c r="M145" s="145">
+        <v>30</v>
+      </c>
+      <c r="L145" s="151">
+        <v>0</v>
+      </c>
+      <c r="M145" s="152">
         <f t="shared" si="8"/>
-        <v>2238</v>
-      </c>
-      <c r="N145" s="139">
-        <v>3000</v>
+        <v>90</v>
+      </c>
+      <c r="N145" s="151">
+        <v>0</v>
       </c>
       <c r="O145" s="100">
         <f t="shared" si="4"/>
-        <v>762</v>
-      </c>
-      <c r="P145" s="106">
-        <f t="shared" si="3"/>
-        <v>0.254</v>
-      </c>
-      <c r="Q145" s="105" t="s">
-        <v>338</v>
-      </c>
-      <c r="R145" s="107" t="s">
-        <v>196</v>
-      </c>
+        <v>-90</v>
+      </c>
+      <c r="P145" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q145" s="105"/>
+      <c r="R145" s="107"/>
       <c r="S145"/>
       <c r="T145"/>
     </row>
     <row r="146" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="204"/>
-      <c r="B146" s="194"/>
-      <c r="C146" s="161" t="s">
-        <v>366</v>
-      </c>
-      <c r="D146" s="161"/>
-      <c r="E146" s="161"/>
-      <c r="F146" s="161"/>
-      <c r="G146" s="161">
-        <v>1</v>
-      </c>
-      <c r="H146" s="161" t="s">
-        <v>367</v>
-      </c>
-      <c r="I146" s="161">
-        <v>94</v>
-      </c>
-      <c r="J146" s="161">
-        <v>1</v>
-      </c>
-      <c r="K146" s="104">
+      <c r="A146" s="185"/>
+      <c r="B146" s="172"/>
+      <c r="C146" s="165" t="s">
+        <v>374</v>
+      </c>
+      <c r="D146" s="165"/>
+      <c r="E146" s="165"/>
+      <c r="F146" s="165"/>
+      <c r="G146" s="165">
+        <v>1</v>
+      </c>
+      <c r="H146" s="165" t="s">
+        <v>49</v>
+      </c>
+      <c r="I146" s="165">
+        <v>1658</v>
+      </c>
+      <c r="J146" s="165">
+        <v>1</v>
+      </c>
+      <c r="K146" s="99">
         <f t="shared" si="7"/>
-        <v>94</v>
-      </c>
-      <c r="L146" s="161">
-        <v>0</v>
-      </c>
-      <c r="M146" s="162">
+        <v>1658</v>
+      </c>
+      <c r="L146" s="165">
+        <v>0</v>
+      </c>
+      <c r="M146" s="166">
         <f t="shared" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="N146" s="161">
-        <v>100</v>
+        <v>1658</v>
+      </c>
+      <c r="N146" s="165">
+        <v>0</v>
       </c>
       <c r="O146" s="100">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="P146" s="106">
-        <f t="shared" si="3"/>
-        <v>0.06</v>
+        <v>-1658</v>
+      </c>
+      <c r="P146" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q146" s="105"/>
       <c r="R146" s="107"/>
@@ -12911,228 +12956,368 @@
       <c r="T146"/>
     </row>
     <row r="147" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="204"/>
-      <c r="B147" s="194"/>
-      <c r="C147" s="146" t="s">
-        <v>319</v>
-      </c>
-      <c r="D147" s="146"/>
-      <c r="E147" s="146"/>
-      <c r="F147" s="146"/>
-      <c r="G147" s="146">
-        <v>1</v>
-      </c>
-      <c r="H147" s="146" t="s">
-        <v>49</v>
-      </c>
-      <c r="I147" s="146">
-        <v>917</v>
-      </c>
-      <c r="J147" s="146">
-        <v>1</v>
-      </c>
-      <c r="K147" s="104">
+      <c r="A147" s="185"/>
+      <c r="B147" s="172"/>
+      <c r="C147" s="165" t="s">
+        <v>375</v>
+      </c>
+      <c r="D147" s="165"/>
+      <c r="E147" s="165"/>
+      <c r="F147" s="165"/>
+      <c r="G147" s="165">
+        <v>1</v>
+      </c>
+      <c r="H147" s="165" t="s">
+        <v>181</v>
+      </c>
+      <c r="I147" s="165">
+        <v>160</v>
+      </c>
+      <c r="J147" s="165">
+        <v>1</v>
+      </c>
+      <c r="K147" s="99">
         <f t="shared" si="7"/>
-        <v>917</v>
-      </c>
-      <c r="L147" s="146">
-        <v>0</v>
-      </c>
-      <c r="M147" s="147">
+        <v>160</v>
+      </c>
+      <c r="L147" s="165">
+        <v>0</v>
+      </c>
+      <c r="M147" s="166">
         <f t="shared" si="8"/>
-        <v>917</v>
-      </c>
-      <c r="N147" s="146">
+        <v>160</v>
+      </c>
+      <c r="N147" s="165">
         <v>0</v>
       </c>
       <c r="O147" s="100">
         <f t="shared" si="4"/>
-        <v>-917</v>
-      </c>
-      <c r="P147" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q147" s="105"/>
+        <v>-160</v>
+      </c>
+      <c r="P147" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q147" s="105" t="s">
+        <v>376</v>
+      </c>
       <c r="R147" s="107"/>
       <c r="S147"/>
       <c r="T147"/>
     </row>
     <row r="148" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="204"/>
-      <c r="B148" s="194"/>
-      <c r="C148" s="103" t="s">
+      <c r="A148" s="185"/>
+      <c r="B148" s="172"/>
+      <c r="C148" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="D148" s="139"/>
+      <c r="E148" s="139"/>
+      <c r="F148" s="139"/>
+      <c r="G148" s="139">
+        <v>1</v>
+      </c>
+      <c r="H148" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="I148" s="139">
+        <v>2238</v>
+      </c>
+      <c r="J148" s="139">
+        <v>1</v>
+      </c>
+      <c r="K148" s="99">
+        <f t="shared" si="7"/>
+        <v>2238</v>
+      </c>
+      <c r="L148" s="139">
+        <v>0</v>
+      </c>
+      <c r="M148" s="145">
+        <f t="shared" si="8"/>
+        <v>2238</v>
+      </c>
+      <c r="N148" s="139">
+        <v>3000</v>
+      </c>
+      <c r="O148" s="100">
+        <f t="shared" si="4"/>
+        <v>762</v>
+      </c>
+      <c r="P148" s="101">
+        <f t="shared" si="3"/>
+        <v>0.254</v>
+      </c>
+      <c r="Q148" s="105" t="s">
+        <v>338</v>
+      </c>
+      <c r="R148" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="S148"/>
+      <c r="T148"/>
+    </row>
+    <row r="149" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="185"/>
+      <c r="B149" s="172"/>
+      <c r="C149" s="161" t="s">
+        <v>366</v>
+      </c>
+      <c r="D149" s="161"/>
+      <c r="E149" s="161"/>
+      <c r="F149" s="161"/>
+      <c r="G149" s="161">
+        <v>1</v>
+      </c>
+      <c r="H149" s="161" t="s">
+        <v>367</v>
+      </c>
+      <c r="I149" s="161">
+        <v>94</v>
+      </c>
+      <c r="J149" s="161">
+        <v>1</v>
+      </c>
+      <c r="K149" s="104">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="L149" s="161">
+        <v>0</v>
+      </c>
+      <c r="M149" s="162">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="N149" s="161">
+        <v>100</v>
+      </c>
+      <c r="O149" s="100">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P149" s="106">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="Q149" s="105"/>
+      <c r="R149" s="107"/>
+      <c r="S149"/>
+      <c r="T149"/>
+    </row>
+    <row r="150" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="185"/>
+      <c r="B150" s="172"/>
+      <c r="C150" s="146" t="s">
+        <v>319</v>
+      </c>
+      <c r="D150" s="146"/>
+      <c r="E150" s="146"/>
+      <c r="F150" s="146"/>
+      <c r="G150" s="146">
+        <v>1</v>
+      </c>
+      <c r="H150" s="146" t="s">
+        <v>49</v>
+      </c>
+      <c r="I150" s="146">
+        <v>917</v>
+      </c>
+      <c r="J150" s="146">
+        <v>1</v>
+      </c>
+      <c r="K150" s="104">
+        <f t="shared" si="7"/>
+        <v>917</v>
+      </c>
+      <c r="L150" s="146">
+        <v>0</v>
+      </c>
+      <c r="M150" s="147">
+        <f t="shared" si="8"/>
+        <v>917</v>
+      </c>
+      <c r="N150" s="146">
+        <v>0</v>
+      </c>
+      <c r="O150" s="100">
+        <f t="shared" si="4"/>
+        <v>-917</v>
+      </c>
+      <c r="P150" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q150" s="105"/>
+      <c r="R150" s="107"/>
+      <c r="S150"/>
+      <c r="T150"/>
+    </row>
+    <row r="151" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="185"/>
+      <c r="B151" s="172"/>
+      <c r="C151" s="103" t="s">
         <v>207</v>
       </c>
-      <c r="D148" s="103"/>
-      <c r="E148" s="103"/>
-      <c r="F148" s="103"/>
-      <c r="G148" s="103">
-        <v>1</v>
-      </c>
-      <c r="H148" s="103" t="s">
+      <c r="D151" s="103"/>
+      <c r="E151" s="103"/>
+      <c r="F151" s="103"/>
+      <c r="G151" s="103">
+        <v>1</v>
+      </c>
+      <c r="H151" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="I148" s="103">
+      <c r="I151" s="103">
         <v>1231</v>
       </c>
-      <c r="J148" s="103">
-        <v>1</v>
-      </c>
-      <c r="K148" s="104">
+      <c r="J151" s="103">
+        <v>1</v>
+      </c>
+      <c r="K151" s="104">
         <f t="shared" si="7"/>
         <v>1231</v>
       </c>
-      <c r="L148" s="103">
-        <v>0</v>
-      </c>
-      <c r="M148" s="132">
+      <c r="L151" s="103">
+        <v>0</v>
+      </c>
+      <c r="M151" s="132">
         <f t="shared" si="8"/>
         <v>1231</v>
       </c>
-      <c r="N148" s="103">
+      <c r="N151" s="103">
         <v>1500</v>
       </c>
-      <c r="O148" s="100">
+      <c r="O151" s="100">
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
-      <c r="P148" s="106">
+      <c r="P151" s="106">
         <f t="shared" si="3"/>
         <v>0.17933333333333334</v>
       </c>
-      <c r="Q148" s="105"/>
-      <c r="R148" s="107" t="s">
+      <c r="Q151" s="105"/>
+      <c r="R151" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="S148"/>
-      <c r="T148"/>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A149" s="30"/>
-      <c r="B149" s="30"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="27"/>
-      <c r="K149" s="29"/>
-      <c r="L149" s="27"/>
-      <c r="M149" s="28"/>
-      <c r="N149" s="27"/>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A150" s="22"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="22"/>
-      <c r="G150" s="22"/>
-      <c r="H150" s="22"/>
-      <c r="I150" s="22"/>
-      <c r="J150" s="22"/>
-      <c r="K150" s="24"/>
-      <c r="L150" s="22"/>
-      <c r="M150" s="22"/>
-      <c r="N150" s="22"/>
-      <c r="O150" s="25"/>
-      <c r="P150" s="33"/>
-      <c r="Q150" s="25"/>
-      <c r="R150" s="25"/>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B151" s="14" t="s">
+      <c r="S151"/>
+      <c r="T151"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A152" s="30"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="27"/>
+      <c r="K152" s="29"/>
+      <c r="L152" s="27"/>
+      <c r="M152" s="28"/>
+      <c r="N152" s="27"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A153" s="22"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="22"/>
+      <c r="J153" s="22"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="22"/>
+      <c r="M153" s="22"/>
+      <c r="N153" s="22"/>
+      <c r="O153" s="25"/>
+      <c r="P153" s="33"/>
+      <c r="Q153" s="25"/>
+      <c r="R153" s="25"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B154" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C151" s="15">
-        <f>SUM(M4:M150)</f>
-        <v>178069.16279999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B152" s="10" t="s">
+      <c r="C154" s="15">
+        <f>SUM(M4:M153)</f>
+        <v>180916.16279999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B155" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C152" s="11">
-        <f>SUM(N4:N150)</f>
-        <v>204895</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B153" s="12" t="s">
+      <c r="C155" s="11">
+        <f>SUM(N4:N153)</f>
+        <v>205895</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B156" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C153" s="13">
-        <f>C152-C151</f>
-        <v>26825.837200000009</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B154" s="9" t="s">
+      <c r="C156" s="13">
+        <f>C155-C154</f>
+        <v>24978.837200000009</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B157" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C154" s="16">
-        <f>C153/C152</f>
-        <v>0.13092480148368682</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B155" s="9"/>
-      <c r="C155" s="16"/>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B157" s="164" t="s">
+      <c r="C157" s="16">
+        <f>C156/C155</f>
+        <v>0.12131832827412035</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B158" s="9"/>
+      <c r="C158" s="16"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B160" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="C157" s="164">
+      <c r="C160" s="164">
         <f>SUM(I4:I8)</f>
         <v>18917.439999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B158" s="15" t="s">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B161" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="C158" s="15">
-        <f>C151-C157</f>
-        <v>159151.72279999999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B159" s="140" t="s">
+      <c r="C161" s="15">
+        <f>C154-C160</f>
+        <v>161998.72279999999</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B162" s="140" t="s">
         <v>312</v>
       </c>
-      <c r="C159" s="140">
-        <f>150000-C158</f>
-        <v>-9151.7227999999886</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B160" s="140" t="s">
+      <c r="C162" s="140">
+        <f>150000-C161</f>
+        <v>-11998.722799999989</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B163" s="140" t="s">
         <v>313</v>
       </c>
-      <c r="C160" s="140">
-        <f>150000-C151</f>
-        <v>-28069.162799999991</v>
+      <c r="C163" s="140">
+        <f>150000-C154</f>
+        <v>-30916.162799999991</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AH148" xr:uid="{88ACFA08-6BD0-6848-9DB5-1337D36BCF36}"/>
+  <autoFilter ref="A2:AH151" xr:uid="{88ACFA08-6BD0-6848-9DB5-1337D36BCF36}"/>
   <mergeCells count="25">
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="A101:A128"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="A129:A148"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="B139:B148"/>
-    <mergeCell ref="B103:B125"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="B134:B135"/>
     <mergeCell ref="R1:AH1"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B11"/>
@@ -13148,6 +13333,16 @@
     <mergeCell ref="B78:B92"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B93:B100"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="A101:A128"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A129:A151"/>
+    <mergeCell ref="B140:B151"/>
+    <mergeCell ref="B103:B125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B129:B134"/>
   </mergeCells>
   <conditionalFormatting sqref="P1:P1048576">
     <cfRule type="dataBar" priority="1">
@@ -13312,7 +13507,7 @@
       <c r="B10" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="209">
+      <c r="C10" s="211">
         <v>780</v>
       </c>
     </row>
@@ -13320,7 +13515,7 @@
       <c r="B11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="209"/>
+      <c r="C11" s="211"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
